--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5767A82D-C72B-6E45-803A-C70F2013492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BFA056-483A-7F49-A454-BE45CA4E8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27800" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="27780" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
     <sheet name="IIQScenario1" sheetId="2" r:id="rId2"/>
-    <sheet name="RasSurveyScenario1" sheetId="3" r:id="rId3"/>
+    <sheet name="RasSurveyScenario1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1674">
   <si>
     <t>Question</t>
   </si>
@@ -5227,9 +5227,6 @@
     <t>Test 232</t>
   </si>
   <si>
-    <t>Test 233</t>
-  </si>
-  <si>
     <t>At what age was the nasogastric or nasojejunal tube placed? Age</t>
   </si>
   <si>
@@ -5252,6 +5249,42 @@
   </si>
   <si>
     <t>Test237</t>
+  </si>
+  <si>
+    <t>Test238</t>
+  </si>
+  <si>
+    <t>Test239</t>
+  </si>
+  <si>
+    <t>Test240</t>
+  </si>
+  <si>
+    <t>Test241</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all medications to which you are allergic.  To add a new medication, please click on the '+' button in the upper left corner of the table.  Once a new medication is added, please indicate the name of the medication and the reaction that occurred after taking the medication.  Please be as specific as possible and only include medications.  If you are allergic to food and other items, we will ask about those on the next page. Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all medications to which you are allergic.  To add a new medication, please click on the '+' button in the upper left corner of the table.  Once a new medication is added, please indicate the name of the medication and the reaction that occurred after taking the medication.  Please be as specific as possible and only include medications.  If you are allergic to food and other items, we will ask about those on the next page. Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all foods to which you are allergic. To add a new food, please click on the '+' button in the upper left corner of the table. Once a new food is added, please indicate the name of the food and the reaction that occurred after eating the food. Please be as specific as possible and include only food.  If you are also allergic to other things, such as bee stings, we will ask about those in the next question. Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all foods to which you are allergic. To add a new food, please click on the '+' button in the upper left corner of the table. Once a new food is added, please indicate the name of the food and the reaction that occurred after eating the food. Please be as specific as possible and include only food.  If you are also allergic to other things, such as bee stings, we will ask about those in the next question. Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all other items to which you are allergic that were not included in medication or food allergies. To add a new item, please click on the '+' button in the upper left corner of the table. Once a new item is added, please indicate the name of the item and the reaction that occurred after exposure to the item. Please be as specific as possible. Column 2</t>
+  </si>
+  <si>
+    <t>Test242</t>
+  </si>
+  <si>
+    <t>Test243</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all other items to which you are allergic that were not included in medication or food allergies. To add a new item, please click on the '+' button in the upper left corner of the table. Once a new item is added, please indicate the name of the item and the reaction that occurred after exposure to the item. Please be as specific as possible. Column 1</t>
   </si>
 </sst>
 </file>
@@ -5673,7 +5706,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5987,7 +6020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6463,17 +6496,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2445F0-E72D-E44C-9605-30829DB30695}">
-  <dimension ref="A1:B1093"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A65A74-ED7E-754D-9872-746C3B2DB6A5}">
+  <dimension ref="A1:B898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-    <col min="2" max="2" width="94.1640625" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -6484,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
@@ -6492,7 +6525,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>138</v>
       </c>
@@ -6500,7 +6533,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>139</v>
       </c>
@@ -6508,7 +6541,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
@@ -6516,7 +6549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>140</v>
       </c>
@@ -6524,7 +6557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>984</v>
       </c>
@@ -6532,7 +6565,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
@@ -6540,7 +6573,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>989</v>
       </c>
@@ -6556,7 +6589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>143</v>
       </c>
@@ -6564,7 +6597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>144</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -6580,7 +6613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>146</v>
       </c>
@@ -6588,7 +6621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
@@ -6596,7 +6629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>990</v>
       </c>
@@ -6604,7 +6637,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>991</v>
       </c>
@@ -6612,7 +6645,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>992</v>
       </c>
@@ -6620,7 +6653,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>993</v>
       </c>
@@ -6628,7 +6661,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>994</v>
       </c>
@@ -6636,7 +6669,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>995</v>
       </c>
@@ -6644,7 +6677,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>996</v>
       </c>
@@ -6652,7 +6685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
@@ -6660,7 +6693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1021</v>
       </c>
@@ -6668,7 +6701,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1002</v>
       </c>
@@ -6676,7 +6709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>1003</v>
       </c>
@@ -6684,7 +6717,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>1004</v>
       </c>
@@ -6692,7 +6725,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1005</v>
       </c>
@@ -6700,7 +6733,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1006</v>
       </c>
@@ -6708,7 +6741,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>1007</v>
       </c>
@@ -6716,7 +6749,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1008</v>
       </c>
@@ -6724,7 +6757,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>1009</v>
       </c>
@@ -6732,7 +6765,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1010</v>
       </c>
@@ -6740,7 +6773,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1011</v>
       </c>
@@ -6748,7 +6781,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>1054</v>
       </c>
@@ -6756,7 +6789,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1055</v>
       </c>
@@ -6764,7 +6797,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1056</v>
       </c>
@@ -6772,7 +6805,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
@@ -6780,7 +6813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1023</v>
       </c>
@@ -6788,7 +6821,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1050</v>
       </c>
@@ -6796,7 +6829,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>1024</v>
       </c>
@@ -6804,7 +6837,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1025</v>
       </c>
@@ -6812,7 +6845,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>1026</v>
       </c>
@@ -6820,7 +6853,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1027</v>
       </c>
@@ -6828,7 +6861,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>1028</v>
       </c>
@@ -6836,7 +6869,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1029</v>
       </c>
@@ -6844,7 +6877,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>1030</v>
       </c>
@@ -6852,7 +6885,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1031</v>
       </c>
@@ -6860,7 +6893,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1051</v>
       </c>
@@ -6868,7 +6901,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>1032</v>
       </c>
@@ -6876,7 +6909,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>1033</v>
       </c>
@@ -6884,7 +6917,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>1034</v>
       </c>
@@ -6892,7 +6925,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>1035</v>
       </c>
@@ -6900,7 +6933,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1052</v>
       </c>
@@ -6908,7 +6941,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>1053</v>
       </c>
@@ -6916,7 +6949,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>1063</v>
       </c>
@@ -6924,7 +6957,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>1064</v>
       </c>
@@ -6932,7 +6965,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>1065</v>
       </c>
@@ -6940,7 +6973,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>1066</v>
       </c>
@@ -6948,7 +6981,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1067</v>
       </c>
@@ -6956,7 +6989,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1068</v>
       </c>
@@ -6964,7 +6997,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>1069</v>
       </c>
@@ -6972,7 +7005,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>1070</v>
       </c>
@@ -6980,7 +7013,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>1071</v>
       </c>
@@ -6988,7 +7021,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1072</v>
       </c>
@@ -6996,7 +7029,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1073</v>
       </c>
@@ -7004,7 +7037,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>1074</v>
       </c>
@@ -7012,7 +7045,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>1075</v>
       </c>
@@ -7020,7 +7053,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>1076</v>
       </c>
@@ -7028,7 +7061,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1077</v>
       </c>
@@ -7036,7 +7069,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>1078</v>
       </c>
@@ -7044,7 +7077,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>1079</v>
       </c>
@@ -7052,7 +7085,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1080</v>
       </c>
@@ -7060,7 +7093,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>1081</v>
       </c>
@@ -7068,7 +7101,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>1082</v>
       </c>
@@ -7076,7 +7109,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>1083</v>
       </c>
@@ -7084,7 +7117,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>1084</v>
       </c>
@@ -7092,7 +7125,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>1085</v>
       </c>
@@ -7100,7 +7133,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>1086</v>
       </c>
@@ -7108,7 +7141,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>1087</v>
       </c>
@@ -7116,7 +7149,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>1088</v>
       </c>
@@ -7124,7 +7157,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>1089</v>
       </c>
@@ -7132,7 +7165,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1090</v>
       </c>
@@ -7140,7 +7173,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>1091</v>
       </c>
@@ -7148,7 +7181,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>1092</v>
       </c>
@@ -7156,7 +7189,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>1120</v>
       </c>
@@ -7164,7 +7197,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>1123</v>
       </c>
@@ -7172,7 +7205,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>1122</v>
       </c>
@@ -7180,7 +7213,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>1121</v>
       </c>
@@ -7188,7 +7221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>1124</v>
       </c>
@@ -7196,7 +7229,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>1125</v>
       </c>
@@ -7204,7 +7237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>1126</v>
       </c>
@@ -7212,7 +7245,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1127</v>
       </c>
@@ -7220,7 +7253,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>1128</v>
       </c>
@@ -7228,7 +7261,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>1129</v>
       </c>
@@ -7236,7 +7269,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>1130</v>
       </c>
@@ -7244,7 +7277,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>1131</v>
       </c>
@@ -7252,7 +7285,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>1132</v>
       </c>
@@ -7260,7 +7293,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>1133</v>
       </c>
@@ -7268,7 +7301,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>1134</v>
       </c>
@@ -7276,7 +7309,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>154</v>
       </c>
@@ -7284,7 +7317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>1207</v>
       </c>
@@ -7292,7 +7325,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>1208</v>
       </c>
@@ -7300,7 +7333,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1209</v>
       </c>
@@ -7308,7 +7341,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>1210</v>
       </c>
@@ -7316,7 +7349,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>1211</v>
       </c>
@@ -7324,7 +7357,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>1212</v>
       </c>
@@ -7332,7 +7365,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>1213</v>
       </c>
@@ -7340,7 +7373,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>1145</v>
       </c>
@@ -7348,7 +7381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>1146</v>
       </c>
@@ -7356,7 +7389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>1147</v>
       </c>
@@ -7364,7 +7397,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1148</v>
       </c>
@@ -7372,7 +7405,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>1149</v>
       </c>
@@ -7380,7 +7413,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>1150</v>
       </c>
@@ -7388,7 +7421,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>1151</v>
       </c>
@@ -7396,7 +7429,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>1152</v>
       </c>
@@ -7404,7 +7437,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>1153</v>
       </c>
@@ -7412,7 +7445,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>1154</v>
       </c>
@@ -7420,7 +7453,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1155</v>
       </c>
@@ -7428,7 +7461,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1156</v>
       </c>
@@ -7436,7 +7469,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>157</v>
       </c>
@@ -7444,7 +7477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>1166</v>
       </c>
@@ -7452,7 +7485,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>1167</v>
       </c>
@@ -7460,7 +7493,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>1168</v>
       </c>
@@ -7468,7 +7501,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>1169</v>
       </c>
@@ -7476,7 +7509,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>1170</v>
       </c>
@@ -7484,7 +7517,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>1173</v>
       </c>
@@ -7492,7 +7525,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>1175</v>
       </c>
@@ -7500,7 +7533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>1176</v>
       </c>
@@ -7508,7 +7541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>1177</v>
       </c>
@@ -7516,7 +7549,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>1178</v>
       </c>
@@ -7524,7 +7557,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>1179</v>
       </c>
@@ -7532,7 +7565,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>1180</v>
       </c>
@@ -7540,7 +7573,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>1181</v>
       </c>
@@ -7548,7 +7581,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>1182</v>
       </c>
@@ -7556,7 +7589,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>1183</v>
       </c>
@@ -7564,7 +7597,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>1184</v>
       </c>
@@ -7572,7 +7605,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1185</v>
       </c>
@@ -7580,7 +7613,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>1186</v>
       </c>
@@ -7588,7 +7621,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>1187</v>
       </c>
@@ -7596,7 +7629,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>1197</v>
       </c>
@@ -7604,7 +7637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1136</v>
       </c>
@@ -7612,7 +7645,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1137</v>
       </c>
@@ -7620,7 +7653,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1138</v>
       </c>
@@ -7628,7 +7661,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>1139</v>
       </c>
@@ -7636,7 +7669,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>1198</v>
       </c>
@@ -7644,7 +7677,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1201</v>
       </c>
@@ -7652,7 +7685,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1203</v>
       </c>
@@ -7660,7 +7693,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1214</v>
       </c>
@@ -7668,7 +7701,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>1215</v>
       </c>
@@ -7676,7 +7709,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>160</v>
       </c>
@@ -7684,7 +7717,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>161</v>
       </c>
@@ -7692,7 +7725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>162</v>
       </c>
@@ -7700,7 +7733,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>163</v>
       </c>
@@ -7708,7 +7741,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>164</v>
       </c>
@@ -7716,7 +7749,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>165</v>
       </c>
@@ -7724,7 +7757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>1220</v>
       </c>
@@ -7732,7 +7765,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>1221</v>
       </c>
@@ -7740,7 +7773,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>1222</v>
       </c>
@@ -7748,7 +7781,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>1223</v>
       </c>
@@ -7756,7 +7789,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>1224</v>
       </c>
@@ -7764,7 +7797,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>167</v>
       </c>
@@ -7772,7 +7805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>168</v>
       </c>
@@ -7780,7 +7813,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1228</v>
       </c>
@@ -7788,7 +7821,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>170</v>
       </c>
@@ -7796,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>171</v>
       </c>
@@ -7804,7 +7837,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>172</v>
       </c>
@@ -7812,7 +7845,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>173</v>
       </c>
@@ -7820,7 +7853,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>174</v>
       </c>
@@ -7828,7 +7861,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>175</v>
       </c>
@@ -7836,7 +7869,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>1233</v>
       </c>
@@ -7844,7 +7877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>176</v>
       </c>
@@ -7852,7 +7885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>178</v>
       </c>
@@ -7860,7 +7893,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>179</v>
       </c>
@@ -7868,7 +7901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>180</v>
       </c>
@@ -7876,7 +7909,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>182</v>
       </c>
@@ -7884,7 +7917,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>184</v>
       </c>
@@ -7892,7 +7925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>185</v>
       </c>
@@ -7900,7 +7933,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
@@ -7908,7 +7941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
@@ -7916,7 +7949,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>190</v>
       </c>
@@ -7924,7 +7957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>192</v>
       </c>
@@ -7932,7 +7965,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>194</v>
       </c>
@@ -7940,7 +7973,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1234</v>
       </c>
@@ -7948,7 +7981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1235</v>
       </c>
@@ -7956,7 +7989,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1236</v>
       </c>
@@ -7964,7 +7997,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1237</v>
       </c>
@@ -7972,7 +8005,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1238</v>
       </c>
@@ -7980,12 +8013,12 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>198</v>
       </c>
@@ -7993,7 +8026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>199</v>
       </c>
@@ -8001,7 +8034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>200</v>
       </c>
@@ -8009,7 +8042,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>201</v>
       </c>
@@ -8017,7 +8050,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>202</v>
       </c>
@@ -8025,7 +8058,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -8033,7 +8066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1245</v>
       </c>
@@ -8041,7 +8074,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1246</v>
       </c>
@@ -8049,7 +8082,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1247</v>
       </c>
@@ -8057,7 +8090,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1248</v>
       </c>
@@ -8065,7 +8098,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1249</v>
       </c>
@@ -8073,7 +8106,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1250</v>
       </c>
@@ -8081,7 +8114,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1251</v>
       </c>
@@ -8089,7 +8122,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1258</v>
       </c>
@@ -8097,7 +8130,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1259</v>
       </c>
@@ -8105,7 +8138,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1260</v>
       </c>
@@ -8113,7 +8146,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1261</v>
       </c>
@@ -8121,7 +8154,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1262</v>
       </c>
@@ -8129,7 +8162,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1263</v>
       </c>
@@ -8137,7 +8170,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1264</v>
       </c>
@@ -8145,7 +8178,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>1265</v>
       </c>
@@ -8153,7 +8186,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>1266</v>
       </c>
@@ -8161,7 +8194,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>1267</v>
       </c>
@@ -8169,7 +8202,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>1268</v>
       </c>
@@ -8177,7 +8210,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>1363</v>
       </c>
@@ -8185,7 +8218,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>1364</v>
       </c>
@@ -8193,7 +8226,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1365</v>
       </c>
@@ -8201,7 +8234,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>1366</v>
       </c>
@@ -8209,7 +8242,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>1367</v>
       </c>
@@ -8217,7 +8250,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>1368</v>
       </c>
@@ -8225,7 +8258,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>1369</v>
       </c>
@@ -8233,7 +8266,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>1370</v>
       </c>
@@ -8241,7 +8274,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>1371</v>
       </c>
@@ -8249,7 +8282,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>1372</v>
       </c>
@@ -8257,7 +8290,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1373</v>
       </c>
@@ -8265,7 +8298,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>1374</v>
       </c>
@@ -8273,7 +8306,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>1375</v>
       </c>
@@ -8281,7 +8314,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>1376</v>
       </c>
@@ -8289,7 +8322,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>1377</v>
       </c>
@@ -8297,7 +8330,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1378</v>
       </c>
@@ -8305,7 +8338,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>1379</v>
       </c>
@@ -8313,7 +8346,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>1380</v>
       </c>
@@ -8321,7 +8354,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>1381</v>
       </c>
@@ -8329,7 +8362,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>1382</v>
       </c>
@@ -8337,7 +8370,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1383</v>
       </c>
@@ -8345,7 +8378,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>1384</v>
       </c>
@@ -8353,7 +8386,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>1385</v>
       </c>
@@ -8361,7 +8394,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>1386</v>
       </c>
@@ -8369,7 +8402,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>1387</v>
       </c>
@@ -8377,7 +8410,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>1388</v>
       </c>
@@ -8385,7 +8418,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1389</v>
       </c>
@@ -8393,7 +8426,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>1390</v>
       </c>
@@ -8401,7 +8434,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>1391</v>
       </c>
@@ -8409,7 +8442,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1392</v>
       </c>
@@ -8417,7 +8450,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>1393</v>
       </c>
@@ -8425,7 +8458,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>1394</v>
       </c>
@@ -8433,7 +8466,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>1395</v>
       </c>
@@ -8441,7 +8474,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>1396</v>
       </c>
@@ -8449,7 +8482,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>1397</v>
       </c>
@@ -8457,7 +8490,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>1398</v>
       </c>
@@ -8465,7 +8498,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>1399</v>
       </c>
@@ -8473,7 +8506,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>1400</v>
       </c>
@@ -8481,7 +8514,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>1401</v>
       </c>
@@ -8489,7 +8522,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>1402</v>
       </c>
@@ -8497,7 +8530,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>1403</v>
       </c>
@@ -8505,7 +8538,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>1404</v>
       </c>
@@ -8513,7 +8546,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>1405</v>
       </c>
@@ -8521,7 +8554,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>1406</v>
       </c>
@@ -8529,7 +8562,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>1407</v>
       </c>
@@ -8537,7 +8570,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>1441</v>
       </c>
@@ -8545,7 +8578,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>1442</v>
       </c>
@@ -8553,7 +8586,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>1443</v>
       </c>
@@ -8561,7 +8594,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>1444</v>
       </c>
@@ -8569,7 +8602,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>1445</v>
       </c>
@@ -8577,7 +8610,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>1446</v>
       </c>
@@ -8585,7 +8618,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>1447</v>
       </c>
@@ -8593,7 +8626,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>1448</v>
       </c>
@@ -8601,7 +8634,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>1449</v>
       </c>
@@ -8609,7 +8642,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>1450</v>
       </c>
@@ -8617,7 +8650,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>1408</v>
       </c>
@@ -8625,7 +8658,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>1409</v>
       </c>
@@ -8633,7 +8666,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>1410</v>
       </c>
@@ -8641,7 +8674,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>1411</v>
       </c>
@@ -8649,7 +8682,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>1412</v>
       </c>
@@ -8657,7 +8690,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>1413</v>
       </c>
@@ -8665,7 +8698,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>1414</v>
       </c>
@@ -8673,7 +8706,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>1415</v>
       </c>
@@ -8681,7 +8714,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>1416</v>
       </c>
@@ -8689,7 +8722,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>1417</v>
       </c>
@@ -8697,7 +8730,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>1418</v>
       </c>
@@ -8705,7 +8738,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>1419</v>
       </c>
@@ -8713,7 +8746,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>1420</v>
       </c>
@@ -8721,7 +8754,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>1421</v>
       </c>
@@ -8729,7 +8762,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>1439</v>
       </c>
@@ -8737,7 +8770,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>1422</v>
       </c>
@@ -8745,7 +8778,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>1423</v>
       </c>
@@ -8753,7 +8786,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>1424</v>
       </c>
@@ -8761,7 +8794,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>1425</v>
       </c>
@@ -8769,7 +8802,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>1426</v>
       </c>
@@ -8777,7 +8810,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1427</v>
       </c>
@@ -8785,7 +8818,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>1428</v>
       </c>
@@ -8793,7 +8826,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>1440</v>
       </c>
@@ -8801,7 +8834,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>1429</v>
       </c>
@@ -8809,7 +8842,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>1430</v>
       </c>
@@ -8817,7 +8850,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>1431</v>
       </c>
@@ -8825,7 +8858,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>1432</v>
       </c>
@@ -8833,7 +8866,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>1433</v>
       </c>
@@ -8841,7 +8874,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>1434</v>
       </c>
@@ -8849,7 +8882,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>1435</v>
       </c>
@@ -8857,7 +8890,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>1436</v>
       </c>
@@ -8865,7 +8898,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>1437</v>
       </c>
@@ -8873,7 +8906,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>1438</v>
       </c>
@@ -8937,7 +8970,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>1463</v>
       </c>
@@ -8945,7 +8978,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>1464</v>
       </c>
@@ -8953,7 +8986,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>1465</v>
       </c>
@@ -8961,7 +8994,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>1466</v>
       </c>
@@ -8969,7 +9002,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>1467</v>
       </c>
@@ -8977,7 +9010,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>1468</v>
       </c>
@@ -8985,7 +9018,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>1469</v>
       </c>
@@ -8993,7 +9026,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>1470</v>
       </c>
@@ -9646,481 +9679,481 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A398" s="2" t="s">
+    <row r="398" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A398" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A399" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A400" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A401" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B398" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="1" t="s">
-        <v>1630</v>
-      </c>
       <c r="B404" t="s">
-        <v>1635</v>
+        <v>70</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>216</v>
+        <v>1625</v>
       </c>
       <c r="B405" t="s">
-        <v>70</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="B406" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="B407" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="B408" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="B409" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="B410" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A411" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B411" s="11" t="s">
-        <v>217</v>
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B411" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="B412" t="s">
-        <v>70</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="B413" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="B414" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
       <c r="B415" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A416" s="2" t="s">
-        <v>218</v>
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>1641</v>
       </c>
       <c r="B416" t="s">
-        <v>219</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B417" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A418" s="2" t="s">
-        <v>222</v>
+        <v>1647</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>1648</v>
       </c>
       <c r="B418" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A419" s="2" t="s">
-        <v>224</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>1649</v>
       </c>
       <c r="B419" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A420" s="2" t="s">
-        <v>226</v>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>1650</v>
       </c>
       <c r="B420" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A421" s="2" t="s">
-        <v>228</v>
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>1651</v>
       </c>
       <c r="B421" t="s">
-        <v>229</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B422" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A423" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B423" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A424" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B424" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B425" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A426" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B426" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A427" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B427" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A428" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A429" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B429" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A430" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B430" t="s">
         <v>1657</v>
       </c>
-      <c r="B422" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A423" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B423" t="s">
+    </row>
+    <row r="431" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A431" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B431" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A424" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B424" t="s">
+    <row r="432" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A432" s="2" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A425" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B425" t="s">
+      <c r="B432" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A433" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B433" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A426" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B426" t="s">
+    <row r="434" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A434" s="2" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A427" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B427" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A428" s="2" t="s">
+      <c r="B434" t="s">
         <v>1661</v>
       </c>
-      <c r="B428" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A429" s="2" t="s">
+    </row>
+    <row r="435" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A435" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B429" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A430" s="2" t="s">
+      <c r="B435" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B436" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B431" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B432" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B433" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B434" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B435" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B436" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B438" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B439" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B440" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B441" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B442" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B443" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B444" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B445" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B446" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B447" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B448" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B449" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B450" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B451" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B452" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B453" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B454" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B455" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B456" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B457" t="s">
         <v>70</v>
@@ -10128,7 +10161,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B458" t="s">
         <v>70</v>
@@ -10136,7 +10169,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B459" t="s">
         <v>70</v>
@@ -10144,7 +10177,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B460" t="s">
         <v>70</v>
@@ -10152,7 +10185,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B461" t="s">
         <v>70</v>
@@ -10160,7 +10193,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B462" t="s">
         <v>70</v>
@@ -10168,7 +10201,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B463" t="s">
         <v>70</v>
@@ -10176,7 +10209,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B464" t="s">
         <v>70</v>
@@ -10184,7 +10217,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B465" t="s">
         <v>70</v>
@@ -10192,7 +10225,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B466" t="s">
         <v>70</v>
@@ -10200,7 +10233,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B467" t="s">
         <v>70</v>
@@ -10208,7 +10241,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B468" t="s">
         <v>70</v>
@@ -10216,7 +10249,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B469" t="s">
         <v>70</v>
@@ -10224,7 +10257,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B470" t="s">
         <v>70</v>
@@ -10232,15 +10265,15 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B471" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A472" s="2" t="s">
-        <v>298</v>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B472" t="s">
         <v>70</v>
@@ -10248,7 +10281,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B473" t="s">
         <v>70</v>
@@ -10256,7 +10289,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B474" t="s">
         <v>70</v>
@@ -10264,7 +10297,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B475" t="s">
         <v>70</v>
@@ -10272,7 +10305,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B476" t="s">
         <v>70</v>
@@ -10280,23 +10313,23 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B477" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="1" t="s">
-        <v>305</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A478" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B478" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B479" t="s">
         <v>70</v>
@@ -10304,7 +10337,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B480" t="s">
         <v>70</v>
@@ -10312,7 +10345,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B481" t="s">
         <v>70</v>
@@ -10320,31 +10353,31 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B482" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B483">
-        <v>2</v>
+        <v>303</v>
+      </c>
+      <c r="B483" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B484" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B485" t="s">
         <v>70</v>
@@ -10352,7 +10385,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B486" t="s">
         <v>70</v>
@@ -10360,7 +10393,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B487" t="s">
         <v>70</v>
@@ -10368,23 +10401,23 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B488" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B489" t="s">
-        <v>70</v>
+        <v>312</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B490" t="s">
         <v>70</v>
@@ -10392,7 +10425,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B491" t="s">
         <v>70</v>
@@ -10400,7 +10433,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B492" t="s">
         <v>70</v>
@@ -10408,7 +10441,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B493" t="s">
         <v>70</v>
@@ -10416,7 +10449,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B494" t="s">
         <v>70</v>
@@ -10424,7 +10457,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B495" t="s">
         <v>70</v>
@@ -10432,7 +10465,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B496" t="s">
         <v>70</v>
@@ -10440,7 +10473,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B497" t="s">
         <v>70</v>
@@ -10448,7 +10481,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B498" t="s">
         <v>70</v>
@@ -10456,7 +10489,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B499" t="s">
         <v>70</v>
@@ -10464,7 +10497,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B500" t="s">
         <v>70</v>
@@ -10472,7 +10505,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B501" t="s">
         <v>70</v>
@@ -10480,7 +10513,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B502" t="s">
         <v>70</v>
@@ -10488,7 +10521,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B503" t="s">
         <v>70</v>
@@ -10496,39 +10529,39 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B504">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="B504" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B505" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B506">
-        <v>123</v>
+        <v>329</v>
+      </c>
+      <c r="B506" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B507" t="s">
-        <v>338</v>
+        <v>70</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B508" t="s">
         <v>70</v>
@@ -10536,7 +10569,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B509" t="s">
         <v>70</v>
@@ -10544,7 +10577,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -10552,405 +10585,405 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B511" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B512" t="s">
-        <v>345</v>
+        <v>336</v>
+      </c>
+      <c r="B512">
+        <v>123</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B513" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B514" t="s">
-        <v>349</v>
+        <v>70</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B515" t="s">
-        <v>351</v>
+        <v>70</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B516" t="s">
-        <v>353</v>
+        <v>341</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B517" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B518" t="s">
-        <v>70</v>
+        <v>345</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B519" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
+      </c>
+      <c r="B520" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B521" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B522" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B523" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
+      </c>
+      <c r="B524" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B525" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B526" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B527" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B528" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B529" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B531" t="s">
-        <v>70</v>
+        <v>368</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B532">
-        <v>1</v>
+        <v>367</v>
+      </c>
+      <c r="B532" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
+      </c>
+      <c r="B533" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
+      </c>
+      <c r="B534" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B535">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="B535" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B536" t="s">
-        <v>153</v>
+        <v>376</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+      <c r="B537" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B538" t="s">
-        <v>70</v>
+        <v>378</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B539" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B540" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B541" t="s">
-        <v>390</v>
+        <v>381</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B542" t="s">
-        <v>392</v>
+        <v>153</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B543" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B544" t="s">
-        <v>396</v>
+        <v>70</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B545" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B546" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B547" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B548" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B549" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B550" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B551" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B552" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B553" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B554" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B555" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B556" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B557" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B558" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B559" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B560" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B561" t="s">
-        <v>70</v>
+        <v>417</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B562" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B563" t="s">
         <v>70</v>
@@ -10958,71 +10991,71 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B564" t="s">
-        <v>70</v>
+        <v>421</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B565" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B566" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B567" t="s">
-        <v>433</v>
+        <v>70</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B568" t="s">
-        <v>435</v>
+        <v>70</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B569" t="s">
-        <v>437</v>
+        <v>70</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B570" t="s">
-        <v>439</v>
+        <v>70</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B571" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B572" t="s">
         <v>70</v>
@@ -11030,47 +11063,47 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B573" t="s">
-        <v>70</v>
+        <v>433</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B574" t="s">
-        <v>70</v>
+        <v>435</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B575" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B576" t="s">
-        <v>70</v>
+        <v>439</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B577" t="s">
-        <v>70</v>
+        <v>441</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B578" t="s">
         <v>70</v>
@@ -11078,23 +11111,23 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B579" t="s">
-        <v>450</v>
+        <v>70</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B580" t="s">
-        <v>450</v>
+        <v>70</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B581" t="s">
         <v>70</v>
@@ -11102,7 +11135,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B582" t="s">
         <v>70</v>
@@ -11110,7 +11143,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B583" t="s">
         <v>70</v>
@@ -11118,7 +11151,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B584" t="s">
         <v>70</v>
@@ -11126,23 +11159,23 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B585" t="s">
-        <v>70</v>
+        <v>450</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B586" t="s">
-        <v>70</v>
+        <v>450</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B587" t="s">
         <v>70</v>
@@ -11150,39 +11183,39 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B588" t="s">
-        <v>460</v>
+        <v>70</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B589" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A590" s="2" t="s">
-        <v>462</v>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="B590" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A591" s="2" t="s">
-        <v>463</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B591" t="s">
-        <v>460</v>
+        <v>70</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B592" t="s">
         <v>70</v>
@@ -11190,7 +11223,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B593" t="s">
         <v>70</v>
@@ -11198,7 +11231,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B594" t="s">
         <v>460</v>
@@ -11206,71 +11239,71 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B595" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="1" t="s">
-        <v>468</v>
+    <row r="596" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A596" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="B596" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A597" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="B597" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B598" t="s">
-        <v>471</v>
+        <v>70</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B599" t="s">
-        <v>471</v>
+        <v>70</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B600" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B601" t="s">
-        <v>471</v>
+        <v>70</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B602" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B603" t="s">
         <v>471</v>
@@ -11278,7 +11311,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B604" t="s">
         <v>471</v>
@@ -11286,7 +11319,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B605" t="s">
         <v>471</v>
@@ -11294,7 +11327,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B606" t="s">
         <v>471</v>
@@ -11302,7 +11335,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B607" t="s">
         <v>471</v>
@@ -11310,7 +11343,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B608" t="s">
         <v>471</v>
@@ -11318,7 +11351,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B609" t="s">
         <v>471</v>
@@ -11326,7 +11359,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B610" t="s">
         <v>471</v>
@@ -11334,7 +11367,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B611" t="s">
         <v>471</v>
@@ -11342,433 +11375,433 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B612" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B613" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B614" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B615" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B616" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B617" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B618" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A613" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B613" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A614" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B614" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A615" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B615" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A616" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B616" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A617" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B617" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A618" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B618" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B619" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A620" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B620" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A621" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B621" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A622" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B622" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A623" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B623" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A624" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B624" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A625" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B625" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A620" s="2" t="s">
+    <row r="626" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A626" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B626" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A621" s="2" t="s">
+    <row r="627" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A627" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A622" s="2" t="s">
+    <row r="628" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A628" s="2" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B623" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B624" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B625" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B626" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B627" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B628" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B629" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B630" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B631" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B632" t="s">
-        <v>70</v>
+        <v>507</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B633" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B634" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B635" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A636" s="2" t="s">
-        <v>524</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="B636" t="s">
-        <v>70</v>
+        <v>515</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B637" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B638" t="s">
-        <v>528</v>
+        <v>70</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B639" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B640" t="s">
-        <v>229</v>
+        <v>521</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B641" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A642" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="B642" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B643" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B644" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B645" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B646" t="s">
-        <v>543</v>
+        <v>229</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B647" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B648" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B649" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B650" t="s">
-        <v>70</v>
+        <v>539</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B651" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B652" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B653" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B654" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B655" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B656" t="s">
-        <v>561</v>
+        <v>70</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B657" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B658" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B659" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B660" t="s">
-        <v>229</v>
+        <v>557</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B661" t="s">
-        <v>70</v>
+        <v>559</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B662" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B663" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B664" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B665" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B666" t="s">
         <v>229</v>
@@ -11776,2399 +11809,1844 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B667" t="s">
-        <v>580</v>
+        <v>70</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B668" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B669" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B670" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B671" t="s">
-        <v>229</v>
+        <v>577</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B672" t="s">
-        <v>589</v>
+        <v>229</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B673" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B674" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B675" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B676" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B677" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A678" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B678" s="11" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A679" s="2" t="s">
-        <v>600</v>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B678" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="B679" t="s">
-        <v>70</v>
+        <v>591</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B680" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B681" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B682" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B683" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B684" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685" s="1" t="s">
-        <v>611</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A684" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B684" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A685" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="B685" t="s">
-        <v>612</v>
+        <v>70</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B686" t="s">
-        <v>229</v>
+        <v>602</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B687" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B688" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B689" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B690" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B691" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B692" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B687" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A688" s="2" t="s">
+      <c r="B693" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A694" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B694" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A689" s="2" t="s">
+    <row r="695" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A695" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B695" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A690" s="2" t="s">
+    <row r="696" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A696" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B696" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A691" s="2" t="s">
+    <row r="697" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A697" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B697" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A692" s="2" t="s">
+    <row r="698" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A698" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B698" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A693" s="2" t="s">
+    <row r="699" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A699" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B693" t="s">
+      <c r="B699" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A694" s="2" t="s">
+    <row r="700" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A700" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B694" t="s">
+      <c r="B700" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A695" s="2" t="s">
+    <row r="701" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A701" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B695" t="s">
+      <c r="B701" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A696" s="2" t="s">
+    <row r="702" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A702" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B702" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A697" s="2" t="s">
+    <row r="703" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A703" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B697" t="s">
+      <c r="B703" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A698" s="2" t="s">
+    <row r="704" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A704" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B698" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A699" s="2" t="s">
+      <c r="B704" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A705" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B699" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A700" s="2" t="s">
+      <c r="B705" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A706" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B706" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A701" s="2" t="s">
+    <row r="707" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A707" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B707" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A702" s="2" t="s">
+    <row r="708" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A708" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B702" t="s">
+      <c r="B708" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A703" s="2" t="s">
+    <row r="709" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A709" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B709" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A704" s="2" t="s">
+    <row r="710" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A710" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B710" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A705" s="2" t="s">
+    <row r="711" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A711" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B705" t="s">
+      <c r="B711" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A706" s="2" t="s">
+    <row r="712" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A712" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B712" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A707" s="2" t="s">
+    <row r="713" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A713" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B713" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A708" s="2" t="s">
+    <row r="714" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A714" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B708" t="s">
+      <c r="B714" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A709" s="2" t="s">
+    <row r="715" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A715" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B709" t="s">
+      <c r="B715" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A710" s="1" t="s">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B716" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A711" s="2" t="s">
+    <row r="717" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A717" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B717" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A712" s="2" t="s">
+    <row r="718" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A718" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B718" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A713" s="2" t="s">
+    <row r="719" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A719" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B713" t="s">
+      <c r="B719" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A714" s="2" t="s">
+    <row r="720" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A720" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B714" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A715" s="2" t="s">
+      <c r="B720" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A721" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B721" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A716" s="2" t="s">
+    <row r="722" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A722" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B722" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A717" s="2" t="s">
+    <row r="723" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A723" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B723" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A718" s="2" t="s">
+    <row r="724" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A724" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B718" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A719" s="2" t="s">
+      <c r="B724" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A725" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A720" s="2" t="s">
+    <row r="726" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A726" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A721" s="2" t="s">
+    <row r="727" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A727" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A722" s="2" t="s">
+    <row r="728" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A728" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A723" s="2" t="s">
+    <row r="729" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A729" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B729" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A724" s="2" t="s">
+    <row r="730" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A730" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B730" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A725" s="2" t="s">
+    <row r="731" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A731" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B725" t="s">
+      <c r="B731" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A726" s="2" t="s">
+    <row r="732" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A732" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B726" t="s">
+      <c r="B732" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A727" s="2" t="s">
+    <row r="733" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A733" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B733" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A728" s="2" t="s">
+    <row r="734" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A734" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B728" t="s">
+      <c r="B734" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A729" s="2" t="s">
+    <row r="735" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A735" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B729" t="s">
+      <c r="B735" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A730" s="2" t="s">
+    <row r="736" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A736" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B730" t="s">
+      <c r="B736" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A731" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B731" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A732" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B732" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A733" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B733" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A734" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B734" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A735" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B735" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A736" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B736" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A737" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B737" t="s">
-        <v>702</v>
+        <v>70</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A738" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="B738" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A739" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B739" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A740" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B740" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A741" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B741" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A742" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B742" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A743" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B743" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A744" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B744" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A745" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B739" t="s">
+      <c r="B745" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A740" s="2" t="s">
+    <row r="746" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A746" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B746" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A741" s="2" t="s">
+    <row r="747" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A747" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B741" t="s">
+      <c r="B747" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A742" s="2" t="s">
+    <row r="748" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A748" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B742" t="s">
+      <c r="B748" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A743" s="2" t="s">
+    <row r="749" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A749" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B743" t="s">
+      <c r="B749" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A744" s="2" t="s">
+    <row r="750" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A750" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B744" t="s">
+      <c r="B750" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A745" s="2" t="s">
+    <row r="751" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A751" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B751" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A746" s="2" t="s">
+    <row r="752" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A752" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B752" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A747" s="2" t="s">
+    <row r="753" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A753" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B747" t="s">
+      <c r="B753" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A748" s="2" t="s">
+    <row r="754" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A754" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B748" t="s">
+      <c r="B754" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A749" s="2" t="s">
+    <row r="755" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A755" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B749" t="s">
+      <c r="B755" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A750" s="2" t="s">
+    <row r="756" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A756" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B756" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A751" s="2" t="s">
+    <row r="757" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A757" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B751" t="s">
+      <c r="B757" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A752" s="2" t="s">
+    <row r="758" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A758" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B752" t="s">
+      <c r="B758" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A753" s="2" t="s">
+    <row r="759" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A759" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B753" t="s">
+      <c r="B759" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A754" s="2" t="s">
+    <row r="760" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A760" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A755" s="2" t="s">
+    <row r="761" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A761" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B755" t="s">
+      <c r="B761" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A756" s="2" t="s">
+    <row r="762" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A762" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B762" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A757" s="2" t="s">
+    <row r="763" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A763" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B757" t="s">
+      <c r="B763" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A758" s="2" t="s">
+    <row r="764" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A764" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B758" t="s">
+      <c r="B764" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A759" s="2" t="s">
+    <row r="765" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A765" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B759" t="s">
+      <c r="B765" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A760" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B760" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A761" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B761" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A762" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B762" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A763" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B763" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A764" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B764" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A765" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B765" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A766" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B766" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A767" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B767" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A768" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B768" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A769" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B769" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A770" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B770" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A771" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B771" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A772" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B766" t="s">
+      <c r="B772" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A767" s="2" t="s">
+    <row r="773" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A773" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B767" t="s">
+      <c r="B773" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A768" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B768" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A769" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B769" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A770" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B770" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A771" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B771" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A772" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B772" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A773" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B773" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A774" s="2" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="B774" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="775" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A775" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B775" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A776" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B776" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A777" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B777" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A778" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B778" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A779" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B779" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A780" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B780" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A781" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B775" t="s">
+      <c r="B781" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A776" s="2" t="s">
+    <row r="782" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A782" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B776" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A777" s="2" t="s">
+      <c r="B782" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A783" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B783" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A778" s="2" t="s">
+    <row r="784" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A784" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B778" t="s">
+      <c r="B784" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A779" s="2" t="s">
+    <row r="785" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A785" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B785" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A780" s="2" t="s">
+    <row r="786" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A786" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B780" t="s">
+      <c r="B786" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A781" s="2" t="s">
+    <row r="787" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A787" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B787" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A782" s="2" t="s">
+    <row r="788" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A788" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B788" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A783" s="2" t="s">
+    <row r="789" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A789" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B783" t="s">
+      <c r="B789" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A784" s="2" t="s">
+    <row r="790" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A790" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B784" t="s">
+      <c r="B790" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A785" s="2" t="s">
+    <row r="791" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A791" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B785" t="s">
+      <c r="B791" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A786" s="2" t="s">
+    <row r="792" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A792" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B786" t="s">
+      <c r="B792" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A787" s="2" t="s">
+    <row r="793" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A793" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B787" t="s">
+      <c r="B793" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A788" s="2" t="s">
+    <row r="794" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A794" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="B788" t="s">
+      <c r="B794" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A789" s="2" t="s">
+    <row r="795" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A795" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B789" t="s">
+      <c r="B795" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A790" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B790" s="11" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A791" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B791" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A792" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="B792" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A793" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="B793" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A794" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B794" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A795" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B795" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A796" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B796" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+      <c r="B796" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A797" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B797" t="s">
-        <v>811</v>
+        <v>70</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A798" s="2" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="B798" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A799" s="2" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="B799" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A800" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B800" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A801" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B801" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A802" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B802" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A803" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B803" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A804" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B804" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A805" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B805" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A806" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B800" t="s">
+      <c r="B806" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A801" s="2" t="s">
+    <row r="807" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A807" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B801" t="s">
+      <c r="B807" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A802" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B802" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A803" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B803" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A804" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B804" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A805" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B805" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A806" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B806" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A807" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B807" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A808" s="2" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B808" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A809" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B809" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A810" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B810" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A811" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B811" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A812" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B812" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A813" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B813" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A814" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B814" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A815" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B809" t="s">
+      <c r="B815" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A810" s="2" t="s">
+    <row r="816" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A816" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B810" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A811" s="2" t="s">
+      <c r="B816" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A817" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B811" t="s">
+      <c r="B817" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="812" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A812" s="2" t="s">
+    <row r="818" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A818" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B812" t="s">
+      <c r="B818" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A813" s="2" t="s">
+    <row r="819" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A819" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="B813" t="s">
+      <c r="B819" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="814" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A814" s="2" t="s">
+    <row r="820" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A820" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="B814" t="s">
+      <c r="B820" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="815" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A815" s="2" t="s">
+    <row r="821" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A821" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B815" t="s">
+      <c r="B821" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="816" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A816" s="2" t="s">
+    <row r="822" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A822" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B816" t="s">
+      <c r="B822" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="817" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A817" s="2" t="s">
+    <row r="823" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A823" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B817" t="s">
+      <c r="B823" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="818" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A818" s="2" t="s">
+    <row r="824" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A824" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B818" t="s">
+      <c r="B824" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="819" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A819" s="2" t="s">
+    <row r="825" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A825" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B819" t="s">
+      <c r="B825" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="820" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A820" s="2" t="s">
+    <row r="826" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A826" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B820" t="s">
+      <c r="B826" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="821" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A821" s="2" t="s">
+    <row r="827" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A827" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B821" t="s">
+      <c r="B827" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="822" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A822" s="2" t="s">
+    <row r="828" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A828" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B822" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A823" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B823" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A824" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="B824" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A825" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="B825" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A826" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="B826" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A827" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B827" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A828" s="2" t="s">
-        <v>867</v>
-      </c>
       <c r="B828" t="s">
-        <v>868</v>
+        <v>70</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A829" s="2" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B829" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A830" s="2" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="B830" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A831" s="2" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="B831" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A832" s="2" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="B832" t="s">
-        <v>876</v>
+        <v>70</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A833" s="2" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B833" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A834" s="2" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B834" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A835" s="2" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B835" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A836" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B836" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A837" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B837" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A838" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B838" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A839" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B839" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A840" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B840" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A841" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B841" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A842" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="B836" t="s">
+      <c r="B842" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="837" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A837" s="2" t="s">
+    <row r="843" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A843" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="B837" t="s">
+      <c r="B843" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A838" s="2" t="s">
+    <row r="844" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A844" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B838" t="s">
+      <c r="B844" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A839" s="2" t="s">
+    <row r="845" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A845" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B839" t="s">
+      <c r="B845" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="840" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A840" s="2" t="s">
+    <row r="846" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A846" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B840" t="s">
+      <c r="B846" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="841" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A841" s="2" t="s">
+    <row r="847" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A847" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="B841" t="s">
+      <c r="B847" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A842" s="2" t="s">
+    <row r="848" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A848" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B842" t="s">
+      <c r="B848" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A843" s="2" t="s">
+    <row r="849" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A849" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B843" t="s">
+      <c r="B849" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="844" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A844" s="2" t="s">
+    <row r="850" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A850" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B844" t="s">
+      <c r="B850" t="s">
         <v>899</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A845" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B845" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A846" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B846" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A847" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B847" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A848" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B848" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A849" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B849" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A850" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B850" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A851" s="2" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B851" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A852" s="2" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B852" t="s">
-        <v>911</v>
+        <v>70</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A853" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B853" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A854" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B854" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A855" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B855" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A856" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B856" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A857" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B857" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A858" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B858" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A859" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B853" t="s">
+      <c r="B859" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="854" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A854" s="2" t="s">
+    <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A860" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="B854" t="s">
+      <c r="B860" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A855" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="B855" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A856" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="B856" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A857" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B857" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A858" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B858" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A859" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="B859" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A860" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B860" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A861" s="2" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="B861" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A862" s="2" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="B862" t="s">
-        <v>70</v>
+        <v>918</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A863" s="2" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B863" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A864" s="2" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B864" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A865" s="2" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B865" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A866" s="2" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="B866" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="867" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A867" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B867" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A868" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B868" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A869" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B869" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A870" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B870" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A871" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B871" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A872" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B872" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A873" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="B867" t="s">
+      <c r="B873" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="868" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A868" s="2" t="s">
+    <row r="874" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A874" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B868" t="s">
+      <c r="B874" t="s">
         <v>941</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A869" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B869" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A870" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B870" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A871" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B871" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A872" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B872" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A873" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="B873" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A874" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="B874" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A875" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B875" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A876" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B876" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A877" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B877" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A878" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B878" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A879" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B879" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A880" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B880" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A881" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B875" t="s">
+      <c r="B881" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="876" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A876" s="2" t="s">
+    <row r="882" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A882" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B876" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A877" s="2" t="s">
+      <c r="B882" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A883" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="B877" t="s">
+      <c r="B883" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="878" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A878" s="2" t="s">
+    <row r="884" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A884" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="B878" t="s">
+      <c r="B884" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="879" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A879" s="2" t="s">
+    <row r="885" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A885" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="B879" t="s">
+      <c r="B885" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="880" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A880" s="2" t="s">
+    <row r="886" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A886" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="B880" t="s">
+      <c r="B886" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="881" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A881" s="2" t="s">
+    <row r="887" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A887" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="B881" t="s">
+      <c r="B887" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="882" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A882" s="2" t="s">
+    <row r="888" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A888" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="B882" t="s">
+      <c r="B888" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="883" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A883" s="2" t="s">
+    <row r="889" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A889" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="B883" t="s">
+      <c r="B889" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="884" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A884" s="2" t="s">
+    <row r="890" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A890" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B890" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="885" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A885" s="2" t="s">
+    <row r="891" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A891" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B891" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="886" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A886" s="2" t="s">
+    <row r="892" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A892" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="B886" t="s">
+      <c r="B892" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="887" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A887" s="2" t="s">
+    <row r="893" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A893" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="B887" t="s">
+      <c r="B893" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="888" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A888" s="2" t="s">
+    <row r="894" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A894" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B888" t="s">
+      <c r="B894" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A889" s="1" t="s">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B889" t="s">
+      <c r="B895" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="890" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A890" s="2" t="s">
+    <row r="896" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A896" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B890" t="s">
+      <c r="B896" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="891" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A891" s="2" t="s">
+    <row r="897" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A897" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B891" t="s">
+      <c r="B897" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="892" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A892" s="2" t="s">
+    <row r="898" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A898" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B892" s="11" t="s">
+      <c r="B898" s="11" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A893" s="1"/>
-    </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A894" s="1"/>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A895" s="1"/>
-    </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A896" s="1"/>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A897" s="1"/>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A898" s="1"/>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A899" s="1"/>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A900" s="1"/>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A901" s="1"/>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A902" s="1"/>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903" s="1"/>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A904" s="1"/>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A905" s="1"/>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906" s="1"/>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A907" s="1"/>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A908" s="1"/>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A909" s="1"/>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A910" s="1"/>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A911" s="1"/>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912" s="1"/>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A913" s="1"/>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A914" s="1"/>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A915" s="1"/>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A916" s="1"/>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A917" s="1"/>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A918" s="1"/>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A919" s="1"/>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A920" s="1"/>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A921" s="1"/>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A922" s="1"/>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A923" s="1"/>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A924" s="1"/>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A925" s="1"/>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A926" s="1"/>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A927" s="1"/>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A928" s="1"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A929" s="1"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930" s="1"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A931" s="1"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A932" s="1"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A933" s="1"/>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A934" s="1"/>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A935" s="1"/>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936" s="1"/>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A937" s="1"/>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A938" s="1"/>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A939" s="1"/>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A940" s="1"/>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A941" s="1"/>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942" s="1"/>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A943" s="1"/>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A944" s="1"/>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A945" s="1"/>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A946" s="1"/>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A947" s="1"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A948" s="1"/>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A949" s="1"/>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A950" s="1"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951" s="1"/>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A952" s="1"/>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A953" s="1"/>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A954" s="1"/>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A955" s="1"/>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A956" s="1"/>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A957" s="1"/>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A958" s="1"/>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A959" s="1"/>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960" s="1"/>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A961" s="1"/>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A962" s="1"/>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A963" s="1"/>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A964" s="1"/>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A965" s="1"/>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A966" s="1"/>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A967" s="1"/>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A968" s="1"/>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969" s="1"/>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A970" s="1"/>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A971" s="1"/>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A972" s="1"/>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A973" s="1"/>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" s="1"/>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A979" s="1"/>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A980" s="1"/>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A981" s="1"/>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A982" s="1"/>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A983" s="1"/>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984" s="1"/>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A985" s="1"/>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A986" s="1"/>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A987" s="1"/>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A988" s="1"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A989" s="1"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990" s="1"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A991" s="1"/>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A992" s="1"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A993" s="1"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A994" s="1"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A995" s="1"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996" s="1"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A998" s="1"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A999" s="1"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="1"/>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="1"/>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1015" s="1"/>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1016" s="1"/>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1017" s="1"/>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1018" s="1"/>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1019" s="1"/>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="1"/>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1021" s="1"/>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1022" s="1"/>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1023" s="1"/>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1032" s="1"/>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1033" s="1"/>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1034" s="1"/>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1035" s="1"/>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1036" s="1"/>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1037" s="1"/>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1038" s="1"/>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1039" s="1"/>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1040" s="1"/>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1041" s="1"/>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1042" s="1"/>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1043" s="1"/>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1044" s="1"/>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1045" s="1"/>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1046" s="1"/>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1047" s="1"/>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048" s="1"/>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1049" s="1"/>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1050" s="1"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="1"/>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1052" s="1"/>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1053" s="1"/>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1054" s="1"/>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1056" s="1"/>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1057" s="1"/>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1058" s="1"/>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1059" s="1"/>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1060" s="1"/>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1061" s="1"/>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1062" s="1"/>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1063" s="1"/>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1064" s="1"/>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1065" s="1"/>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1066" s="1"/>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1067" s="1"/>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1068" s="1"/>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1069" s="1"/>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1070" s="1"/>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1071" s="1"/>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1072" s="1"/>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1073" s="1"/>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1074" s="1"/>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1075" s="1"/>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1076" s="1"/>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1077" s="1"/>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1078" s="1"/>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1079" s="1"/>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1080" s="1"/>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1081" s="1"/>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1082" s="1"/>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1083" s="1"/>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1084" s="1"/>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1085" s="1"/>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1086" s="1"/>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1087" s="1"/>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1088" s="1"/>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1089" s="1"/>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1090" s="1"/>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1091" s="1"/>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1092" s="1"/>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1093" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BFA056-483A-7F49-A454-BE45CA4E8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B3C1F-F132-644B-9036-106E55B8DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="31440" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1631">
   <si>
     <t>Question</t>
   </si>
@@ -922,169 +922,28 @@
     <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 1 Previous</t>
   </si>
   <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 2 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 3 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 4 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 5 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 6 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 7 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 8 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 9 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 10 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 11 Previous</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 12 Current</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 13 Current</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 14 Current</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 15 Current</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 16 Current</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 17 Unsure</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 18 Unsure</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 19 Unsure</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 20 Unsure</t>
-  </si>
-  <si>
-    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 21 Unsure</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Did choking/gagging ever lead to…Oprion 1 Yes</t>
   </si>
   <si>
-    <t>Did choking/gagging ever lead to…Oprion 2 Yes</t>
-  </si>
-  <si>
-    <t>Did choking/gagging ever lead to…Oprion 3 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the table below regarding heartburn/reflux symptoms Has a ph probe Yes</t>
-  </si>
-  <si>
-    <t>Please complete the table below regarding heartburn/reflux symptoms Have any reflux Yes</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding heartburn/reflux symptoms age</t>
   </si>
   <si>
-    <t>2xw</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding heartburn/reflux symptoms medication</t>
   </si>
   <si>
-    <t>iull_</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding nausea symptoms.Has bothersome nausia Yes</t>
   </si>
   <si>
-    <t>Please complete the table below regarding nausea symptoms.Has nausia not related to vomiting Yes</t>
-  </si>
-  <si>
-    <t>Please complete the table below regarding nausea symptoms.Has nausia medications Yes</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding nausea symptoms.Age</t>
   </si>
   <si>
-    <t>qwqe</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding nausea symptoms.Medication</t>
   </si>
   <si>
     <t>Please complete the next set of questions regarding abdominal pain.Option 1 Yes</t>
   </si>
   <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 2 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 3 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 4 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 5 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 6 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 7 Yes</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 8 No</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 9 No</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 10 No</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 11 No</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 12 No</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 13 No</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 14 Unsure</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 15 Unsure</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 16 Unsure</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 17 Unsure</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 18 Unsure</t>
-  </si>
-  <si>
-    <t>Please complete the next set of questions regarding abdominal pain.Option 19 Unsure</t>
-  </si>
-  <si>
     <t>Have any medications ever been taken for abdominal pain?</t>
   </si>
   <si>
@@ -1094,18 +953,12 @@
     <t>Please complete the table below regarding the medications taken for abdominal pain to the best of your ability. Age</t>
   </si>
   <si>
-    <t>wqqs</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding the medications taken for abdominal pain to the best of your ability.medication name</t>
   </si>
   <si>
     <t>Please complete the table below regarding the medications taken for abdominal pain to the best of your ability. Details</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Please complete the next set of questions regarding vomiting.</t>
   </si>
   <si>
@@ -1116,15 +969,6 @@
   </si>
   <si>
     <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken. Age</t>
-  </si>
-  <si>
-    <t>zc xc cx</t>
-  </si>
-  <si>
-    <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken.  Name</t>
-  </si>
-  <si>
-    <t>1_)(*&amp;</t>
   </si>
   <si>
     <t>Have any of the following symptoms occurred 4 or more days/month for at least two months?  Select all that apply. Option 1</t>
@@ -5285,6 +5129,33 @@
   </si>
   <si>
     <t>Please complete the table below for all other items to which you are allergic that were not included in medication or food allergies. To add a new item, please click on the '+' button in the upper left corner of the table. Once a new item is added, please indicate the name of the item and the reaction that occurred after exposure to the item. Please be as specific as possible. Column 1</t>
+  </si>
+  <si>
+    <t>Tube still in place</t>
+  </si>
+  <si>
+    <t>Test244</t>
+  </si>
+  <si>
+    <t>Test245</t>
+  </si>
+  <si>
+    <t>Test246</t>
+  </si>
+  <si>
+    <t>Test247</t>
+  </si>
+  <si>
+    <t>Test248</t>
+  </si>
+  <si>
+    <t>Test249</t>
+  </si>
+  <si>
+    <t>Test250</t>
+  </si>
+  <si>
+    <t>Test251</t>
   </si>
 </sst>
 </file>
@@ -6497,10 +6368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A65A74-ED7E-754D-9872-746C3B2DB6A5}">
-  <dimension ref="A1:B898"/>
+  <dimension ref="A1:B853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6517,20 +6388,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>986</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="323" x14ac:dyDescent="0.2">
@@ -6559,10 +6430,10 @@
     </row>
     <row r="7" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>984</v>
+        <v>932</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -6575,10 +6446,10 @@
     </row>
     <row r="9" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>989</v>
+        <v>937</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>988</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -6602,7 +6473,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>987</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -6631,7 +6502,7 @@
     </row>
     <row r="16" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>990</v>
+        <v>938</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>148</v>
@@ -6639,47 +6510,47 @@
     </row>
     <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>991</v>
+        <v>939</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>997</v>
+        <v>945</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>992</v>
+        <v>940</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>993</v>
+        <v>941</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>999</v>
+        <v>947</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>994</v>
+        <v>942</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1000</v>
+        <v>948</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>995</v>
+        <v>943</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1001</v>
+        <v>949</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>996</v>
+        <v>944</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>51</v>
@@ -6695,15 +6566,15 @@
     </row>
     <row r="24" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1021</v>
+        <v>969</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1022</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1002</v>
+        <v>950</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>150</v>
@@ -6711,98 +6582,98 @@
     </row>
     <row r="26" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1003</v>
+        <v>951</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1012</v>
+        <v>960</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1004</v>
+        <v>952</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1013</v>
+        <v>961</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1005</v>
+        <v>953</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1014</v>
+        <v>962</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1006</v>
+        <v>954</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1015</v>
+        <v>963</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1007</v>
+        <v>955</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1016</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1008</v>
+        <v>956</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1017</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1009</v>
+        <v>957</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1018</v>
+        <v>966</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1010</v>
+        <v>958</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1020</v>
+        <v>968</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1011</v>
+        <v>959</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1019</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1054</v>
+        <v>1002</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1057</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1055</v>
+        <v>1003</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1058</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1056</v>
+        <v>1004</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1059</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -6815,7 +6686,7 @@
     </row>
     <row r="39" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1023</v>
+        <v>971</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>152</v>
@@ -6823,487 +6694,487 @@
     </row>
     <row r="40" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1050</v>
+        <v>998</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1036</v>
+        <v>984</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1024</v>
+        <v>972</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1037</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1025</v>
+        <v>973</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1038</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1026</v>
+        <v>974</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1039</v>
+        <v>987</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1027</v>
+        <v>975</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>1040</v>
+        <v>988</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1028</v>
+        <v>976</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1041</v>
+        <v>989</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1029</v>
+        <v>977</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>1042</v>
+        <v>990</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1030</v>
+        <v>978</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1043</v>
+        <v>991</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1031</v>
+        <v>979</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1044</v>
+        <v>992</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1051</v>
+        <v>999</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1045</v>
+        <v>993</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1032</v>
+        <v>980</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1046</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1033</v>
+        <v>981</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>1047</v>
+        <v>995</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1034</v>
+        <v>982</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1048</v>
+        <v>996</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1035</v>
+        <v>983</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>1049</v>
+        <v>997</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="B86" s="11" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1122</v>
+        <v>1070</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1121</v>
+        <v>1069</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1124</v>
+        <v>1072</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1125</v>
+        <v>1073</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>1126</v>
+        <v>1074</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>1127</v>
+        <v>1075</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1128</v>
+        <v>1076</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>1129</v>
+        <v>1077</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1131</v>
+        <v>1079</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1132</v>
+        <v>1080</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1133</v>
+        <v>1081</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1134</v>
+        <v>1082</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>153</v>
@@ -7319,7 +7190,7 @@
     </row>
     <row r="102" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1207</v>
+        <v>1155</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>155</v>
@@ -7327,39 +7198,39 @@
     </row>
     <row r="103" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1208</v>
+        <v>1156</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1140</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1209</v>
+        <v>1157</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>1144</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1210</v>
+        <v>1158</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>1141</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1211</v>
+        <v>1159</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>1142</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1212</v>
+        <v>1160</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>229</v>
@@ -7367,15 +7238,15 @@
     </row>
     <row r="108" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1213</v>
+        <v>1161</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>1143</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1145</v>
+        <v>1093</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>70</v>
@@ -7383,7 +7254,7 @@
     </row>
     <row r="110" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1146</v>
+        <v>1094</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>156</v>
@@ -7391,71 +7262,71 @@
     </row>
     <row r="111" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>1147</v>
+        <v>1095</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>1158</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1148</v>
+        <v>1096</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>1159</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>1149</v>
+        <v>1097</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>1160</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1150</v>
+        <v>1098</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>1161</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>1151</v>
+        <v>1099</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>1162</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1152</v>
+        <v>1100</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>1163</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1153</v>
+        <v>1101</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>1164</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1154</v>
+        <v>1102</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>1165</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1155</v>
+        <v>1103</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>229</v>
@@ -7463,10 +7334,10 @@
     </row>
     <row r="120" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1156</v>
+        <v>1104</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>1157</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7479,7 +7350,7 @@
     </row>
     <row r="122" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1166</v>
+        <v>1114</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>158</v>
@@ -7487,31 +7358,31 @@
     </row>
     <row r="123" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1167</v>
+        <v>1115</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>1171</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1168</v>
+        <v>1116</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>1216</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1169</v>
+        <v>1117</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>1172</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1170</v>
+        <v>1118</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>229</v>
@@ -7519,15 +7390,15 @@
     </row>
     <row r="127" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1173</v>
+        <v>1121</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>1174</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1175</v>
+        <v>1123</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>70</v>
@@ -7535,7 +7406,7 @@
     </row>
     <row r="129" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>159</v>
@@ -7543,79 +7414,79 @@
     </row>
     <row r="130" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1177</v>
+        <v>1125</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>1188</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1178</v>
+        <v>1126</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1217</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1179</v>
+        <v>1127</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>1189</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1180</v>
+        <v>1128</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>1190</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1181</v>
+        <v>1129</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>1191</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1182</v>
+        <v>1130</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>1192</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1183</v>
+        <v>1131</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>1193</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1184</v>
+        <v>1132</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1194</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1185</v>
+        <v>1133</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>1195</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1186</v>
+        <v>1134</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>229</v>
@@ -7623,15 +7494,15 @@
     </row>
     <row r="140" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1187</v>
+        <v>1135</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>1196</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>1197</v>
+        <v>1145</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>70</v>
@@ -7639,7 +7510,7 @@
     </row>
     <row r="142" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>1136</v>
+        <v>1084</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>155</v>
@@ -7647,23 +7518,23 @@
     </row>
     <row r="143" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>1137</v>
+        <v>1085</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>1140</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>1138</v>
+        <v>1086</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>1200</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>1139</v>
+        <v>1087</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>229</v>
@@ -7671,31 +7542,31 @@
     </row>
     <row r="146" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>1198</v>
+        <v>1146</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1199</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1201</v>
+        <v>1149</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1202</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1203</v>
+        <v>1151</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>1204</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1214</v>
+        <v>1162</v>
       </c>
       <c r="B149">
         <v>108</v>
@@ -7703,7 +7574,7 @@
     </row>
     <row r="150" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1215</v>
+        <v>1163</v>
       </c>
       <c r="B150">
         <v>600</v>
@@ -7717,7 +7588,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>161</v>
       </c>
@@ -7730,7 +7601,7 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>1205</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7738,7 +7609,7 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>1206</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7746,7 +7617,7 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>1219</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -7759,7 +7630,7 @@
     </row>
     <row r="157" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1220</v>
+        <v>1168</v>
       </c>
       <c r="B157" t="s">
         <v>166</v>
@@ -7767,23 +7638,23 @@
     </row>
     <row r="158" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>1221</v>
+        <v>1169</v>
       </c>
       <c r="B158" t="s">
-        <v>1226</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>1222</v>
+        <v>1170</v>
       </c>
       <c r="B159" t="s">
-        <v>1227</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>1223</v>
+        <v>1171</v>
       </c>
       <c r="B160" t="s">
         <v>229</v>
@@ -7791,10 +7662,10 @@
     </row>
     <row r="161" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>1224</v>
+        <v>1172</v>
       </c>
       <c r="B161" t="s">
-        <v>1225</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -7815,7 +7686,7 @@
     </row>
     <row r="164" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>1228</v>
+        <v>1176</v>
       </c>
       <c r="B164">
         <v>880</v>
@@ -7834,7 +7705,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>1229</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -7842,7 +7713,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>1230</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -7850,7 +7721,7 @@
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>1231</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -7858,7 +7729,7 @@
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>1232</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="272" x14ac:dyDescent="0.2">
@@ -7871,7 +7742,7 @@
     </row>
     <row r="171" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1233</v>
+        <v>1181</v>
       </c>
       <c r="B171" t="s">
         <v>70</v>
@@ -7890,7 +7761,7 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>1257</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -7925,7 +7796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>185</v>
       </c>
@@ -7933,7 +7804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
@@ -7975,7 +7846,7 @@
     </row>
     <row r="184" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>1234</v>
+        <v>1182</v>
       </c>
       <c r="B184" t="s">
         <v>196</v>
@@ -7983,23 +7854,23 @@
     </row>
     <row r="185" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>1235</v>
+        <v>1183</v>
       </c>
       <c r="B185" t="s">
-        <v>1239</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>1236</v>
+        <v>1184</v>
       </c>
       <c r="B186" t="s">
-        <v>1240</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>1237</v>
+        <v>1185</v>
       </c>
       <c r="B187" t="s">
         <v>229</v>
@@ -8007,10 +7878,10 @@
     </row>
     <row r="188" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>1238</v>
+        <v>1186</v>
       </c>
       <c r="B188" t="s">
-        <v>1241</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -8039,7 +7910,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>1242</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -8047,7 +7918,7 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>1244</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -8055,10 +7926,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -8068,7 +7939,7 @@
     </row>
     <row r="196" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>1245</v>
+        <v>1193</v>
       </c>
       <c r="B196" t="s">
         <v>204</v>
@@ -8076,39 +7947,39 @@
     </row>
     <row r="197" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>1246</v>
+        <v>1194</v>
       </c>
       <c r="B197" t="s">
-        <v>1252</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>1247</v>
+        <v>1195</v>
       </c>
       <c r="B198" t="s">
-        <v>1253</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>1248</v>
+        <v>1196</v>
       </c>
       <c r="B199" t="s">
-        <v>1254</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>1249</v>
+        <v>1197</v>
       </c>
       <c r="B200" t="s">
-        <v>1255</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>1250</v>
+        <v>1198</v>
       </c>
       <c r="B201" t="s">
         <v>229</v>
@@ -8116,15 +7987,15 @@
     </row>
     <row r="202" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>1251</v>
+        <v>1199</v>
       </c>
       <c r="B202" t="s">
-        <v>1256</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>1258</v>
+        <v>1206</v>
       </c>
       <c r="B203" t="s">
         <v>205</v>
@@ -8132,791 +8003,791 @@
     </row>
     <row r="204" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>1259</v>
+        <v>1207</v>
       </c>
       <c r="B204" t="s">
-        <v>1269</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>1260</v>
+        <v>1208</v>
       </c>
       <c r="B205" t="s">
-        <v>1270</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>1261</v>
+        <v>1209</v>
       </c>
       <c r="B206" t="s">
-        <v>1271</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>1262</v>
+        <v>1210</v>
       </c>
       <c r="B207" t="s">
-        <v>1272</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>1263</v>
+        <v>1211</v>
       </c>
       <c r="B208" t="s">
-        <v>1273</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>1264</v>
+        <v>1212</v>
       </c>
       <c r="B209" t="s">
-        <v>1274</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>1265</v>
+        <v>1213</v>
       </c>
       <c r="B210" t="s">
-        <v>1275</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1266</v>
+        <v>1214</v>
       </c>
       <c r="B211" t="s">
-        <v>1276</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1267</v>
+        <v>1215</v>
       </c>
       <c r="B212" t="s">
-        <v>1277</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B256" t="s">
         <v>1268</v>
       </c>
-      <c r="B213" t="s">
+    </row>
+    <row r="257" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B267" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
+    <row r="268" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="B214" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
+      <c r="B276" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="B215" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
+      <c r="B277" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="B216" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
+      <c r="B278" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="B217" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="B279" t="s">
         <v>1291</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>1419</v>
+        <v>1367</v>
       </c>
       <c r="B280" t="s">
-        <v>1344</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>1420</v>
+        <v>1368</v>
       </c>
       <c r="B281" t="s">
-        <v>1451</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>1421</v>
+        <v>1369</v>
       </c>
       <c r="B282" t="s">
-        <v>1345</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>1439</v>
+        <v>1387</v>
       </c>
       <c r="B283" t="s">
-        <v>1346</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>1422</v>
+        <v>1370</v>
       </c>
       <c r="B284" t="s">
-        <v>1347</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>1423</v>
+        <v>1371</v>
       </c>
       <c r="B285" t="s">
-        <v>1348</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>1424</v>
+        <v>1372</v>
       </c>
       <c r="B286" t="s">
-        <v>1349</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>1425</v>
+        <v>1373</v>
       </c>
       <c r="B287" t="s">
-        <v>1350</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>1426</v>
+        <v>1374</v>
       </c>
       <c r="B288" t="s">
-        <v>1351</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>1427</v>
+        <v>1375</v>
       </c>
       <c r="B289" t="s">
-        <v>1352</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>1428</v>
+        <v>1376</v>
       </c>
       <c r="B290" t="s">
-        <v>1353</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>1440</v>
+        <v>1388</v>
       </c>
       <c r="B291" t="s">
-        <v>1354</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="B292" t="s">
-        <v>1355</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>1430</v>
+        <v>1378</v>
       </c>
       <c r="B293" t="s">
-        <v>1356</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>1431</v>
+        <v>1379</v>
       </c>
       <c r="B294" t="s">
-        <v>1357</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>1432</v>
+        <v>1380</v>
       </c>
       <c r="B295" t="s">
-        <v>1358</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>1433</v>
+        <v>1381</v>
       </c>
       <c r="B296" t="s">
-        <v>1359</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>1434</v>
+        <v>1382</v>
       </c>
       <c r="B297" t="s">
-        <v>1359</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>1435</v>
+        <v>1383</v>
       </c>
       <c r="B298" t="s">
-        <v>1359</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>1436</v>
+        <v>1384</v>
       </c>
       <c r="B299" t="s">
-        <v>1360</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>1437</v>
+        <v>1385</v>
       </c>
       <c r="B300" t="s">
-        <v>1361</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>1438</v>
+        <v>1386</v>
       </c>
       <c r="B301" t="s">
-        <v>1362</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>1452</v>
+        <v>1400</v>
       </c>
       <c r="B302" t="s">
         <v>70</v>
@@ -8924,15 +8795,15 @@
     </row>
     <row r="303" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>1454</v>
+        <v>1402</v>
       </c>
       <c r="B303" t="s">
-        <v>1459</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>1453</v>
+        <v>1401</v>
       </c>
       <c r="B304" t="s">
         <v>206</v>
@@ -8940,15 +8811,15 @@
     </row>
     <row r="305" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>1455</v>
+        <v>1403</v>
       </c>
       <c r="B305" t="s">
-        <v>1460</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>1456</v>
+        <v>1404</v>
       </c>
       <c r="B306" t="s">
         <v>229</v>
@@ -8956,279 +8827,279 @@
     </row>
     <row r="307" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>1457</v>
+        <v>1405</v>
       </c>
       <c r="B307" t="s">
-        <v>1461</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>1458</v>
+        <v>1406</v>
       </c>
       <c r="B308" t="s">
-        <v>1462</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>1463</v>
+        <v>1411</v>
       </c>
       <c r="B309" t="s">
-        <v>1495</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>1464</v>
+        <v>1412</v>
       </c>
       <c r="B310" t="s">
-        <v>1496</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>1465</v>
+        <v>1413</v>
       </c>
       <c r="B311" t="s">
-        <v>1497</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>1466</v>
+        <v>1414</v>
       </c>
       <c r="B312" t="s">
-        <v>1498</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>1467</v>
+        <v>1415</v>
       </c>
       <c r="B313" t="s">
-        <v>1499</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>1468</v>
+        <v>1416</v>
       </c>
       <c r="B314" t="s">
-        <v>1500</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>1469</v>
+        <v>1417</v>
       </c>
       <c r="B315" t="s">
-        <v>1501</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>1470</v>
+        <v>1418</v>
       </c>
       <c r="B316" t="s">
-        <v>1502</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>1471</v>
+        <v>1419</v>
       </c>
       <c r="B317" t="s">
-        <v>1503</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>1472</v>
+        <v>1420</v>
       </c>
       <c r="B318" t="s">
-        <v>1504</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>1473</v>
+        <v>1421</v>
       </c>
       <c r="B319" t="s">
-        <v>1505</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>1474</v>
+        <v>1422</v>
       </c>
       <c r="B320" t="s">
-        <v>1506</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>1475</v>
+        <v>1423</v>
       </c>
       <c r="B321" t="s">
-        <v>1507</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>1476</v>
+        <v>1424</v>
       </c>
       <c r="B322" t="s">
-        <v>1508</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>1477</v>
+        <v>1425</v>
       </c>
       <c r="B323" t="s">
-        <v>1509</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>1478</v>
+        <v>1426</v>
       </c>
       <c r="B324" t="s">
-        <v>1510</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>1479</v>
+        <v>1427</v>
       </c>
       <c r="B325" t="s">
-        <v>1511</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>1480</v>
+        <v>1428</v>
       </c>
       <c r="B326" t="s">
-        <v>1512</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>1481</v>
+        <v>1429</v>
       </c>
       <c r="B327" t="s">
-        <v>1513</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>1482</v>
+        <v>1430</v>
       </c>
       <c r="B328" t="s">
-        <v>1514</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>1483</v>
+        <v>1431</v>
       </c>
       <c r="B329" t="s">
-        <v>1515</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>1484</v>
+        <v>1432</v>
       </c>
       <c r="B330" t="s">
-        <v>1516</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>1485</v>
+        <v>1433</v>
       </c>
       <c r="B331" t="s">
-        <v>1517</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>1486</v>
+        <v>1434</v>
       </c>
       <c r="B332" t="s">
-        <v>1518</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>1487</v>
+        <v>1435</v>
       </c>
       <c r="B333" t="s">
-        <v>1519</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>1488</v>
+        <v>1436</v>
       </c>
       <c r="B334" t="s">
-        <v>1520</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>1489</v>
+        <v>1437</v>
       </c>
       <c r="B335" t="s">
-        <v>1521</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>1490</v>
+        <v>1438</v>
       </c>
       <c r="B336" t="s">
-        <v>1522</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>1492</v>
+        <v>1440</v>
       </c>
       <c r="B337" t="s">
-        <v>1523</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>1493</v>
+        <v>1441</v>
       </c>
       <c r="B338" t="s">
-        <v>1524</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>1494</v>
+        <v>1442</v>
       </c>
       <c r="B339" t="s">
-        <v>1525</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>1491</v>
+        <v>1439</v>
       </c>
       <c r="B340" t="s">
-        <v>1526</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="B341" t="s">
         <v>70</v>
@@ -9236,7 +9107,7 @@
     </row>
     <row r="342" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>1528</v>
+        <v>1476</v>
       </c>
       <c r="B342" t="s">
         <v>70</v>
@@ -9244,7 +9115,7 @@
     </row>
     <row r="343" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>1529</v>
+        <v>1477</v>
       </c>
       <c r="B343" t="s">
         <v>207</v>
@@ -9252,290 +9123,290 @@
     </row>
     <row r="344" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>1530</v>
+        <v>1478</v>
       </c>
       <c r="B344" t="s">
-        <v>1534</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>1531</v>
+        <v>1479</v>
       </c>
       <c r="B345" t="s">
-        <v>1535</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>1532</v>
+        <v>1480</v>
       </c>
       <c r="B346" t="s">
-        <v>1536</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>1533</v>
+        <v>1481</v>
       </c>
       <c r="B347" t="s">
-        <v>1537</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>1538</v>
+        <v>1486</v>
       </c>
       <c r="B348" t="s">
-        <v>1570</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>1539</v>
+        <v>1487</v>
       </c>
       <c r="B349" t="s">
-        <v>1571</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>1540</v>
+        <v>1488</v>
       </c>
       <c r="B350" t="s">
-        <v>1572</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>1541</v>
+        <v>1489</v>
       </c>
       <c r="B351" t="s">
-        <v>1573</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>1542</v>
+        <v>1490</v>
       </c>
       <c r="B352" t="s">
-        <v>1574</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>1543</v>
+        <v>1491</v>
       </c>
       <c r="B353" t="s">
-        <v>1575</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>1544</v>
+        <v>1492</v>
       </c>
       <c r="B354" t="s">
-        <v>1576</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>1545</v>
+        <v>1493</v>
       </c>
       <c r="B355" t="s">
-        <v>1577</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>1546</v>
+        <v>1494</v>
       </c>
       <c r="B356" t="s">
-        <v>1578</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>1547</v>
+        <v>1495</v>
       </c>
       <c r="B357" t="s">
-        <v>1579</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>1548</v>
+        <v>1496</v>
       </c>
       <c r="B358" t="s">
-        <v>1580</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>1549</v>
+        <v>1497</v>
       </c>
       <c r="B359" t="s">
-        <v>1581</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>1550</v>
+        <v>1498</v>
       </c>
       <c r="B360" t="s">
-        <v>1582</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>1551</v>
+        <v>1499</v>
       </c>
       <c r="B361" t="s">
-        <v>1583</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>1552</v>
+        <v>1500</v>
       </c>
       <c r="B362" t="s">
-        <v>1584</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>1553</v>
+        <v>1501</v>
       </c>
       <c r="B363" t="s">
-        <v>1585</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="B364" t="s">
-        <v>1586</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>1555</v>
+        <v>1503</v>
       </c>
       <c r="B365" t="s">
-        <v>1587</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>1556</v>
+        <v>1504</v>
       </c>
       <c r="B366" t="s">
-        <v>1588</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="B367" t="s">
-        <v>1589</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>1558</v>
+        <v>1506</v>
       </c>
       <c r="B368" t="s">
-        <v>1590</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>1559</v>
+        <v>1507</v>
       </c>
       <c r="B369" t="s">
-        <v>1591</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>1560</v>
+        <v>1508</v>
       </c>
       <c r="B370" t="s">
-        <v>1592</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>1561</v>
+        <v>1509</v>
       </c>
       <c r="B371" t="s">
-        <v>1593</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="B372" t="s">
-        <v>1594</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>1563</v>
+        <v>1511</v>
       </c>
       <c r="B373" t="s">
-        <v>1595</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>1564</v>
+        <v>1512</v>
       </c>
       <c r="B374" t="s">
-        <v>1596</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>1565</v>
+        <v>1513</v>
       </c>
       <c r="B375" t="s">
-        <v>1597</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>1566</v>
+        <v>1514</v>
       </c>
       <c r="B376" t="s">
-        <v>1598</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>1567</v>
+        <v>1515</v>
       </c>
       <c r="B377" t="s">
-        <v>1599</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>1568</v>
+        <v>1516</v>
       </c>
       <c r="B378" t="s">
-        <v>1600</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>1569</v>
+        <v>1517</v>
       </c>
       <c r="B379" t="s">
-        <v>1601</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9556,7 +9427,7 @@
     </row>
     <row r="382" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>1602</v>
+        <v>1550</v>
       </c>
       <c r="B382" t="s">
         <v>210</v>
@@ -9564,63 +9435,63 @@
     </row>
     <row r="383" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>1603</v>
+        <v>1551</v>
       </c>
       <c r="B383" t="s">
-        <v>1611</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>1604</v>
+        <v>1552</v>
       </c>
       <c r="B384" t="s">
-        <v>1612</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>1605</v>
+        <v>1553</v>
       </c>
       <c r="B385" t="s">
-        <v>1613</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>1606</v>
+        <v>1554</v>
       </c>
       <c r="B386" t="s">
-        <v>1614</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>1607</v>
+        <v>1555</v>
       </c>
       <c r="B387" t="s">
-        <v>1615</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>1608</v>
+        <v>1556</v>
       </c>
       <c r="B388" t="s">
-        <v>1616</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>1609</v>
+        <v>1557</v>
       </c>
       <c r="B389" t="s">
-        <v>1617</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>1610</v>
+        <v>1558</v>
       </c>
       <c r="B390" t="s">
         <v>229</v>
@@ -9628,10 +9499,10 @@
     </row>
     <row r="391" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>1618</v>
+        <v>1566</v>
       </c>
       <c r="B391" t="s">
-        <v>1619</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9644,7 +9515,7 @@
     </row>
     <row r="393" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>1620</v>
+        <v>1568</v>
       </c>
       <c r="B393" t="s">
         <v>70</v>
@@ -9655,7 +9526,7 @@
         <v>212</v>
       </c>
       <c r="B394" t="s">
-        <v>1621</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9663,7 +9534,7 @@
         <v>213</v>
       </c>
       <c r="B395" t="s">
-        <v>1622</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9671,60 +9542,60 @@
         <v>214</v>
       </c>
       <c r="B396" t="s">
-        <v>1623</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>1624</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A398" s="11" t="s">
-        <v>1666</v>
+        <v>1614</v>
       </c>
       <c r="B398" t="s">
-        <v>1662</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" s="11" t="s">
-        <v>1667</v>
+        <v>1615</v>
       </c>
       <c r="B399" t="s">
-        <v>1663</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A400" s="11" t="s">
-        <v>1668</v>
+        <v>1616</v>
       </c>
       <c r="B400" t="s">
-        <v>1671</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A401" s="11" t="s">
-        <v>1669</v>
+        <v>1617</v>
       </c>
       <c r="B401" t="s">
-        <v>1664</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>1673</v>
+        <v>1621</v>
       </c>
       <c r="B402" t="s">
-        <v>1665</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>1670</v>
+        <v>1618</v>
       </c>
       <c r="B403" t="s">
-        <v>1671</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9737,50 +9608,50 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1625</v>
+        <v>1573</v>
       </c>
       <c r="B405" t="s">
-        <v>1631</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1626</v>
+        <v>1574</v>
       </c>
       <c r="B406" t="s">
-        <v>1632</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1627</v>
+        <v>1575</v>
       </c>
       <c r="B407" t="s">
-        <v>1633</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1628</v>
+        <v>1576</v>
       </c>
       <c r="B408" t="s">
-        <v>1634</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1629</v>
+        <v>1577</v>
       </c>
       <c r="B409" t="s">
-        <v>1636</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1630</v>
+        <v>1578</v>
       </c>
       <c r="B410" t="s">
-        <v>1635</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -9793,47 +9664,47 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1637</v>
+        <v>1585</v>
       </c>
       <c r="B412" t="s">
-        <v>1642</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1638</v>
+        <v>1586</v>
       </c>
       <c r="B413" t="s">
-        <v>1643</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1639</v>
+        <v>1587</v>
       </c>
       <c r="B414" t="s">
-        <v>1644</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1640</v>
+        <v>1588</v>
       </c>
       <c r="B415" t="s">
-        <v>1645</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1641</v>
+        <v>1589</v>
       </c>
       <c r="B416" t="s">
-        <v>1646</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>1647</v>
+        <v>1595</v>
       </c>
       <c r="B417" s="11" t="s">
         <v>217</v>
@@ -9841,7 +9712,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>1648</v>
+        <v>1596</v>
       </c>
       <c r="B418" t="s">
         <v>70</v>
@@ -9849,26 +9720,26 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>1649</v>
+        <v>1597</v>
       </c>
       <c r="B419" t="s">
-        <v>1652</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>1650</v>
+        <v>1598</v>
       </c>
       <c r="B420" t="s">
-        <v>1653</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>1651</v>
+        <v>1599</v>
       </c>
       <c r="B421" t="s">
-        <v>1672</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -9921,10 +9792,10 @@
     </row>
     <row r="428" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>1656</v>
+        <v>1604</v>
       </c>
       <c r="B428" t="s">
-        <v>1655</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9937,10 +9808,10 @@
     </row>
     <row r="430" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>1654</v>
+        <v>1602</v>
       </c>
       <c r="B430" t="s">
-        <v>1657</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9953,10 +9824,10 @@
     </row>
     <row r="432" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>1658</v>
+        <v>1606</v>
       </c>
       <c r="B432" t="s">
-        <v>1659</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9964,15 +9835,15 @@
         <v>233</v>
       </c>
       <c r="B433" t="s">
-        <v>231</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>1660</v>
+        <v>1608</v>
       </c>
       <c r="B434" t="s">
-        <v>1661</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -10159,8 +10030,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="1" t="s">
+    <row r="458" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A458" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B458" t="s">
@@ -10172,7 +10043,7 @@
         <v>279</v>
       </c>
       <c r="B459" t="s">
-        <v>70</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -10180,7 +10051,7 @@
         <v>280</v>
       </c>
       <c r="B460" t="s">
-        <v>70</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -10196,7 +10067,7 @@
         <v>282</v>
       </c>
       <c r="B462" t="s">
-        <v>70</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -10204,7 +10075,7 @@
         <v>283</v>
       </c>
       <c r="B463" t="s">
-        <v>70</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -10227,8 +10098,8 @@
       <c r="A466" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B466" t="s">
-        <v>70</v>
+      <c r="B466">
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -10236,7 +10107,7 @@
         <v>287</v>
       </c>
       <c r="B467" t="s">
-        <v>70</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -10244,7 +10115,7 @@
         <v>288</v>
       </c>
       <c r="B468" t="s">
-        <v>70</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -10252,7 +10123,7 @@
         <v>289</v>
       </c>
       <c r="B469" t="s">
-        <v>70</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -10275,8 +10146,8 @@
       <c r="A472" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B472" t="s">
-        <v>70</v>
+      <c r="B472">
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -10284,7 +10155,7 @@
         <v>293</v>
       </c>
       <c r="B473" t="s">
-        <v>70</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -10292,44 +10163,44 @@
         <v>294</v>
       </c>
       <c r="B474" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B475" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B476" t="s">
-        <v>70</v>
+        <v>299</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B477" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A478" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="B478" t="s">
-        <v>70</v>
+        <v>303</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B479" t="s">
         <v>70</v>
@@ -10337,103 +10208,94 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B480" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B481" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B482" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B483" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B484" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B485" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B486" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B487" t="s">
-        <v>70</v>
+        <v>317</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B488" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B489">
-        <v>2</v>
+        <v>320</v>
+      </c>
+      <c r="B489" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B490" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B491" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B492" t="s">
         <v>70</v>
@@ -10441,55 +10303,46 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B493" t="s">
-        <v>70</v>
+        <v>326</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B494" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B495" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B496" t="s">
-        <v>70</v>
+        <v>329</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B497" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B498" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B499" t="s">
         <v>70</v>
@@ -10497,199 +10350,199 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B500" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B501" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B502" t="s">
-        <v>70</v>
+        <v>338</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B503" t="s">
-        <v>70</v>
+        <v>340</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B504" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B505" t="s">
-        <v>70</v>
+        <v>344</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B506" t="s">
-        <v>70</v>
+        <v>346</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B507" t="s">
-        <v>70</v>
+        <v>348</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B508" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B509" t="s">
-        <v>70</v>
+        <v>352</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B510">
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="B510" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B511" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B512">
-        <v>123</v>
+        <v>356</v>
+      </c>
+      <c r="B512" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="B513" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B514" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B515" t="s">
-        <v>70</v>
+        <v>363</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B516">
-        <v>1</v>
+        <v>364</v>
+      </c>
+      <c r="B516" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B517" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="B518" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B519" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B520" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B521" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B522" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B523" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B524" t="s">
         <v>70</v>
@@ -10697,94 +10550,103 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B525" t="s">
-        <v>358</v>
+        <v>70</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>359</v>
+        <v>378</v>
+      </c>
+      <c r="B526" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B527" t="s">
-        <v>361</v>
+        <v>70</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B528" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B529" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
+      </c>
+      <c r="B530" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B531" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B532" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B533" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B534" t="s">
-        <v>373</v>
+        <v>70</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B535" t="s">
-        <v>375</v>
+        <v>70</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>376</v>
+        <v>393</v>
+      </c>
+      <c r="B536" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B537" t="s">
         <v>70</v>
@@ -10792,46 +10654,55 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B538">
-        <v>1</v>
+        <v>395</v>
+      </c>
+      <c r="B538" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>379</v>
+        <v>396</v>
+      </c>
+      <c r="B539" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>380</v>
+        <v>397</v>
+      </c>
+      <c r="B540" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B541">
-        <v>1</v>
+        <v>399</v>
+      </c>
+      <c r="B541" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B542" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>383</v>
+        <v>401</v>
+      </c>
+      <c r="B543" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B544" t="s">
         <v>70</v>
@@ -10839,314 +10710,308 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B545" t="s">
-        <v>386</v>
+        <v>70</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B546" t="s">
-        <v>388</v>
+        <v>70</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B547" t="s">
-        <v>390</v>
+        <v>70</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B548" t="s">
-        <v>392</v>
+        <v>70</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B549" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B550" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="1" t="s">
-        <v>397</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A551" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="B551" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A552" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="B552" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B553" t="s">
-        <v>402</v>
+        <v>70</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B554" t="s">
-        <v>404</v>
+        <v>70</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B555" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B556" t="s">
-        <v>407</v>
+        <v>70</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B557" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B558" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B559" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B560" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B561" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B562" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B563" t="s">
         <v>419</v>
-      </c>
-      <c r="B563" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B564" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B565" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B566" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B567" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B568" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B569" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B570" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B571" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B572" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B573" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574" s="1" t="s">
+    <row r="574" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A574" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B574" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A575" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575" s="1" t="s">
+      <c r="B575" t="s">
         <v>436</v>
       </c>
-      <c r="B575" t="s">
+    </row>
+    <row r="576" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A576" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576" s="1" t="s">
+      <c r="B576" t="s">
         <v>438</v>
       </c>
-      <c r="B576" t="s">
+    </row>
+    <row r="577" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A577" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577" s="1" t="s">
+      <c r="B577" t="s">
         <v>440</v>
       </c>
-      <c r="B577" t="s">
+    </row>
+    <row r="578" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A578" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A578" s="1" t="s">
+      <c r="B578" t="s">
         <v>442</v>
       </c>
-      <c r="B578" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579" s="1" t="s">
+    </row>
+    <row r="579" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A579" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B579" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580" s="1" t="s">
         <v>444</v>
       </c>
+    </row>
+    <row r="580" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A580" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="B580" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A581" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="B581" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B582" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B583" t="s">
-        <v>70</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A582" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A583" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -11154,76 +11019,76 @@
         <v>448</v>
       </c>
       <c r="B584" t="s">
-        <v>70</v>
+        <v>449</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B585" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B586" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B587" t="s">
-        <v>70</v>
+        <v>455</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B588" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B589" t="s">
-        <v>70</v>
+        <v>459</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B590" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B591" t="s">
-        <v>70</v>
+        <v>463</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B592" t="s">
-        <v>70</v>
+        <v>464</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B593" t="s">
         <v>70</v>
@@ -11231,2421 +11096,2067 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B594" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B595" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B596" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A597" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B597" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A596" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B596" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A597" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B597" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B598" t="s">
-        <v>70</v>
+        <v>474</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B599" t="s">
-        <v>70</v>
+        <v>476</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B600" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B601" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B602" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B603" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B604" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B605" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B606" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B607" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B608" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="B609" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B610" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B611" t="s">
-        <v>471</v>
+        <v>70</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B612" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B613" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="B614" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="B615" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="B616" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="B617" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="B618" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A619" s="2" t="s">
-        <v>486</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="B619" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B620" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B621" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B622" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A620" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B620" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A621" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B621" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A622" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B622" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A623" s="2" t="s">
-        <v>493</v>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="B623" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A624" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="B624" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A625" s="2" t="s">
-        <v>497</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B625" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A626" s="2" t="s">
-        <v>499</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="B626" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B627" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A627" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A628" s="2" t="s">
-        <v>500</v>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B628" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="B629" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="B630" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="B631" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="B632" t="s">
-        <v>507</v>
+        <v>229</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="B633" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="B634" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B635" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="B636" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="B637" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="B638" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A639" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B639" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A640" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B640" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B639" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B640" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="B641" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A642" s="2" t="s">
-        <v>524</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="B642" t="s">
-        <v>70</v>
+        <v>552</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="B643" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="B644" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="B645" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="B646" t="s">
-        <v>229</v>
+        <v>560</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B647" t="s">
-        <v>533</v>
+        <v>229</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="B648" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="1" t="s">
-        <v>536</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="B649" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" s="1" t="s">
-        <v>538</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="B650" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="1" t="s">
-        <v>540</v>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="B651" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="1" t="s">
-        <v>542</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="B652" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="1" t="s">
-        <v>544</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="B653" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="1" t="s">
-        <v>546</v>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="B654" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="1" t="s">
-        <v>548</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A655" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="B655" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="1" t="s">
-        <v>549</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="B656" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B657" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A658" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B658" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B659" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B657" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B658" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B659" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" s="1" t="s">
-        <v>556</v>
+    <row r="660" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A660" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="B660" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" s="1" t="s">
-        <v>558</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A661" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="B661" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="1" t="s">
-        <v>560</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A662" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="B662" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663" s="1" t="s">
-        <v>562</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="B663" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664" s="1" t="s">
-        <v>564</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A664" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="B664" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665" s="1" t="s">
-        <v>566</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B665" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666" s="1" t="s">
-        <v>568</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A666" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="B666" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667" s="1" t="s">
-        <v>569</v>
+    <row r="667" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A667" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="B667" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668" s="1" t="s">
-        <v>570</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A668" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="B668" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A669" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="B669" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670" s="1" t="s">
-        <v>574</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A670" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="B670" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="B671" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672" s="1" t="s">
-        <v>578</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A672" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="B672" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" s="1" t="s">
-        <v>579</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A673" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="B673" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" s="1" t="s">
-        <v>581</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A674" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="B674" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675" s="1" t="s">
-        <v>583</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A675" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="B675" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676" s="1" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A676" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="B676" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677" s="1" t="s">
-        <v>587</v>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A677" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="B677" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678" s="1" t="s">
-        <v>588</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A678" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="B678" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679" s="1" t="s">
-        <v>590</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A679" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="B679" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B680" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B681" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B682" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B683" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A680" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A681" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A682" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A683" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B684" s="11" t="s">
-        <v>599</v>
+        <v>622</v>
+      </c>
+      <c r="B684" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B685" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A686" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B686" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A687" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B687" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A688" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B688" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A689" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B689" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A690" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B690" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A691" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B691" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A692" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B692" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B686" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B687" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B688" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B689" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B690" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A691" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B691" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B692" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693" s="1" t="s">
-        <v>614</v>
+    <row r="693" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A693" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="B693" t="s">
-        <v>70</v>
+        <v>640</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A694" s="2" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="B694" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="B695" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A696" s="2" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B696" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A697" s="2" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B697" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A698" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B698" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A699" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B699" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A700" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B700" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A698" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B698" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A699" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B699" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A700" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B700" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A701" s="2" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="B701" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A702" s="2" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="B702" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A703" s="2" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="B703" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A704" s="2" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="B704" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A705" s="2" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="B705" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A706" s="2" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="B706" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A707" s="2" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="B707" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="B708" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A709" s="2" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="B709" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A710" s="2" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="B710" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A711" s="2" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="B711" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A712" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B712" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A713" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B713" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A714" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B714" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A712" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B712" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A713" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B713" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A714" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B714" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A715" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B715" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A716" s="1" t="s">
-        <v>655</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A716" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="B716" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A717" s="2" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="B717" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A718" s="2" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="B718" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A719" s="2" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="B719" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A720" s="2" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B720" t="s">
-        <v>70</v>
+        <v>691</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A721" s="2" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="B721" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" s="2" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="B722" t="s">
-        <v>666</v>
+        <v>70</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A723" s="2" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="B723" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A724" s="2" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B724" t="s">
-        <v>70</v>
+        <v>697</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A725" s="2" t="s">
-        <v>670</v>
+        <v>698</v>
+      </c>
+      <c r="B725" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A726" s="2" t="s">
-        <v>671</v>
+        <v>700</v>
+      </c>
+      <c r="B726" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A727" s="2" t="s">
-        <v>672</v>
+        <v>702</v>
+      </c>
+      <c r="B727" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A728" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+      <c r="B728" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A729" s="2" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="B729" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A730" s="2" t="s">
-        <v>676</v>
+        <v>707</v>
       </c>
       <c r="B730" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A731" s="2" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
       <c r="B731" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A732" s="2" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="B732" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A733" s="2" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
       <c r="B733" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A734" s="2" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="B734" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A735" s="2" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="B735" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A736" s="2" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="B736" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A737" s="2" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="B737" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A738" s="2" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="B738" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A739" s="2" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="B739" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A740" s="2" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="B740" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A741" s="2" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="B741" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A742" s="2" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="B742" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A743" s="2" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="B743" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A744" s="2" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="B744" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A745" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="B745" t="s">
-        <v>229</v>
+        <v>736</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A746" s="2" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="B746" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A747" s="2" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="B747" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A748" s="2" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="B748" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A749" s="2" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="B749" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A750" s="2" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="B750" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A751" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B751" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="B751" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A752" s="2" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="B752" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A753" s="2" t="s">
-        <v>720</v>
+        <v>749</v>
       </c>
       <c r="B753" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A754" s="2" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="B754" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A755" s="2" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="B755" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="B756" t="s">
-        <v>727</v>
+        <v>70</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A757" s="2" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="B757" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A758" s="2" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A759" s="2" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="B759" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A760" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B760" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A761" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B761" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A762" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B762" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A760" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A761" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B761" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A762" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B762" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A763" s="2" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="B763" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A764" s="2" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="B764" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A765" s="2" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="B765" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A766" s="2" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="B766" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A767" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B767" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A768" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B768" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A769" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B769" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A770" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B770" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A771" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B771" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A767" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B767" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A768" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B768" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A769" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B769" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A770" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B770" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A771" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B771" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A772" s="2" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="B772" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A773" s="2" t="s">
-        <v>756</v>
+        <v>786</v>
       </c>
       <c r="B773" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A774" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B774" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A775" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B775" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A776" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B776" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A774" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B774" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A775" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B775" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A776" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B776" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A777" s="2" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="B777" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A778" s="2" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="B778" t="s">
-        <v>766</v>
+        <v>796</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A779" s="2" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="B779" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A780" s="2" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
       <c r="B780" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A781" s="2" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="B781" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A782" s="2" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="B782" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A783" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B783" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A783" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B783" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A784" s="2" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="B784" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A785" s="2" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="B785" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A786" s="2" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B786" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A787" s="2" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="B787" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A788" s="2" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="B788" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A789" s="2" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="B789" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A790" s="2" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="B790" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A791" s="2" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="B791" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A792" s="2" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="B792" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A793" s="2" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
       <c r="B793" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A794" s="2" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="B794" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" s="2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="B795" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A796" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B796" s="11" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+      <c r="B796" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A797" s="2" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="B797" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A798" s="2" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="B798" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A799" s="2" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="B799" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A800" s="2" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="B800" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A801" s="2" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
       <c r="B801" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A802" s="2" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="B802" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A803" s="2" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="B803" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A804" s="2" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="B804" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A805" s="2" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="B805" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A806" s="2" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="B806" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A807" s="2" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="B807" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A808" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B808" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A809" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B809" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A810" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B810" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A811" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B811" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A812" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B812" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A813" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B813" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A814" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B814" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A815" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B815" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="808" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A808" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B808" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A809" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B809" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A810" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B810" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A811" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B811" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A812" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B812" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A813" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B813" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A814" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B814" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A815" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B815" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A816" s="2" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="B816" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A817" s="2" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="B817" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A818" s="2" t="s">
-        <v>838</v>
+        <v>867</v>
       </c>
       <c r="B818" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A819" s="2" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="B819" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A820" s="2" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="B820" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A821" s="2" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="B821" t="s">
-        <v>229</v>
+        <v>874</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A822" s="2" t="s">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="B822" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A823" s="2" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="B823" t="s">
-        <v>848</v>
+        <v>70</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A824" s="2" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="B824" t="s">
-        <v>850</v>
+        <v>879</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A825" s="2" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="B825" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A826" s="2" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="B826" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A827" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="B827" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A828" s="2" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="B828" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A829" s="2" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="B829" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A830" s="2" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="B830" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A831" s="2" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="B831" t="s">
-        <v>863</v>
+        <v>892</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A832" s="2" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="B832" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A833" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B833" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A834" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B834" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A835" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B835" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A836" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B836" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A837" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B837" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A833" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B833" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A834" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B834" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A835" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B835" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A836" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B836" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A837" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B837" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A838" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="B838" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A839" s="2" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="B839" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A840" s="2" t="s">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="B840" t="s">
-        <v>880</v>
+        <v>909</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A841" s="2" t="s">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="B841" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="B842" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="B843" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A844" s="2" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="B844" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A845" s="2" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
       <c r="B845" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="B846" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A847" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="B847" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A848" s="2" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="B848" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A849" s="2" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="B849" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A850" s="2" t="s">
-        <v>898</v>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="B850" t="s">
-        <v>899</v>
+        <v>928</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A851" s="2" t="s">
-        <v>900</v>
+        <v>929</v>
       </c>
       <c r="B851" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A852" s="2" t="s">
-        <v>901</v>
+        <v>930</v>
       </c>
       <c r="B852" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A853" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B853" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A854" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B854" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A855" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B855" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A856" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B856" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A857" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B857" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A858" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B858" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A859" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B859" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A860" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="B860" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A861" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="B861" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A862" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="B862" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A863" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B863" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A864" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B864" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A865" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="B865" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A866" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B866" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A867" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="B867" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A868" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="B868" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A869" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B869" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="870" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A870" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="B870" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A871" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="B871" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A872" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="B872" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A873" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B873" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A874" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B874" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A875" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B875" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A876" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B876" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A877" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B877" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A878" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B878" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A879" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="B879" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A880" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="B880" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A881" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B881" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A882" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B882" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A883" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B883" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A884" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="B884" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A885" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="B885" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A886" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="B886" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A887" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="B887" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A888" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="B888" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A889" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B889" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A890" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="B890" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A891" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="B891" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A892" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="B892" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A893" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="B893" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A894" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="B894" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A895" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B895" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A896" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B896" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A897" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B897" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A898" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="B898" s="11" t="s">
-        <v>983</v>
+      <c r="B853" s="11" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B3C1F-F132-644B-9036-106E55B8DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A2BB47-393B-8742-9D64-24F29C2CC946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="27740" yWindow="500" windowWidth="23400" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1767">
   <si>
     <t>Question</t>
   </si>
@@ -968,9 +968,6 @@
     <t>How many medications have been taken for vomiting?</t>
   </si>
   <si>
-    <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken. Age</t>
-  </si>
-  <si>
     <t>Have any of the following symptoms occurred 4 or more days/month for at least two months?  Select all that apply. Option 1</t>
   </si>
   <si>
@@ -992,51 +989,24 @@
     <t>Please answer the below questions regarding jaundice (yellowing of the skin). What age</t>
   </si>
   <si>
-    <t>adca12w 2w+</t>
-  </si>
-  <si>
     <t>Please answer the below questions regarding jaundice (yellowing of the skin). How Long</t>
   </si>
   <si>
-    <t>dscxsdc</t>
-  </si>
-  <si>
     <t>Do you take a lactose supplement?</t>
   </si>
   <si>
     <t>To what foods are you averse?  Please describe foods that you avoid because you do not like the texture or other physical qualities of the food (Please do not include foods you avoid because you do not like the taste).</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Please answer the next two questions about diarrhea.</t>
   </si>
   <si>
-    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put 'N/A' in the box. Option 1</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put 'N/A' in the box. Option 2</t>
-  </si>
-  <si>
     <t>Test2</t>
   </si>
   <si>
-    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put 'N/A' in the box. Option 3</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
     <t>Please complete the table regarding constipation.</t>
   </si>
   <si>
-    <t>Please complete the table below regarding encopresis. If medications have never been used, please put 'N/A' in the box.Oprion 1</t>
-  </si>
-  <si>
     <t>Test 4</t>
   </si>
   <si>
@@ -1046,30 +1016,18 @@
     <t>Please complete the table below regarding weight loss.Option 1</t>
   </si>
   <si>
-    <t>Test6</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding weight loss.Option 2</t>
   </si>
   <si>
-    <t>Test7</t>
-  </si>
-  <si>
     <t>Please complete the table below regarding weight loss.Option 3</t>
   </si>
   <si>
-    <t>Test8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please complete the information below regarding decreased appetite. </t>
   </si>
   <si>
     <t>Are you toilet trained?</t>
   </si>
   <si>
-    <t>At what age (approximately) were you toilet trained?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please complete the information below regarding urination. </t>
   </si>
   <si>
@@ -1140,51 +1098,6 @@
   </si>
   <si>
     <t>Other GI test (please specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Zdigital rectal xexam column 1  </t>
-  </si>
-  <si>
-    <t>sew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Zdigital rectal xexam column 3  </t>
-  </si>
-  <si>
-    <t>sewdss</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Zdigital rectal xexam column 4  </t>
-  </si>
-  <si>
-    <t>sdcdff</t>
-  </si>
-  <si>
-    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 1</t>
-  </si>
-  <si>
-    <t>sdcs</t>
-  </si>
-  <si>
-    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vbcvb sf </t>
-  </si>
-  <si>
-    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sfgvbs</t>
-  </si>
-  <si>
-    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 4</t>
-  </si>
-  <si>
-    <t>233rfwefe</t>
   </si>
   <si>
     <t xml:space="preserve">The next set of questions ask about breathing and the lungs. </t>
@@ -5157,6 +5070,501 @@
   <si>
     <t>Test251</t>
   </si>
+  <si>
+    <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken. Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken. Column 2</t>
+  </si>
+  <si>
+    <t>Test253</t>
+  </si>
+  <si>
+    <t>Test252</t>
+  </si>
+  <si>
+    <t>Test254</t>
+  </si>
+  <si>
+    <t>Test255</t>
+  </si>
+  <si>
+    <t>Test256</t>
+  </si>
+  <si>
+    <t>Test257</t>
+  </si>
+  <si>
+    <t>Test258</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put N A in the box. Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put N A in the box. Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put N A in the box. Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding encopresis. If medications have never been used, please put N A in the box. Option 1</t>
+  </si>
+  <si>
+    <t>Test260</t>
+  </si>
+  <si>
+    <t>Test259</t>
+  </si>
+  <si>
+    <t>Test261</t>
+  </si>
+  <si>
+    <t>Test262</t>
+  </si>
+  <si>
+    <t>Test263</t>
+  </si>
+  <si>
+    <t>At what age approximately were you toilet trained?</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 9 Other</t>
+  </si>
+  <si>
+    <t>Test264</t>
+  </si>
+  <si>
+    <t>Test265</t>
+  </si>
+  <si>
+    <t>Test266</t>
+  </si>
+  <si>
+    <t>Test267</t>
+  </si>
+  <si>
+    <t>Test268</t>
+  </si>
+  <si>
+    <t>Test269</t>
+  </si>
+  <si>
+    <t>Test270</t>
+  </si>
+  <si>
+    <t>Test272</t>
+  </si>
+  <si>
+    <t>Test271</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 1 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 9</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 7</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 8</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Column 4 Option 9</t>
+  </si>
+  <si>
+    <t>Test273</t>
+  </si>
+  <si>
+    <t>Test274</t>
+  </si>
+  <si>
+    <t>Test275</t>
+  </si>
+  <si>
+    <t>Test276</t>
+  </si>
+  <si>
+    <t>Test277</t>
+  </si>
+  <si>
+    <t>Test278</t>
+  </si>
+  <si>
+    <t>Test279</t>
+  </si>
+  <si>
+    <t>Test280</t>
+  </si>
+  <si>
+    <t>Test281</t>
+  </si>
+  <si>
+    <t>Test282</t>
+  </si>
+  <si>
+    <t>Test283</t>
+  </si>
+  <si>
+    <t>Test284</t>
+  </si>
+  <si>
+    <t>Test285</t>
+  </si>
+  <si>
+    <t>Test286</t>
+  </si>
+  <si>
+    <t>Test287</t>
+  </si>
+  <si>
+    <t>Test288</t>
+  </si>
+  <si>
+    <t>Test289</t>
+  </si>
+  <si>
+    <t>Test290</t>
+  </si>
+  <si>
+    <t>Test291</t>
+  </si>
+  <si>
+    <t>Test292</t>
+  </si>
+  <si>
+    <t>Test293</t>
+  </si>
+  <si>
+    <t>Test294</t>
+  </si>
+  <si>
+    <t>Test295</t>
+  </si>
+  <si>
+    <t>Test296</t>
+  </si>
+  <si>
+    <t>Test297</t>
+  </si>
+  <si>
+    <t>Test298</t>
+  </si>
+  <si>
+    <t>Test299</t>
+  </si>
+  <si>
+    <t>Test300</t>
+  </si>
+  <si>
+    <t>Test301</t>
+  </si>
+  <si>
+    <t>Test302</t>
+  </si>
+  <si>
+    <t>Test303</t>
+  </si>
+  <si>
+    <t>Test304</t>
+  </si>
+  <si>
+    <t>Test305</t>
+  </si>
+  <si>
+    <t>Test306</t>
+  </si>
+  <si>
+    <t>Test307</t>
+  </si>
+  <si>
+    <t>Test308</t>
+  </si>
+  <si>
+    <t>Test309</t>
+  </si>
+  <si>
+    <t>Test310</t>
+  </si>
+  <si>
+    <t>Test311</t>
+  </si>
+  <si>
+    <t>Test312</t>
+  </si>
+  <si>
+    <t>Test313</t>
+  </si>
+  <si>
+    <t>Test314</t>
+  </si>
+  <si>
+    <t>Test315</t>
+  </si>
+  <si>
+    <t>Test316</t>
+  </si>
+  <si>
+    <t>Test317</t>
+  </si>
+  <si>
+    <t>Test318</t>
+  </si>
+  <si>
+    <t>Test319</t>
+  </si>
+  <si>
+    <t>Test320</t>
+  </si>
+  <si>
+    <t>Test321</t>
+  </si>
+  <si>
+    <t>Test322</t>
+  </si>
+  <si>
+    <t>Test323</t>
+  </si>
+  <si>
+    <t>Test324</t>
+  </si>
+  <si>
+    <t>Test325</t>
+  </si>
+  <si>
+    <t>Test326</t>
+  </si>
+  <si>
+    <t>Test327</t>
+  </si>
+  <si>
+    <t>Test328</t>
+  </si>
+  <si>
+    <t>Test329</t>
+  </si>
+  <si>
+    <t>Test330</t>
+  </si>
+  <si>
+    <t>Test331</t>
+  </si>
+  <si>
+    <t>Test332</t>
+  </si>
+  <si>
+    <t>Test333</t>
+  </si>
+  <si>
+    <t>Test334</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding encopresis. If medications have never been used, please put N A in the box. Option 2</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
 </sst>
 </file>
 
@@ -5165,7 +5573,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5204,6 +5612,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5226,7 +5642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5259,6 +5675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6368,15 +6785,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A65A74-ED7E-754D-9872-746C3B2DB6A5}">
-  <dimension ref="A1:B853"/>
+  <dimension ref="A1:B919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A471" sqref="A471"/>
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="132.5" customWidth="1"/>
     <col min="2" max="2" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6393,7 +6810,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
@@ -6401,7 +6818,7 @@
         <v>138</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>934</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="323" x14ac:dyDescent="0.2">
@@ -6430,10 +6847,10 @@
     </row>
     <row r="7" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>932</v>
+        <v>903</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -6446,10 +6863,10 @@
     </row>
     <row r="9" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>937</v>
+        <v>908</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>936</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -6473,7 +6890,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>935</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -6502,7 +6919,7 @@
     </row>
     <row r="16" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>938</v>
+        <v>909</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>148</v>
@@ -6510,47 +6927,47 @@
     </row>
     <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>945</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>940</v>
+        <v>911</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>946</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>947</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>942</v>
+        <v>913</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>943</v>
+        <v>914</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>949</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>944</v>
+        <v>915</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>51</v>
@@ -6566,15 +6983,15 @@
     </row>
     <row r="24" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>969</v>
+        <v>940</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>970</v>
+        <v>941</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>950</v>
+        <v>921</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>150</v>
@@ -6582,98 +6999,98 @@
     </row>
     <row r="26" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>951</v>
+        <v>922</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>952</v>
+        <v>923</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>961</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>953</v>
+        <v>924</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>962</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>963</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>964</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>956</v>
+        <v>927</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>965</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -6686,7 +7103,7 @@
     </row>
     <row r="39" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>971</v>
+        <v>942</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>152</v>
@@ -6694,383 +7111,383 @@
     </row>
     <row r="40" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>980</v>
+        <v>951</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1060</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>1061</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>1062</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>1063</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>1064</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>1065</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>1066</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1068</v>
+        <v>1039</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>153</v>
@@ -7078,7 +7495,7 @@
     </row>
     <row r="88" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>153</v>
@@ -7086,7 +7503,7 @@
     </row>
     <row r="89" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1069</v>
+        <v>1040</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>153</v>
@@ -7094,15 +7511,15 @@
     </row>
     <row r="90" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1072</v>
+        <v>1043</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1073</v>
+        <v>1044</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>153</v>
@@ -7110,7 +7527,7 @@
     </row>
     <row r="92" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>1074</v>
+        <v>1045</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>153</v>
@@ -7118,7 +7535,7 @@
     </row>
     <row r="93" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>1075</v>
+        <v>1046</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>153</v>
@@ -7126,7 +7543,7 @@
     </row>
     <row r="94" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1076</v>
+        <v>1047</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>153</v>
@@ -7134,7 +7551,7 @@
     </row>
     <row r="95" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>153</v>
@@ -7142,7 +7559,7 @@
     </row>
     <row r="96" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>153</v>
@@ -7150,7 +7567,7 @@
     </row>
     <row r="97" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1079</v>
+        <v>1050</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>153</v>
@@ -7158,7 +7575,7 @@
     </row>
     <row r="98" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>153</v>
@@ -7166,7 +7583,7 @@
     </row>
     <row r="99" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>153</v>
@@ -7174,7 +7591,7 @@
     </row>
     <row r="100" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1082</v>
+        <v>1053</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>153</v>
@@ -7190,7 +7607,7 @@
     </row>
     <row r="102" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1155</v>
+        <v>1126</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>155</v>
@@ -7198,39 +7615,39 @@
     </row>
     <row r="103" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1088</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1157</v>
+        <v>1128</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>1092</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1158</v>
+        <v>1129</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>1089</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1159</v>
+        <v>1130</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>1090</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1160</v>
+        <v>1131</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>229</v>
@@ -7238,15 +7655,15 @@
     </row>
     <row r="108" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1161</v>
+        <v>1132</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1093</v>
+        <v>1064</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>70</v>
@@ -7254,7 +7671,7 @@
     </row>
     <row r="110" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1094</v>
+        <v>1065</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>156</v>
@@ -7262,71 +7679,71 @@
     </row>
     <row r="111" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>1095</v>
+        <v>1066</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>1106</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1096</v>
+        <v>1067</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>1097</v>
+        <v>1068</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>1108</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1098</v>
+        <v>1069</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>1099</v>
+        <v>1070</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>1110</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>1111</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1101</v>
+        <v>1072</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>1112</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1102</v>
+        <v>1073</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>1113</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1103</v>
+        <v>1074</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>229</v>
@@ -7334,10 +7751,10 @@
     </row>
     <row r="120" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1104</v>
+        <v>1075</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>1105</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7350,7 +7767,7 @@
     </row>
     <row r="122" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1114</v>
+        <v>1085</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>158</v>
@@ -7358,31 +7775,31 @@
     </row>
     <row r="123" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1115</v>
+        <v>1086</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>1119</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1116</v>
+        <v>1087</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>1164</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1117</v>
+        <v>1088</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>1120</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1118</v>
+        <v>1089</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>229</v>
@@ -7390,15 +7807,15 @@
     </row>
     <row r="127" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1121</v>
+        <v>1092</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>1122</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1123</v>
+        <v>1094</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>70</v>
@@ -7406,7 +7823,7 @@
     </row>
     <row r="129" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1124</v>
+        <v>1095</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>159</v>
@@ -7414,79 +7831,79 @@
     </row>
     <row r="130" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1125</v>
+        <v>1096</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>1136</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1126</v>
+        <v>1097</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1165</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1127</v>
+        <v>1098</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>1137</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1128</v>
+        <v>1099</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>1138</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1129</v>
+        <v>1100</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>1139</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1130</v>
+        <v>1101</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>1140</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1131</v>
+        <v>1102</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>1141</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1132</v>
+        <v>1103</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1142</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1133</v>
+        <v>1104</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>1143</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1134</v>
+        <v>1105</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>229</v>
@@ -7494,15 +7911,15 @@
     </row>
     <row r="140" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1135</v>
+        <v>1106</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>1144</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>1145</v>
+        <v>1116</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>70</v>
@@ -7510,7 +7927,7 @@
     </row>
     <row r="142" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>1084</v>
+        <v>1055</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>155</v>
@@ -7518,23 +7935,23 @@
     </row>
     <row r="143" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>1085</v>
+        <v>1056</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>1088</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>1148</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>1087</v>
+        <v>1058</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>229</v>
@@ -7542,31 +7959,31 @@
     </row>
     <row r="146" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>1146</v>
+        <v>1117</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1147</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1149</v>
+        <v>1120</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1150</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1151</v>
+        <v>1122</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>1152</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1162</v>
+        <v>1133</v>
       </c>
       <c r="B149">
         <v>108</v>
@@ -7574,7 +7991,7 @@
     </row>
     <row r="150" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1163</v>
+        <v>1134</v>
       </c>
       <c r="B150">
         <v>600</v>
@@ -7601,7 +8018,7 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>1153</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7609,7 +8026,7 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>1154</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7617,7 +8034,7 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>1167</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -7630,7 +8047,7 @@
     </row>
     <row r="157" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1168</v>
+        <v>1139</v>
       </c>
       <c r="B157" t="s">
         <v>166</v>
@@ -7638,23 +8055,23 @@
     </row>
     <row r="158" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="B158" t="s">
-        <v>1174</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>1170</v>
+        <v>1141</v>
       </c>
       <c r="B159" t="s">
-        <v>1175</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>1171</v>
+        <v>1142</v>
       </c>
       <c r="B160" t="s">
         <v>229</v>
@@ -7662,10 +8079,10 @@
     </row>
     <row r="161" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>1172</v>
+        <v>1143</v>
       </c>
       <c r="B161" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -7686,7 +8103,7 @@
     </row>
     <row r="164" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>1176</v>
+        <v>1147</v>
       </c>
       <c r="B164">
         <v>880</v>
@@ -7705,7 +8122,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>1177</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -7713,7 +8130,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>1178</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -7721,7 +8138,7 @@
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>1179</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -7729,7 +8146,7 @@
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>1180</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="272" x14ac:dyDescent="0.2">
@@ -7742,7 +8159,7 @@
     </row>
     <row r="171" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1181</v>
+        <v>1152</v>
       </c>
       <c r="B171" t="s">
         <v>70</v>
@@ -7761,7 +8178,7 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>1205</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -7846,7 +8263,7 @@
     </row>
     <row r="184" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>1182</v>
+        <v>1153</v>
       </c>
       <c r="B184" t="s">
         <v>196</v>
@@ -7854,23 +8271,23 @@
     </row>
     <row r="185" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>1183</v>
+        <v>1154</v>
       </c>
       <c r="B185" t="s">
-        <v>1187</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>1184</v>
+        <v>1155</v>
       </c>
       <c r="B186" t="s">
-        <v>1188</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>1185</v>
+        <v>1156</v>
       </c>
       <c r="B187" t="s">
         <v>229</v>
@@ -7878,10 +8295,10 @@
     </row>
     <row r="188" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>1186</v>
+        <v>1157</v>
       </c>
       <c r="B188" t="s">
-        <v>1189</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -7910,7 +8327,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>1190</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7918,7 +8335,7 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>1192</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -7926,7 +8343,7 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>1191</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
@@ -7939,7 +8356,7 @@
     </row>
     <row r="196" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
       <c r="B196" t="s">
         <v>204</v>
@@ -7947,39 +8364,39 @@
     </row>
     <row r="197" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>1194</v>
+        <v>1165</v>
       </c>
       <c r="B197" t="s">
-        <v>1200</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>1195</v>
+        <v>1166</v>
       </c>
       <c r="B198" t="s">
-        <v>1201</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>1196</v>
+        <v>1167</v>
       </c>
       <c r="B199" t="s">
-        <v>1202</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>1197</v>
+        <v>1168</v>
       </c>
       <c r="B200" t="s">
-        <v>1203</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>1198</v>
+        <v>1169</v>
       </c>
       <c r="B201" t="s">
         <v>229</v>
@@ -7987,15 +8404,15 @@
     </row>
     <row r="202" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>1199</v>
+        <v>1170</v>
       </c>
       <c r="B202" t="s">
-        <v>1204</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>1206</v>
+        <v>1177</v>
       </c>
       <c r="B203" t="s">
         <v>205</v>
@@ -8003,791 +8420,791 @@
     </row>
     <row r="204" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>1207</v>
+        <v>1178</v>
       </c>
       <c r="B204" t="s">
-        <v>1217</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>1208</v>
+        <v>1179</v>
       </c>
       <c r="B205" t="s">
-        <v>1218</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>1209</v>
+        <v>1180</v>
       </c>
       <c r="B206" t="s">
-        <v>1219</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>1210</v>
+        <v>1181</v>
       </c>
       <c r="B207" t="s">
-        <v>1220</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>1211</v>
+        <v>1182</v>
       </c>
       <c r="B208" t="s">
-        <v>1221</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>1212</v>
+        <v>1183</v>
       </c>
       <c r="B209" t="s">
-        <v>1222</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>1213</v>
+        <v>1184</v>
       </c>
       <c r="B210" t="s">
-        <v>1223</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1214</v>
+        <v>1185</v>
       </c>
       <c r="B211" t="s">
-        <v>1224</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1215</v>
+        <v>1186</v>
       </c>
       <c r="B212" t="s">
-        <v>1225</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>1216</v>
+        <v>1187</v>
       </c>
       <c r="B213" t="s">
-        <v>1226</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>1311</v>
+        <v>1282</v>
       </c>
       <c r="B214" t="s">
-        <v>1227</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>1312</v>
+        <v>1283</v>
       </c>
       <c r="B215" t="s">
-        <v>1228</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="B216" t="s">
-        <v>1229</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="B217" t="s">
-        <v>1230</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="B218" t="s">
-        <v>1231</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="B219" t="s">
-        <v>1232</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>1317</v>
+        <v>1288</v>
       </c>
       <c r="B220" t="s">
-        <v>1233</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>1318</v>
+        <v>1289</v>
       </c>
       <c r="B221" t="s">
-        <v>1234</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>1319</v>
+        <v>1290</v>
       </c>
       <c r="B222" t="s">
-        <v>1235</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="B223" t="s">
-        <v>1236</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="B224" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>1322</v>
+        <v>1293</v>
       </c>
       <c r="B225" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1323</v>
+        <v>1294</v>
       </c>
       <c r="B226" t="s">
-        <v>1239</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>1324</v>
+        <v>1295</v>
       </c>
       <c r="B227" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>1325</v>
+        <v>1296</v>
       </c>
       <c r="B228" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1326</v>
+        <v>1297</v>
       </c>
       <c r="B229" t="s">
-        <v>1242</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>1327</v>
+        <v>1298</v>
       </c>
       <c r="B230" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="B231" t="s">
-        <v>1244</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
       <c r="B232" t="s">
-        <v>1245</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
       <c r="B233" t="s">
-        <v>1246</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="B234" t="s">
-        <v>1247</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>1332</v>
+        <v>1303</v>
       </c>
       <c r="B235" t="s">
-        <v>1248</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>1333</v>
+        <v>1304</v>
       </c>
       <c r="B236" t="s">
-        <v>1249</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>1334</v>
+        <v>1305</v>
       </c>
       <c r="B237" t="s">
-        <v>1250</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>1335</v>
+        <v>1306</v>
       </c>
       <c r="B238" t="s">
-        <v>1251</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>1336</v>
+        <v>1307</v>
       </c>
       <c r="B239" t="s">
-        <v>1252</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>1337</v>
+        <v>1308</v>
       </c>
       <c r="B240" t="s">
-        <v>1253</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>1338</v>
+        <v>1309</v>
       </c>
       <c r="B241" t="s">
-        <v>1254</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1339</v>
+        <v>1310</v>
       </c>
       <c r="B242" t="s">
-        <v>1255</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>1340</v>
+        <v>1311</v>
       </c>
       <c r="B243" t="s">
-        <v>1256</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>1341</v>
+        <v>1312</v>
       </c>
       <c r="B244" t="s">
-        <v>1257</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B245" t="s">
-        <v>1258</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>1343</v>
+        <v>1314</v>
       </c>
       <c r="B246" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>1344</v>
+        <v>1315</v>
       </c>
       <c r="B247" t="s">
-        <v>1260</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>1345</v>
+        <v>1316</v>
       </c>
       <c r="B248" t="s">
-        <v>1261</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="B249" t="s">
-        <v>1262</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>1347</v>
+        <v>1318</v>
       </c>
       <c r="B250" t="s">
-        <v>1263</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>1348</v>
+        <v>1319</v>
       </c>
       <c r="B251" t="s">
-        <v>1264</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>1349</v>
+        <v>1320</v>
       </c>
       <c r="B252" t="s">
-        <v>1265</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>1350</v>
+        <v>1321</v>
       </c>
       <c r="B253" t="s">
-        <v>1266</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>1351</v>
+        <v>1322</v>
       </c>
       <c r="B254" t="s">
-        <v>1166</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>1352</v>
+        <v>1323</v>
       </c>
       <c r="B255" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>1353</v>
+        <v>1324</v>
       </c>
       <c r="B256" t="s">
-        <v>1268</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>1354</v>
+        <v>1325</v>
       </c>
       <c r="B257" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>1355</v>
+        <v>1326</v>
       </c>
       <c r="B258" t="s">
-        <v>1270</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>1389</v>
+        <v>1360</v>
       </c>
       <c r="B259" t="s">
-        <v>1271</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>1390</v>
+        <v>1361</v>
       </c>
       <c r="B260" t="s">
-        <v>1272</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>1391</v>
+        <v>1362</v>
       </c>
       <c r="B261" t="s">
-        <v>1273</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>1392</v>
+        <v>1363</v>
       </c>
       <c r="B262" t="s">
-        <v>1274</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>1393</v>
+        <v>1364</v>
       </c>
       <c r="B263" t="s">
-        <v>1275</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>1394</v>
+        <v>1365</v>
       </c>
       <c r="B264" t="s">
-        <v>1276</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>1395</v>
+        <v>1366</v>
       </c>
       <c r="B265" t="s">
-        <v>1277</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>1396</v>
+        <v>1367</v>
       </c>
       <c r="B266" t="s">
-        <v>1279</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>1397</v>
+        <v>1368</v>
       </c>
       <c r="B267" t="s">
-        <v>1278</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1398</v>
+        <v>1369</v>
       </c>
       <c r="B268" t="s">
-        <v>1280</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>1356</v>
+        <v>1327</v>
       </c>
       <c r="B269" t="s">
-        <v>1281</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>1357</v>
+        <v>1328</v>
       </c>
       <c r="B270" t="s">
-        <v>1282</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>1358</v>
+        <v>1329</v>
       </c>
       <c r="B271" t="s">
-        <v>1283</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>1359</v>
+        <v>1330</v>
       </c>
       <c r="B272" t="s">
-        <v>1284</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>1360</v>
+        <v>1331</v>
       </c>
       <c r="B273" t="s">
-        <v>1285</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>1361</v>
+        <v>1332</v>
       </c>
       <c r="B274" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>1362</v>
+        <v>1333</v>
       </c>
       <c r="B275" t="s">
-        <v>1287</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>1363</v>
+        <v>1334</v>
       </c>
       <c r="B276" t="s">
-        <v>1288</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>1364</v>
+        <v>1335</v>
       </c>
       <c r="B277" t="s">
-        <v>1289</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>1365</v>
+        <v>1336</v>
       </c>
       <c r="B278" t="s">
-        <v>1290</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>1366</v>
+        <v>1337</v>
       </c>
       <c r="B279" t="s">
-        <v>1291</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>1367</v>
+        <v>1338</v>
       </c>
       <c r="B280" t="s">
-        <v>1292</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="B281" t="s">
-        <v>1399</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="B282" t="s">
-        <v>1293</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>1387</v>
+        <v>1358</v>
       </c>
       <c r="B283" t="s">
-        <v>1294</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>1370</v>
+        <v>1341</v>
       </c>
       <c r="B284" t="s">
-        <v>1295</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="B285" t="s">
-        <v>1296</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>1372</v>
+        <v>1343</v>
       </c>
       <c r="B286" t="s">
-        <v>1297</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>1373</v>
+        <v>1344</v>
       </c>
       <c r="B287" t="s">
-        <v>1298</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>1374</v>
+        <v>1345</v>
       </c>
       <c r="B288" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>1375</v>
+        <v>1346</v>
       </c>
       <c r="B289" t="s">
-        <v>1300</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
       <c r="B290" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>1388</v>
+        <v>1359</v>
       </c>
       <c r="B291" t="s">
-        <v>1302</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
       <c r="B292" t="s">
-        <v>1303</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="B293" t="s">
-        <v>1304</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>1379</v>
+        <v>1350</v>
       </c>
       <c r="B294" t="s">
-        <v>1305</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>1380</v>
+        <v>1351</v>
       </c>
       <c r="B295" t="s">
-        <v>1306</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>1381</v>
+        <v>1352</v>
       </c>
       <c r="B296" t="s">
-        <v>1307</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>1382</v>
+        <v>1353</v>
       </c>
       <c r="B297" t="s">
-        <v>1307</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>1383</v>
+        <v>1354</v>
       </c>
       <c r="B298" t="s">
-        <v>1307</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>1384</v>
+        <v>1355</v>
       </c>
       <c r="B299" t="s">
-        <v>1308</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>1385</v>
+        <v>1356</v>
       </c>
       <c r="B300" t="s">
-        <v>1309</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>1386</v>
+        <v>1357</v>
       </c>
       <c r="B301" t="s">
-        <v>1310</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>1400</v>
+        <v>1371</v>
       </c>
       <c r="B302" t="s">
         <v>70</v>
@@ -8795,15 +9212,15 @@
     </row>
     <row r="303" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>1402</v>
+        <v>1373</v>
       </c>
       <c r="B303" t="s">
-        <v>1407</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>1401</v>
+        <v>1372</v>
       </c>
       <c r="B304" t="s">
         <v>206</v>
@@ -8811,15 +9228,15 @@
     </row>
     <row r="305" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>1403</v>
+        <v>1374</v>
       </c>
       <c r="B305" t="s">
-        <v>1408</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>1404</v>
+        <v>1375</v>
       </c>
       <c r="B306" t="s">
         <v>229</v>
@@ -8827,279 +9244,279 @@
     </row>
     <row r="307" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>1405</v>
+        <v>1376</v>
       </c>
       <c r="B307" t="s">
-        <v>1409</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>1406</v>
+        <v>1377</v>
       </c>
       <c r="B308" t="s">
-        <v>1410</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>1411</v>
+        <v>1382</v>
       </c>
       <c r="B309" t="s">
-        <v>1443</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>1412</v>
+        <v>1383</v>
       </c>
       <c r="B310" t="s">
-        <v>1444</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>1413</v>
+        <v>1384</v>
       </c>
       <c r="B311" t="s">
-        <v>1445</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>1414</v>
+        <v>1385</v>
       </c>
       <c r="B312" t="s">
-        <v>1446</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>1415</v>
+        <v>1386</v>
       </c>
       <c r="B313" t="s">
-        <v>1447</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>1416</v>
+        <v>1387</v>
       </c>
       <c r="B314" t="s">
-        <v>1448</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
       <c r="B315" t="s">
-        <v>1449</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>1418</v>
+        <v>1389</v>
       </c>
       <c r="B316" t="s">
-        <v>1450</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>1419</v>
+        <v>1390</v>
       </c>
       <c r="B317" t="s">
-        <v>1451</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>1420</v>
+        <v>1391</v>
       </c>
       <c r="B318" t="s">
-        <v>1452</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>1421</v>
+        <v>1392</v>
       </c>
       <c r="B319" t="s">
-        <v>1453</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>1422</v>
+        <v>1393</v>
       </c>
       <c r="B320" t="s">
-        <v>1454</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>1423</v>
+        <v>1394</v>
       </c>
       <c r="B321" t="s">
-        <v>1455</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>1424</v>
+        <v>1395</v>
       </c>
       <c r="B322" t="s">
-        <v>1456</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="B323" t="s">
-        <v>1457</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>1426</v>
+        <v>1397</v>
       </c>
       <c r="B324" t="s">
-        <v>1458</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>1427</v>
+        <v>1398</v>
       </c>
       <c r="B325" t="s">
-        <v>1459</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>1428</v>
+        <v>1399</v>
       </c>
       <c r="B326" t="s">
-        <v>1460</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>1429</v>
+        <v>1400</v>
       </c>
       <c r="B327" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>1430</v>
+        <v>1401</v>
       </c>
       <c r="B328" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>1431</v>
+        <v>1402</v>
       </c>
       <c r="B329" t="s">
-        <v>1463</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>1432</v>
+        <v>1403</v>
       </c>
       <c r="B330" t="s">
-        <v>1464</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>1433</v>
+        <v>1404</v>
       </c>
       <c r="B331" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>1434</v>
+        <v>1405</v>
       </c>
       <c r="B332" t="s">
-        <v>1466</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>1435</v>
+        <v>1406</v>
       </c>
       <c r="B333" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>1436</v>
+        <v>1407</v>
       </c>
       <c r="B334" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>1437</v>
+        <v>1408</v>
       </c>
       <c r="B335" t="s">
-        <v>1469</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>1438</v>
+        <v>1409</v>
       </c>
       <c r="B336" t="s">
-        <v>1470</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>1440</v>
+        <v>1411</v>
       </c>
       <c r="B337" t="s">
-        <v>1471</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>1441</v>
+        <v>1412</v>
       </c>
       <c r="B338" t="s">
-        <v>1472</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>1442</v>
+        <v>1413</v>
       </c>
       <c r="B339" t="s">
-        <v>1473</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>1439</v>
+        <v>1410</v>
       </c>
       <c r="B340" t="s">
-        <v>1474</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>1475</v>
+        <v>1446</v>
       </c>
       <c r="B341" t="s">
         <v>70</v>
@@ -9107,7 +9524,7 @@
     </row>
     <row r="342" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>1476</v>
+        <v>1447</v>
       </c>
       <c r="B342" t="s">
         <v>70</v>
@@ -9115,7 +9532,7 @@
     </row>
     <row r="343" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>1477</v>
+        <v>1448</v>
       </c>
       <c r="B343" t="s">
         <v>207</v>
@@ -9123,290 +9540,290 @@
     </row>
     <row r="344" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>1478</v>
+        <v>1449</v>
       </c>
       <c r="B344" t="s">
-        <v>1482</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>1479</v>
+        <v>1450</v>
       </c>
       <c r="B345" t="s">
-        <v>1483</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>1480</v>
+        <v>1451</v>
       </c>
       <c r="B346" t="s">
-        <v>1484</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>1481</v>
+        <v>1452</v>
       </c>
       <c r="B347" t="s">
-        <v>1485</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>1486</v>
+        <v>1457</v>
       </c>
       <c r="B348" t="s">
-        <v>1518</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>1487</v>
+        <v>1458</v>
       </c>
       <c r="B349" t="s">
-        <v>1519</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>1488</v>
+        <v>1459</v>
       </c>
       <c r="B350" t="s">
-        <v>1520</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>1489</v>
+        <v>1460</v>
       </c>
       <c r="B351" t="s">
-        <v>1521</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="B352" t="s">
-        <v>1522</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>1491</v>
+        <v>1462</v>
       </c>
       <c r="B353" t="s">
-        <v>1523</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>1492</v>
+        <v>1463</v>
       </c>
       <c r="B354" t="s">
-        <v>1524</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>1493</v>
+        <v>1464</v>
       </c>
       <c r="B355" t="s">
-        <v>1525</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>1494</v>
+        <v>1465</v>
       </c>
       <c r="B356" t="s">
-        <v>1526</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>1495</v>
+        <v>1466</v>
       </c>
       <c r="B357" t="s">
-        <v>1527</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>1496</v>
+        <v>1467</v>
       </c>
       <c r="B358" t="s">
-        <v>1528</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>1497</v>
+        <v>1468</v>
       </c>
       <c r="B359" t="s">
-        <v>1529</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>1498</v>
+        <v>1469</v>
       </c>
       <c r="B360" t="s">
-        <v>1530</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>1499</v>
+        <v>1470</v>
       </c>
       <c r="B361" t="s">
-        <v>1531</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>1500</v>
+        <v>1471</v>
       </c>
       <c r="B362" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>1501</v>
+        <v>1472</v>
       </c>
       <c r="B363" t="s">
-        <v>1533</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>1502</v>
+        <v>1473</v>
       </c>
       <c r="B364" t="s">
-        <v>1534</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>1503</v>
+        <v>1474</v>
       </c>
       <c r="B365" t="s">
-        <v>1535</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>1504</v>
+        <v>1475</v>
       </c>
       <c r="B366" t="s">
-        <v>1536</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>1505</v>
+        <v>1476</v>
       </c>
       <c r="B367" t="s">
-        <v>1537</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>1506</v>
+        <v>1477</v>
       </c>
       <c r="B368" t="s">
-        <v>1538</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>1507</v>
+        <v>1478</v>
       </c>
       <c r="B369" t="s">
-        <v>1539</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>1508</v>
+        <v>1479</v>
       </c>
       <c r="B370" t="s">
-        <v>1540</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>1509</v>
+        <v>1480</v>
       </c>
       <c r="B371" t="s">
-        <v>1541</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>1510</v>
+        <v>1481</v>
       </c>
       <c r="B372" t="s">
-        <v>1542</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>1511</v>
+        <v>1482</v>
       </c>
       <c r="B373" t="s">
-        <v>1543</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>1512</v>
+        <v>1483</v>
       </c>
       <c r="B374" t="s">
-        <v>1544</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>1513</v>
+        <v>1484</v>
       </c>
       <c r="B375" t="s">
-        <v>1545</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>1514</v>
+        <v>1485</v>
       </c>
       <c r="B376" t="s">
-        <v>1546</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>1515</v>
+        <v>1486</v>
       </c>
       <c r="B377" t="s">
-        <v>1547</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>1516</v>
+        <v>1487</v>
       </c>
       <c r="B378" t="s">
-        <v>1548</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>1517</v>
+        <v>1488</v>
       </c>
       <c r="B379" t="s">
-        <v>1549</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9427,7 +9844,7 @@
     </row>
     <row r="382" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>1550</v>
+        <v>1521</v>
       </c>
       <c r="B382" t="s">
         <v>210</v>
@@ -9435,63 +9852,63 @@
     </row>
     <row r="383" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>1551</v>
+        <v>1522</v>
       </c>
       <c r="B383" t="s">
-        <v>1559</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>1552</v>
+        <v>1523</v>
       </c>
       <c r="B384" t="s">
-        <v>1560</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>1553</v>
+        <v>1524</v>
       </c>
       <c r="B385" t="s">
-        <v>1561</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>1554</v>
+        <v>1525</v>
       </c>
       <c r="B386" t="s">
-        <v>1562</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>1555</v>
+        <v>1526</v>
       </c>
       <c r="B387" t="s">
-        <v>1563</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>1556</v>
+        <v>1527</v>
       </c>
       <c r="B388" t="s">
-        <v>1564</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>1557</v>
+        <v>1528</v>
       </c>
       <c r="B389" t="s">
-        <v>1565</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>1558</v>
+        <v>1529</v>
       </c>
       <c r="B390" t="s">
         <v>229</v>
@@ -9499,10 +9916,10 @@
     </row>
     <row r="391" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>1566</v>
+        <v>1537</v>
       </c>
       <c r="B391" t="s">
-        <v>1567</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9515,7 +9932,7 @@
     </row>
     <row r="393" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>1568</v>
+        <v>1539</v>
       </c>
       <c r="B393" t="s">
         <v>70</v>
@@ -9526,7 +9943,7 @@
         <v>212</v>
       </c>
       <c r="B394" t="s">
-        <v>1569</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9534,7 +9951,7 @@
         <v>213</v>
       </c>
       <c r="B395" t="s">
-        <v>1570</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9542,60 +9959,60 @@
         <v>214</v>
       </c>
       <c r="B396" t="s">
-        <v>1571</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>1572</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A398" s="11" t="s">
-        <v>1614</v>
+        <v>1585</v>
       </c>
       <c r="B398" t="s">
-        <v>1610</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" s="11" t="s">
-        <v>1615</v>
+        <v>1586</v>
       </c>
       <c r="B399" t="s">
-        <v>1611</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A400" s="11" t="s">
-        <v>1616</v>
+        <v>1587</v>
       </c>
       <c r="B400" t="s">
-        <v>1619</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A401" s="11" t="s">
-        <v>1617</v>
+        <v>1588</v>
       </c>
       <c r="B401" t="s">
-        <v>1612</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>1621</v>
+        <v>1592</v>
       </c>
       <c r="B402" t="s">
-        <v>1613</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>1618</v>
+        <v>1589</v>
       </c>
       <c r="B403" t="s">
-        <v>1619</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9608,50 +10025,50 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1573</v>
+        <v>1544</v>
       </c>
       <c r="B405" t="s">
-        <v>1579</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1574</v>
+        <v>1545</v>
       </c>
       <c r="B406" t="s">
-        <v>1580</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1575</v>
+        <v>1546</v>
       </c>
       <c r="B407" t="s">
-        <v>1581</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="B408" t="s">
-        <v>1582</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1577</v>
+        <v>1548</v>
       </c>
       <c r="B409" t="s">
-        <v>1584</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1578</v>
+        <v>1549</v>
       </c>
       <c r="B410" t="s">
-        <v>1583</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -9664,47 +10081,47 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1585</v>
+        <v>1556</v>
       </c>
       <c r="B412" t="s">
-        <v>1590</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1586</v>
+        <v>1557</v>
       </c>
       <c r="B413" t="s">
-        <v>1591</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1587</v>
+        <v>1558</v>
       </c>
       <c r="B414" t="s">
-        <v>1592</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1588</v>
+        <v>1559</v>
       </c>
       <c r="B415" t="s">
-        <v>1593</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1589</v>
+        <v>1560</v>
       </c>
       <c r="B416" t="s">
-        <v>1594</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>1595</v>
+        <v>1566</v>
       </c>
       <c r="B417" s="11" t="s">
         <v>217</v>
@@ -9712,7 +10129,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>1596</v>
+        <v>1567</v>
       </c>
       <c r="B418" t="s">
         <v>70</v>
@@ -9720,26 +10137,26 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>1597</v>
+        <v>1568</v>
       </c>
       <c r="B419" t="s">
-        <v>1600</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>1598</v>
+        <v>1569</v>
       </c>
       <c r="B420" t="s">
-        <v>1601</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>1599</v>
+        <v>1570</v>
       </c>
       <c r="B421" t="s">
-        <v>1620</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -9792,10 +10209,10 @@
     </row>
     <row r="428" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>1604</v>
+        <v>1575</v>
       </c>
       <c r="B428" t="s">
-        <v>1603</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9808,10 +10225,10 @@
     </row>
     <row r="430" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>1602</v>
+        <v>1573</v>
       </c>
       <c r="B430" t="s">
-        <v>1605</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9824,10 +10241,10 @@
     </row>
     <row r="432" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>1606</v>
+        <v>1577</v>
       </c>
       <c r="B432" t="s">
-        <v>1607</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -9835,15 +10252,15 @@
         <v>233</v>
       </c>
       <c r="B433" t="s">
-        <v>1622</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>1608</v>
+        <v>1579</v>
       </c>
       <c r="B434" t="s">
-        <v>1609</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -10043,7 +10460,7 @@
         <v>279</v>
       </c>
       <c r="B459" t="s">
-        <v>1623</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -10051,7 +10468,7 @@
         <v>280</v>
       </c>
       <c r="B460" t="s">
-        <v>1624</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -10067,7 +10484,7 @@
         <v>282</v>
       </c>
       <c r="B462" t="s">
-        <v>1625</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -10075,7 +10492,7 @@
         <v>283</v>
       </c>
       <c r="B463" t="s">
-        <v>1626</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -10107,7 +10524,7 @@
         <v>287</v>
       </c>
       <c r="B467" t="s">
-        <v>1627</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -10115,7 +10532,7 @@
         <v>288</v>
       </c>
       <c r="B468" t="s">
-        <v>1628</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -10123,7 +10540,7 @@
         <v>289</v>
       </c>
       <c r="B469" t="s">
-        <v>1629</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -10152,943 +10569,952 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>293</v>
+        <v>1602</v>
       </c>
       <c r="B473" t="s">
-        <v>1630</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>294</v>
+        <v>1603</v>
       </c>
       <c r="B474" t="s">
-        <v>295</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B475" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B476" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B477" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B478" t="s">
-        <v>303</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B479" t="s">
-        <v>70</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B480" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B482" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>310</v>
+        <v>1611</v>
       </c>
       <c r="B483" t="s">
-        <v>311</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>312</v>
+        <v>1612</v>
       </c>
       <c r="B484" t="s">
-        <v>313</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>314</v>
+        <v>1613</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B486" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>315</v>
+        <v>1614</v>
       </c>
       <c r="B487" t="s">
-        <v>317</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>318</v>
+        <v>1765</v>
       </c>
       <c r="B488" t="s">
-        <v>319</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B489" t="s">
-        <v>321</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B490" t="s">
-        <v>323</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B492" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B493">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="B493" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>327</v>
+        <v>1620</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B496">
-        <v>1</v>
+        <v>314</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B497" t="s">
-        <v>153</v>
+        <v>315</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
+      </c>
+      <c r="B498" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B499" t="s">
-        <v>70</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B500" t="s">
-        <v>334</v>
+        <v>70</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B501" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B502" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B503" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B504" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B505" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B506" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B507" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B508" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B509" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>353</v>
+        <v>1621</v>
       </c>
       <c r="B510" t="s">
-        <v>354</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>353</v>
+        <v>1631</v>
       </c>
       <c r="B511" t="s">
-        <v>355</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>356</v>
+        <v>1632</v>
       </c>
       <c r="B512" t="s">
-        <v>357</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>358</v>
+        <v>1633</v>
       </c>
       <c r="B513" t="s">
-        <v>359</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>360</v>
+        <v>1634</v>
       </c>
       <c r="B514" t="s">
-        <v>361</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>362</v>
+        <v>1635</v>
       </c>
       <c r="B515" t="s">
-        <v>363</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>364</v>
+        <v>1636</v>
       </c>
       <c r="B516" t="s">
-        <v>365</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>366</v>
+        <v>1637</v>
       </c>
       <c r="B517" t="s">
-        <v>366</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>367</v>
+        <v>1638</v>
       </c>
       <c r="B518" t="s">
-        <v>70</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>368</v>
+        <v>1639</v>
       </c>
       <c r="B519" t="s">
-        <v>369</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>370</v>
+        <v>1640</v>
       </c>
       <c r="B520" t="s">
-        <v>371</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>372</v>
+        <v>1641</v>
       </c>
       <c r="B521" t="s">
-        <v>373</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>374</v>
+        <v>1642</v>
       </c>
       <c r="B522" t="s">
-        <v>70</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>375</v>
+        <v>1643</v>
       </c>
       <c r="B523" t="s">
-        <v>70</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>376</v>
+        <v>1644</v>
       </c>
       <c r="B524" t="s">
-        <v>70</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>377</v>
+        <v>1645</v>
       </c>
       <c r="B525" t="s">
-        <v>70</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>378</v>
+        <v>1646</v>
       </c>
       <c r="B526" t="s">
-        <v>378</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>379</v>
+        <v>1647</v>
       </c>
       <c r="B527" t="s">
-        <v>70</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>380</v>
+        <v>1648</v>
       </c>
       <c r="B528" t="s">
-        <v>381</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B529" t="s">
-        <v>383</v>
+      <c r="A529" s="12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B529" s="12" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B530" t="s">
-        <v>385</v>
+      <c r="A530" s="12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B530" s="12" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B531" t="s">
-        <v>387</v>
+      <c r="A531" s="12" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B531" s="12" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B532" t="s">
-        <v>389</v>
+      <c r="A532" s="12" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B532" s="12" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B533" t="s">
-        <v>70</v>
+      <c r="A533" s="12" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B533" s="12" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B534" t="s">
-        <v>70</v>
+      <c r="A534" s="12" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B534" s="12" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B535" t="s">
-        <v>70</v>
+      <c r="A535" s="12" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B535" s="12" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B536" t="s">
-        <v>70</v>
+      <c r="A536" s="12" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B536" s="12" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B537" t="s">
-        <v>70</v>
+      <c r="A537" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B537" s="12" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B538" t="s">
-        <v>70</v>
+      <c r="A538" s="12" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B538" s="12" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B539" t="s">
-        <v>70</v>
+      <c r="A539" s="12" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B539" s="12" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B540" t="s">
-        <v>398</v>
+      <c r="A540" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B540" s="12" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B541" t="s">
-        <v>398</v>
+      <c r="A541" s="12" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B541" s="12" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B542" t="s">
-        <v>70</v>
+      <c r="A542" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B542" s="12" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B543" t="s">
-        <v>70</v>
+      <c r="A543" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B543" s="12" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B544" t="s">
-        <v>70</v>
+      <c r="A544" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B544" s="12" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B545" t="s">
-        <v>70</v>
+      <c r="A545" s="12" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B545" s="12" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B546" t="s">
-        <v>70</v>
+      <c r="A546" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B546" s="12" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B547" t="s">
-        <v>70</v>
+        <v>1667</v>
+      </c>
+      <c r="B547" s="12" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B548" t="s">
-        <v>70</v>
+        <v>1668</v>
+      </c>
+      <c r="B548" s="12" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B549" t="s">
-        <v>408</v>
+        <v>1669</v>
+      </c>
+      <c r="B549" s="12" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>409</v>
+        <v>1670</v>
       </c>
       <c r="B550" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A551" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B551" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A552" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B552" t="s">
-        <v>408</v>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B551" s="12" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B552" s="12" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B553" t="s">
-        <v>70</v>
+        <v>1673</v>
+      </c>
+      <c r="B553" s="12" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B554" t="s">
-        <v>70</v>
+        <v>1674</v>
+      </c>
+      <c r="B554" s="12" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B555" t="s">
-        <v>408</v>
+        <v>1675</v>
+      </c>
+      <c r="B555" s="12" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B556" t="s">
-        <v>70</v>
+        <v>1676</v>
+      </c>
+      <c r="B556" s="12" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B557" t="s">
-        <v>417</v>
+        <v>1677</v>
+      </c>
+      <c r="B557" s="12" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B558" t="s">
-        <v>419</v>
+        <v>1678</v>
+      </c>
+      <c r="B558" s="12" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B559" t="s">
-        <v>419</v>
+        <v>1679</v>
+      </c>
+      <c r="B559" s="12" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B560" t="s">
-        <v>419</v>
+        <v>1680</v>
+      </c>
+      <c r="B560" s="12" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B561" t="s">
-        <v>419</v>
+        <v>1701</v>
+      </c>
+      <c r="B561" s="12" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B562" t="s">
-        <v>419</v>
+        <v>1681</v>
+      </c>
+      <c r="B562" s="12" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B563" t="s">
-        <v>419</v>
+        <v>1682</v>
+      </c>
+      <c r="B563" s="12" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B564" t="s">
-        <v>419</v>
+        <v>1683</v>
+      </c>
+      <c r="B564" s="12" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B565" t="s">
-        <v>419</v>
+      <c r="A565" s="12" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B565" s="12" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B566" t="s">
-        <v>419</v>
+      <c r="A566" s="12" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B566" s="12" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B567" t="s">
-        <v>419</v>
+      <c r="A567" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B567" s="12" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B568" t="s">
-        <v>419</v>
+      <c r="A568" s="12" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B568" s="12" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B569" t="s">
-        <v>419</v>
+      <c r="A569" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B569" s="12" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B570" t="s">
-        <v>419</v>
+      <c r="A570" s="12" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B570" s="12" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B571" t="s">
-        <v>419</v>
+      <c r="A571" s="12" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B571" s="12" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B572" t="s">
-        <v>419</v>
+      <c r="A572" s="12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B572" s="12" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B573" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A574" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B574" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A575" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B575" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A576" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B576" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A577" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B577" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A578" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B578" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A579" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B579" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A580" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B580" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A581" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B581" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A582" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A583" s="2" t="s">
-        <v>448</v>
+      <c r="A573" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B573" s="12" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="12" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B574" s="12" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="12" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B575" s="12" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B576" s="12" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B577" s="12" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B578" s="12" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B579" s="12" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B580" s="12" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="12" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B581" s="12" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="12" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B582" s="12" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B583" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="B584" t="s">
-        <v>449</v>
+        <v>70</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>450</v>
+        <v>339</v>
       </c>
       <c r="B585" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="B586" t="s">
-        <v>453</v>
+        <v>342</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>454</v>
+        <v>343</v>
       </c>
       <c r="B587" t="s">
-        <v>455</v>
+        <v>344</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>456</v>
+        <v>345</v>
       </c>
       <c r="B588" t="s">
-        <v>457</v>
+        <v>70</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>458</v>
+        <v>346</v>
       </c>
       <c r="B589" t="s">
-        <v>459</v>
+        <v>70</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="B590" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="B591" t="s">
-        <v>463</v>
+        <v>70</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="B592" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="B593" t="s">
         <v>70</v>
@@ -11096,143 +11522,143 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>466</v>
+        <v>351</v>
       </c>
       <c r="B594" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>468</v>
+        <v>353</v>
       </c>
       <c r="B595" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="B596" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A597" s="2" t="s">
-        <v>472</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="B597" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="B598" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>475</v>
+        <v>361</v>
       </c>
       <c r="B599" t="s">
-        <v>476</v>
+        <v>70</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="B600" t="s">
-        <v>478</v>
+        <v>70</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>479</v>
+        <v>363</v>
       </c>
       <c r="B601" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="B602" t="s">
-        <v>481</v>
+        <v>70</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>482</v>
+        <v>365</v>
       </c>
       <c r="B603" t="s">
-        <v>483</v>
+        <v>70</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="B604" t="s">
-        <v>485</v>
+        <v>70</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>486</v>
+        <v>367</v>
       </c>
       <c r="B605" t="s">
-        <v>487</v>
+        <v>70</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="B606" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="B607" t="s">
-        <v>491</v>
+        <v>369</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="B608" t="s">
-        <v>493</v>
+        <v>70</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="B609" t="s">
-        <v>495</v>
+        <v>70</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>496</v>
+        <v>373</v>
       </c>
       <c r="B610" t="s">
-        <v>496</v>
+        <v>70</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>497</v>
+        <v>374</v>
       </c>
       <c r="B611" t="s">
         <v>70</v>
@@ -11240,87 +11666,87 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>498</v>
+        <v>375</v>
       </c>
       <c r="B612" t="s">
-        <v>499</v>
+        <v>70</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="B613" t="s">
-        <v>501</v>
+        <v>70</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>502</v>
+        <v>377</v>
       </c>
       <c r="B614" t="s">
-        <v>503</v>
+        <v>70</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="B615" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="B616" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="1" t="s">
-        <v>508</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A617" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="B617" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="1" t="s">
-        <v>510</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A618" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="B618" t="s">
-        <v>511</v>
+        <v>379</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>512</v>
+        <v>383</v>
       </c>
       <c r="B619" t="s">
-        <v>513</v>
+        <v>70</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>514</v>
+        <v>384</v>
       </c>
       <c r="B620" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>516</v>
+        <v>385</v>
       </c>
       <c r="B621" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>517</v>
+        <v>386</v>
       </c>
       <c r="B622" t="s">
         <v>70</v>
@@ -11328,1744 +11754,1738 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>518</v>
+        <v>387</v>
       </c>
       <c r="B623" t="s">
-        <v>519</v>
+        <v>388</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>520</v>
+        <v>389</v>
       </c>
       <c r="B624" t="s">
-        <v>521</v>
+        <v>390</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>522</v>
+        <v>391</v>
       </c>
       <c r="B625" t="s">
-        <v>523</v>
+        <v>390</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>524</v>
+        <v>392</v>
       </c>
       <c r="B626" t="s">
-        <v>525</v>
+        <v>390</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>526</v>
+        <v>393</v>
       </c>
       <c r="B627" t="s">
-        <v>229</v>
+        <v>390</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>527</v>
+        <v>394</v>
       </c>
       <c r="B628" t="s">
-        <v>528</v>
+        <v>390</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="B629" t="s">
-        <v>530</v>
+        <v>390</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>531</v>
+        <v>396</v>
       </c>
       <c r="B630" t="s">
-        <v>532</v>
+        <v>390</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>533</v>
+        <v>397</v>
       </c>
       <c r="B631" t="s">
-        <v>534</v>
+        <v>390</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>535</v>
+        <v>398</v>
       </c>
       <c r="B632" t="s">
-        <v>229</v>
+        <v>390</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>536</v>
+        <v>399</v>
       </c>
       <c r="B633" t="s">
-        <v>537</v>
+        <v>390</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>538</v>
+        <v>400</v>
       </c>
       <c r="B634" t="s">
-        <v>539</v>
+        <v>390</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="B635" t="s">
-        <v>541</v>
+        <v>390</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>542</v>
+        <v>401</v>
       </c>
       <c r="B636" t="s">
-        <v>543</v>
+        <v>390</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>544</v>
+        <v>402</v>
       </c>
       <c r="B637" t="s">
-        <v>545</v>
+        <v>390</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>546</v>
+        <v>403</v>
       </c>
       <c r="B638" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A639" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B639" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B639" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
-        <v>548</v>
+        <v>405</v>
       </c>
       <c r="B640" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="1" t="s">
-        <v>549</v>
+    <row r="641" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A641" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="B641" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="1" t="s">
-        <v>551</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A642" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="B642" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="1" t="s">
-        <v>553</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="B643" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="1" t="s">
-        <v>555</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A644" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="B644" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="1" t="s">
-        <v>557</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A645" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="B645" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="1" t="s">
-        <v>559</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A646" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="B646" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="1" t="s">
-        <v>561</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B647" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B648" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A648" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B649" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A650" s="2" t="s">
-        <v>565</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B650" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A651" s="2" t="s">
-        <v>567</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B651" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A652" s="2" t="s">
-        <v>569</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B652" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A653" s="2" t="s">
-        <v>570</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B653" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A654" s="2" t="s">
-        <v>572</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B654" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A655" s="2" t="s">
-        <v>574</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="B655" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A656" s="2" t="s">
-        <v>576</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="B656" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A657" s="2" t="s">
-        <v>578</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="B657" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A658" s="2" t="s">
-        <v>580</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="B658" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A659" s="2" t="s">
-        <v>582</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="B659" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A660" s="2" t="s">
-        <v>583</v>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B660" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B661" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B662" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B663" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A661" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B661" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A662" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B662" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A663" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B663" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A664" s="2" t="s">
-        <v>590</v>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="B664" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A665" s="2" t="s">
-        <v>592</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="B665" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A666" s="2" t="s">
-        <v>594</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B666" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B667" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A667" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B667" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A668" s="2" t="s">
-        <v>597</v>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="B668" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A669" s="2" t="s">
-        <v>599</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="B669" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A670" s="2" t="s">
-        <v>601</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="B670" t="s">
-        <v>602</v>
+        <v>456</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>603</v>
+        <v>457</v>
       </c>
       <c r="B671" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A672" s="2" t="s">
-        <v>605</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B672" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A673" s="2" t="s">
-        <v>607</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="B673" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A674" s="2" t="s">
-        <v>609</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="B674" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A675" s="2" t="s">
-        <v>610</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="B675" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B676" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B677" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A676" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B676" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A677" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B677" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A678" s="2" t="s">
-        <v>615</v>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="B678" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A679" s="2" t="s">
-        <v>617</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="B679" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B680" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B681" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B682" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B683" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B684" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B685" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B686" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B687" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B688" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A680" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A681" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A682" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A683" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A684" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B684" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A685" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B685" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A686" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B686" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A687" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B687" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A688" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B688" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A689" s="2" t="s">
-        <v>632</v>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="B689" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A690" s="2" t="s">
-        <v>634</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="B690" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A691" s="2" t="s">
-        <v>636</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="B691" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A692" s="2" t="s">
-        <v>638</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="B692" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A693" s="2" t="s">
-        <v>639</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="B693" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A694" s="2" t="s">
-        <v>641</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="B694" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A695" s="2" t="s">
-        <v>643</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="B695" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A696" s="2" t="s">
-        <v>645</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="B696" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A697" s="2" t="s">
-        <v>647</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="B697" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A698" s="2" t="s">
-        <v>649</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="B698" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A699" s="2" t="s">
-        <v>651</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="B699" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A700" s="2" t="s">
-        <v>653</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="B700" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B701" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B702" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B703" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B704" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A701" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B701" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A702" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B702" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A703" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B703" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A704" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B704" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A705" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B705" t="s">
-        <v>663</v>
+        <v>518</v>
+      </c>
+      <c r="B705" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A706" s="2" t="s">
-        <v>664</v>
+        <v>519</v>
       </c>
       <c r="B706" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A707" s="2" t="s">
-        <v>666</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="B707" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A708" s="2" t="s">
-        <v>668</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B708" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A709" s="2" t="s">
-        <v>670</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="B709" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A710" s="2" t="s">
-        <v>672</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="B710" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A711" s="2" t="s">
-        <v>674</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="B711" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A712" s="2" t="s">
-        <v>676</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="B712" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A713" s="2" t="s">
-        <v>678</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B713" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A714" s="2" t="s">
-        <v>680</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B714" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A715" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B715" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A716" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B716" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A717" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B717" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A718" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B718" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A715" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A716" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B716" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A717" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B717" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A718" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B718" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A719" s="2" t="s">
-        <v>688</v>
+        <v>541</v>
       </c>
       <c r="B719" t="s">
-        <v>689</v>
+        <v>542</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A720" s="2" t="s">
-        <v>690</v>
+        <v>543</v>
       </c>
       <c r="B720" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A721" s="2" t="s">
-        <v>692</v>
+        <v>545</v>
       </c>
       <c r="B721" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A722" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B722" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A723" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B723" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A724" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B724" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A725" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B725" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A722" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B722" t="s">
+    <row r="726" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A726" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B726" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A723" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B723" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A724" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B724" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A725" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B725" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A726" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B726" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A727" s="2" t="s">
-        <v>702</v>
+        <v>555</v>
       </c>
       <c r="B727" t="s">
-        <v>703</v>
+        <v>556</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A728" s="2" t="s">
-        <v>704</v>
+        <v>557</v>
       </c>
       <c r="B728" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A729" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B729" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A730" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B730" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A731" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B731" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A732" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B732" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A729" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="B729" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A730" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="B730" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A731" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B731" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A732" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B732" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A733" s="2" t="s">
-        <v>713</v>
+        <v>566</v>
       </c>
       <c r="B733" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A734" s="2" t="s">
-        <v>715</v>
+        <v>568</v>
       </c>
       <c r="B734" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A735" s="2" t="s">
-        <v>717</v>
+        <v>570</v>
       </c>
       <c r="B735" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A736" s="2" t="s">
-        <v>719</v>
+        <v>572</v>
       </c>
       <c r="B736" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A737" s="2" t="s">
-        <v>721</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="B737" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A738" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B738" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A739" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B739" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A740" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B740" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A741" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B741" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A738" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B738" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A739" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B739" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A740" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B740" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A741" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B741" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A742" s="2" t="s">
-        <v>730</v>
+        <v>582</v>
       </c>
       <c r="B742" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A743" s="2" t="s">
-        <v>731</v>
+        <v>584</v>
       </c>
       <c r="B743" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A744" s="2" t="s">
-        <v>733</v>
+        <v>586</v>
       </c>
       <c r="B744" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A745" s="2" t="s">
-        <v>735</v>
+        <v>588</v>
       </c>
       <c r="B745" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A746" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B746" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A747" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B747" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A748" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B748" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A749" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B749" t="s">
-        <v>744</v>
+        <v>592</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A750" s="2" t="s">
-        <v>745</v>
+        <v>593</v>
       </c>
       <c r="B750" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A751" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B751" s="11" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="B751" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A752" s="2" t="s">
-        <v>748</v>
+        <v>597</v>
       </c>
       <c r="B752" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A753" s="2" t="s">
-        <v>749</v>
+        <v>599</v>
       </c>
       <c r="B753" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A754" s="2" t="s">
-        <v>751</v>
+        <v>601</v>
       </c>
       <c r="B754" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A755" s="2" t="s">
-        <v>753</v>
+        <v>603</v>
       </c>
       <c r="B755" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
-        <v>755</v>
+        <v>605</v>
       </c>
       <c r="B756" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A757" s="2" t="s">
-        <v>756</v>
+        <v>607</v>
       </c>
       <c r="B757" t="s">
-        <v>757</v>
+        <v>608</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A758" s="2" t="s">
-        <v>758</v>
+        <v>609</v>
       </c>
       <c r="B758" t="s">
-        <v>759</v>
+        <v>70</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A759" s="2" t="s">
-        <v>760</v>
+        <v>610</v>
       </c>
       <c r="B759" t="s">
-        <v>761</v>
+        <v>611</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A760" s="2" t="s">
-        <v>762</v>
+        <v>612</v>
       </c>
       <c r="B760" t="s">
-        <v>763</v>
+        <v>613</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A761" s="2" t="s">
-        <v>764</v>
+        <v>614</v>
       </c>
       <c r="B761" t="s">
-        <v>765</v>
+        <v>615</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A762" s="2" t="s">
-        <v>766</v>
+        <v>616</v>
       </c>
       <c r="B762" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A763" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B763" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A764" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B764" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A765" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B765" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A766" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B766" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A763" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B763" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A764" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="B764" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A765" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B765" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A766" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B766" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A767" s="2" t="s">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="B767" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A768" s="2" t="s">
-        <v>777</v>
+        <v>627</v>
       </c>
       <c r="B768" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A769" s="2" t="s">
-        <v>779</v>
+        <v>629</v>
       </c>
       <c r="B769" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A770" s="2" t="s">
-        <v>781</v>
+        <v>631</v>
       </c>
       <c r="B770" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A771" s="2" t="s">
-        <v>783</v>
+        <v>633</v>
       </c>
       <c r="B771" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A772" s="2" t="s">
-        <v>784</v>
+        <v>635</v>
       </c>
       <c r="B772" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A773" s="2" t="s">
-        <v>786</v>
+        <v>637</v>
       </c>
       <c r="B773" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A774" s="2" t="s">
-        <v>788</v>
+        <v>639</v>
       </c>
       <c r="B774" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A775" s="2" t="s">
-        <v>790</v>
+        <v>641</v>
       </c>
       <c r="B775" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A776" s="2" t="s">
-        <v>792</v>
+        <v>643</v>
       </c>
       <c r="B776" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A777" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B777" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A778" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B778" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A779" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B779" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A780" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B780" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A777" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="B777" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A778" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B778" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A779" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B779" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A780" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B780" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A781" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="B781" t="s">
-        <v>802</v>
+        <v>652</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A782" s="2" t="s">
-        <v>803</v>
+        <v>653</v>
       </c>
       <c r="B782" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A783" s="2" t="s">
-        <v>805</v>
+        <v>655</v>
       </c>
       <c r="B783" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A784" s="2" t="s">
-        <v>806</v>
+        <v>657</v>
       </c>
       <c r="B784" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A785" s="2" t="s">
-        <v>808</v>
+        <v>659</v>
       </c>
       <c r="B785" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A786" s="2" t="s">
-        <v>810</v>
+        <v>661</v>
       </c>
       <c r="B786" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A787" s="2" t="s">
-        <v>812</v>
+        <v>663</v>
       </c>
       <c r="B787" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A788" s="2" t="s">
-        <v>813</v>
+        <v>664</v>
       </c>
       <c r="B788" t="s">
-        <v>814</v>
+        <v>70</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A789" s="2" t="s">
-        <v>815</v>
+        <v>665</v>
       </c>
       <c r="B789" t="s">
-        <v>816</v>
+        <v>666</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A790" s="2" t="s">
-        <v>817</v>
+        <v>667</v>
       </c>
       <c r="B790" t="s">
-        <v>818</v>
+        <v>668</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A791" s="2" t="s">
-        <v>819</v>
+        <v>669</v>
       </c>
       <c r="B791" t="s">
-        <v>820</v>
+        <v>670</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A792" s="2" t="s">
-        <v>821</v>
+        <v>671</v>
       </c>
       <c r="B792" t="s">
-        <v>822</v>
+        <v>672</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A793" s="2" t="s">
-        <v>823</v>
+        <v>673</v>
       </c>
       <c r="B793" t="s">
-        <v>824</v>
+        <v>674</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A794" s="2" t="s">
-        <v>825</v>
+        <v>675</v>
       </c>
       <c r="B794" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A795" s="2" t="s">
-        <v>827</v>
+        <v>676</v>
       </c>
       <c r="B795" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A796" s="2" t="s">
-        <v>829</v>
+        <v>678</v>
       </c>
       <c r="B796" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A797" s="2" t="s">
-        <v>831</v>
+        <v>680</v>
       </c>
       <c r="B797" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A798" s="2" t="s">
-        <v>832</v>
+        <v>682</v>
       </c>
       <c r="B798" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A799" s="2" t="s">
-        <v>834</v>
+        <v>684</v>
       </c>
       <c r="B799" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A800" s="2" t="s">
-        <v>836</v>
+        <v>686</v>
       </c>
       <c r="B800" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A801" s="2" t="s">
-        <v>838</v>
+        <v>688</v>
       </c>
       <c r="B801" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A802" s="2" t="s">
-        <v>840</v>
+        <v>690</v>
       </c>
       <c r="B802" t="s">
-        <v>841</v>
+        <v>691</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A803" s="2" t="s">
-        <v>842</v>
+        <v>692</v>
       </c>
       <c r="B803" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A804" s="2" t="s">
-        <v>844</v>
+        <v>693</v>
       </c>
       <c r="B804" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A805" s="2" t="s">
-        <v>846</v>
+        <v>695</v>
       </c>
       <c r="B805" t="s">
-        <v>847</v>
+        <v>696</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A806" s="2" t="s">
-        <v>848</v>
+        <v>697</v>
       </c>
       <c r="B806" t="s">
-        <v>848</v>
+        <v>698</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A807" s="2" t="s">
-        <v>849</v>
+        <v>699</v>
       </c>
       <c r="B807" t="s">
-        <v>70</v>
+        <v>700</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A808" s="2" t="s">
-        <v>850</v>
+        <v>701</v>
       </c>
       <c r="B808" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A809" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B809" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A810" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B810" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A811" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B811" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A812" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B812" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A813" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B813" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A814" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B814" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A815" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B815" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A816" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B816" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A817" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B817" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A818" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B818" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A809" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B809" t="s">
+    <row r="819" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A819" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B819" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A820" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B820" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A821" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B821" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A822" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B822" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A810" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B810" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A811" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="B811" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A812" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B812" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A813" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B813" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A814" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="B814" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A815" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="B815" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A816" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="B816" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A817" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B817" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A818" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B818" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A819" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B819" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A820" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B820" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A821" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B821" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A822" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="B822" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A823" s="2" t="s">
-        <v>877</v>
+        <v>727</v>
       </c>
       <c r="B823" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A824" s="2" t="s">
-        <v>878</v>
+        <v>729</v>
       </c>
       <c r="B824" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A825" s="2" t="s">
-        <v>880</v>
+        <v>731</v>
       </c>
       <c r="B825" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A826" s="2" t="s">
-        <v>882</v>
+        <v>733</v>
       </c>
       <c r="B826" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A827" s="2" t="s">
-        <v>884</v>
+        <v>735</v>
       </c>
       <c r="B827" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A828" s="2" t="s">
-        <v>886</v>
+        <v>737</v>
       </c>
       <c r="B828" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A829" s="2" t="s">
-        <v>888</v>
+        <v>738</v>
       </c>
       <c r="B829" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A830" s="2" t="s">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="B830" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A831" s="2" t="s">
-        <v>891</v>
+        <v>742</v>
       </c>
       <c r="B831" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A832" s="2" t="s">
-        <v>893</v>
+        <v>744</v>
       </c>
       <c r="B832" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A833" s="2" t="s">
-        <v>895</v>
+        <v>746</v>
       </c>
       <c r="B833" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A834" s="2" t="s">
-        <v>897</v>
+        <v>748</v>
       </c>
       <c r="B834" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A835" s="2" t="s">
-        <v>899</v>
+        <v>750</v>
       </c>
       <c r="B835" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A836" s="2" t="s">
-        <v>901</v>
+        <v>752</v>
       </c>
       <c r="B836" t="s">
-        <v>902</v>
+        <v>753</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A837" s="2" t="s">
-        <v>903</v>
+        <v>754</v>
       </c>
       <c r="B837" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="838" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A838" s="2" t="s">
-        <v>904</v>
+        <v>755</v>
       </c>
       <c r="B838" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A839" s="2" t="s">
-        <v>906</v>
+        <v>757</v>
       </c>
       <c r="B839" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A840" s="2" t="s">
-        <v>908</v>
+        <v>759</v>
       </c>
       <c r="B840" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A841" s="2" t="s">
-        <v>910</v>
+        <v>761</v>
       </c>
       <c r="B841" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
-        <v>912</v>
+        <v>763</v>
       </c>
       <c r="B842" t="s">
         <v>229</v>
@@ -13073,90 +13493,618 @@
     </row>
     <row r="843" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
-        <v>913</v>
+        <v>764</v>
       </c>
       <c r="B843" t="s">
-        <v>914</v>
+        <v>765</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A844" s="2" t="s">
-        <v>915</v>
+        <v>766</v>
       </c>
       <c r="B844" t="s">
-        <v>916</v>
+        <v>767</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A845" s="2" t="s">
-        <v>917</v>
+        <v>768</v>
       </c>
       <c r="B845" t="s">
-        <v>918</v>
+        <v>769</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
-        <v>919</v>
+        <v>770</v>
       </c>
       <c r="B846" t="s">
-        <v>920</v>
+        <v>771</v>
       </c>
     </row>
     <row r="847" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A847" s="2" t="s">
-        <v>921</v>
+        <v>772</v>
       </c>
       <c r="B847" t="s">
-        <v>922</v>
+        <v>773</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A848" s="2" t="s">
-        <v>923</v>
+        <v>774</v>
       </c>
       <c r="B848" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A849" s="2" t="s">
-        <v>925</v>
+        <v>776</v>
       </c>
       <c r="B849" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A850" s="1" t="s">
-        <v>927</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A850" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="B850" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A851" s="2" t="s">
-        <v>929</v>
+        <v>779</v>
       </c>
       <c r="B851" t="s">
-        <v>229</v>
+        <v>780</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A852" s="2" t="s">
-        <v>930</v>
+        <v>781</v>
       </c>
       <c r="B852" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A853" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B853" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A854" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B854" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A855" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B855" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A856" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B856" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A857" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B857" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A858" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B858" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A859" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B859" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A860" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B860" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A861" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B861" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A862" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B862" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A863" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B863" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A864" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B864" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A865" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B865" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A866" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B866" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A867" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B867" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A868" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B868" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A869" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B869" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A870" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B870" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A871" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B871" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A872" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B872" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A873" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B873" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A874" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B874" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A875" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B875" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A876" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B876" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A877" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B877" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A878" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B878" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A879" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B879" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A880" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B880" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A881" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B881" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A882" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B882" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A883" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B883" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A884" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B884" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A885" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B885" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A886" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B886" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A887" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B887" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A888" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B888" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A889" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B889" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A890" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B890" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A891" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B891" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A892" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B892" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A893" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B893" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A894" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B894" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A895" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B895" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A896" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B896" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A897" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B897" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A898" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B898" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A899" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B899" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A900" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B900" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A901" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B901" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A902" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B902" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A903" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B903" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A904" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B904" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A905" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B905" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A906" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B906" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A907" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B907" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A908" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B908" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A909" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B909" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A910" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B910" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A911" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B911" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A912" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B912" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A913" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B913" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A914" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B914" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A915" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B915" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B916" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A917" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B917" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A918" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B918" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="853" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A853" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B853" s="11" t="s">
-        <v>931</v>
+    <row r="919" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A919" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B919" s="11" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403FA50-569A-334F-98EB-EE380E6D2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4FC01-65AC-ED46-898F-B1D40B1963D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="500" windowWidth="44200" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="51220" yWindow="180" windowWidth="44200" windowHeight="28300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -6428,13 +6428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.33203125" customWidth="1"/>
     <col min="2" max="2" width="53" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7222,7 +7222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A65A74-ED7E-754D-9872-746C3B2DB6A5}">
   <dimension ref="A1:B994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
+    <sheetView topLeftCell="A693" workbookViewId="0">
       <selection activeCell="B738" sqref="B738"/>
     </sheetView>
   </sheetViews>
@@ -13451,7 +13451,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A781" s="2" t="s">
         <v>465</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A801" s="2" t="s">
         <v>500</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="808" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A808" s="2" t="s">
         <v>512</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="809" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A809" s="2" t="s">
         <v>514</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A810" s="2" t="s">
         <v>516</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="811" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A811" s="2" t="s">
         <v>518</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A813" s="2" t="s">
         <v>522</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="814" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A814" s="2" t="s">
         <v>524</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="815" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A815" s="2" t="s">
         <v>526</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="816" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A816" s="2" t="s">
         <v>527</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="820" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A820" s="2" t="s">
         <v>534</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="825" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A825" s="2" t="s">
         <v>539</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="826" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A826" s="2" t="s">
         <v>541</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="827" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A827" s="2" t="s">
         <v>543</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="828" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A828" s="2" t="s">
         <v>545</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="829" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A829" s="2" t="s">
         <v>547</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="830" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A830" s="2" t="s">
         <v>549</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="831" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A831" s="2" t="s">
         <v>551</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="832" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A832" s="2" t="s">
         <v>553</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
         <v>571</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
         <v>573</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="844" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A844" s="2" t="s">
         <v>575</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="845" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A845" s="2" t="s">
         <v>577</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="846" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
         <v>579</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="847" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A847" s="2" t="s">
         <v>581</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="848" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A848" s="2" t="s">
         <v>583</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="849" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A849" s="2" t="s">
         <v>585</v>
       </c>
@@ -14039,12 +14039,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A856" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="857" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A857" s="2" t="s">
         <v>599</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="858" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A858" s="2" t="s">
         <v>601</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="859" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A859" s="2" t="s">
         <v>603</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="860" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A860" s="2" t="s">
         <v>605</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="861" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A861" s="2" t="s">
         <v>607</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="863" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A863" s="2" t="s">
         <v>610</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="870" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A870" s="2" t="s">
         <v>622</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="871" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A871" s="2" t="s">
         <v>624</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="872" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A872" s="2" t="s">
         <v>626</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="873" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A873" s="2" t="s">
         <v>628</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="874" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A874" s="2" t="s">
         <v>630</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="875" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A875" s="2" t="s">
         <v>632</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="876" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A876" s="2" t="s">
         <v>634</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="877" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A877" s="2" t="s">
         <v>636</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="878" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A878" s="2" t="s">
         <v>638</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="884" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A884" s="2" t="s">
         <v>648</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="885" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A885" s="2" t="s">
         <v>650</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="886" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A886" s="2" t="s">
         <v>652</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="887" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A887" s="2" t="s">
         <v>654</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="888" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A888" s="2" t="s">
         <v>656</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="889" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A889" s="2" t="s">
         <v>658</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="890" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A890" s="2" t="s">
         <v>660</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="891" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A891" s="2" t="s">
         <v>662</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="893" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A893" s="2" t="s">
         <v>665</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="897" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A897" s="2" t="s">
         <v>672</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="904" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A904" s="2" t="s">
         <v>684</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="905" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A905" s="2" t="s">
         <v>686</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="906" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A906" s="2" t="s">
         <v>688</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="907" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A907" s="2" t="s">
         <v>690</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="908" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A908" s="2" t="s">
         <v>692</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="909" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A909" s="2" t="s">
         <v>694</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="910" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A910" s="2" t="s">
         <v>696</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="911" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A911" s="2" t="s">
         <v>698</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A918" s="2" t="s">
         <v>710</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="919" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A919" s="2" t="s">
         <v>712</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="920" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A920" s="2" t="s">
         <v>714</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="921" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A921" s="2" t="s">
         <v>716</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="922" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A922" s="2" t="s">
         <v>718</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="923" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A923" s="2" t="s">
         <v>720</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="924" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A924" s="2" t="s">
         <v>722</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="928" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A928" s="2" t="s">
         <v>729</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="939" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A939" s="2" t="s">
         <v>749</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="940" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A940" s="2" t="s">
         <v>751</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="941" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A941" s="2" t="s">
         <v>753</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="942" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A942" s="2" t="s">
         <v>755</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="943" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A943" s="2" t="s">
         <v>757</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="944" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A944" s="2" t="s">
         <v>759</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="945" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A945" s="2" t="s">
         <v>761</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="957" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A957" s="2" t="s">
         <v>780</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="958" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A958" s="2" t="s">
         <v>782</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="959" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A959" s="2" t="s">
         <v>784</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="960" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A960" s="2" t="s">
         <v>786</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="961" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A961" s="2" t="s">
         <v>788</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="962" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A962" s="2" t="s">
         <v>790</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="963" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A963" s="2" t="s">
         <v>792</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="972" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A972" s="2" t="s">
         <v>808</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="973" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A973" s="2" t="s">
         <v>810</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="974" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A974" s="2" t="s">
         <v>812</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="975" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A975" s="2" t="s">
         <v>814</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="976" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A976" s="2" t="s">
         <v>816</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="977" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A977" s="2" t="s">
         <v>818</v>
       </c>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6051285-E7EE-FD47-8F9B-4E0420B89511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84389D09-B20E-F44F-898A-4B91888C8735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25700" yWindow="500" windowWidth="25480" windowHeight="28300" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -6790,8 +6790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6894,7 +6894,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66799AF2-98EC-8341-889D-D97556A1D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DDAE67-DC76-9040-9753-852BE6540B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25700" yWindow="500" windowWidth="25480" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="341">
   <si>
     <t>Question</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>16 years</t>
-  </si>
-  <si>
-    <t>diego1@test.com</t>
   </si>
   <si>
     <t>Please log in. Email</t>
@@ -918,9 +915,6 @@
     <t>Have you ever been diagnosed with a kidney problem?Some examples include: minor issues with kidney shape, underdeveloped kidney, missing kidney, or swollen kidney</t>
   </si>
   <si>
-    <t>ScreenerScenario1@email.com</t>
-  </si>
-  <si>
     <t>You are almost done!</t>
   </si>
   <si>
@@ -930,12 +924,6 @@
   Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
   </si>
   <si>
-    <t>Screener1First</t>
-  </si>
-  <si>
-    <t>Screener1Last</t>
-  </si>
-  <si>
     <t xml:space="preserve">We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.  We will need a copy of any test results.  </t>
   </si>
   <si>
@@ -970,12 +958,6 @@
   </si>
   <si>
     <t>kilograms</t>
-  </si>
-  <si>
-    <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.</t>
-  </si>
-  <si>
-    <t>To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.</t>
   </si>
   <si>
     <t>You are almost done! 
@@ -1141,6 +1123,18 @@
   </si>
   <si>
     <t>Do you have any of the following issues with your ears?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>charmsras1@yahoo.com</t>
+  </si>
+  <si>
+    <t>ScreenerOneLast</t>
+  </si>
+  <si>
+    <t>ScreenerOneFirst</t>
+  </si>
+  <si>
+    <t>RASTest2022$$</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1565,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1617,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1720,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1777,9 +1771,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1809,12 +1803,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1883,10 +1877,10 @@
     </row>
     <row r="39" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1902,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1923,18 +1917,18 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4">
-        <v>123456</v>
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -1950,7 +1944,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1958,12 +1952,12 @@
         <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1971,7 +1965,7 @@
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -2027,7 +2021,7 @@
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>67</v>
@@ -2035,7 +2029,7 @@
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4">
         <v>10</v>
@@ -2043,7 +2037,7 @@
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="4">
         <v>2004</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>68</v>
@@ -2067,7 +2061,7 @@
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>69</v>
@@ -2075,7 +2069,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>70</v>
@@ -2083,15 +2077,15 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>71</v>
@@ -2139,7 +2133,7 @@
     </row>
     <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>80</v>
@@ -2195,7 +2189,7 @@
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="4">
         <v>4.5</v>
@@ -2203,7 +2197,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>89</v>
@@ -2211,7 +2205,7 @@
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4">
         <v>19</v>
@@ -2219,7 +2213,7 @@
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4">
         <v>34</v>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>90</v>
@@ -2235,7 +2229,7 @@
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>91</v>
@@ -2243,15 +2237,15 @@
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>15</v>
@@ -2259,7 +2253,7 @@
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>15</v>
@@ -2267,7 +2261,7 @@
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="4">
         <v>70</v>
@@ -2275,7 +2269,7 @@
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -2283,7 +2277,7 @@
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B47" s="4">
         <v>128</v>
@@ -2291,7 +2285,7 @@
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B48" s="4">
         <v>130</v>
@@ -2299,7 +2293,7 @@
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B49" s="4">
         <v>129</v>
@@ -2307,7 +2301,7 @@
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B50" s="4">
         <v>100</v>
@@ -2315,7 +2309,7 @@
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B51" s="4">
         <v>101</v>
@@ -2323,7 +2317,7 @@
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2331,7 +2325,7 @@
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>89</v>
@@ -2339,7 +2333,7 @@
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>89</v>
@@ -2347,18 +2341,18 @@
     </row>
     <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -2379,7 +2373,7 @@
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>94</v>
@@ -2387,7 +2381,7 @@
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>15</v>
@@ -2395,10 +2389,10 @@
     </row>
     <row r="61" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2413,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89138E5-4B7A-8A4C-A60B-54B878E1BA10}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2434,31 +2428,31 @@
     </row>
     <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>3</v>
@@ -2466,7 +2460,7 @@
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>15</v>
@@ -2474,23 +2468,23 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>15</v>
@@ -2498,7 +2492,7 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="11">
         <v>45</v>
@@ -2506,15 +2500,15 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>15</v>
@@ -2522,7 +2516,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="11">
         <v>53</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
@@ -2538,15 +2532,15 @@
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>15</v>
@@ -2554,15 +2548,15 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -2570,7 +2564,7 @@
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>15</v>
@@ -2578,7 +2572,7 @@
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>15</v>
@@ -2586,7 +2580,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>15</v>
@@ -2594,7 +2588,7 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>15</v>
@@ -2602,7 +2596,7 @@
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>15</v>
@@ -2610,23 +2604,23 @@
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="11">
         <v>108</v>
@@ -2634,7 +2628,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="11">
         <v>600</v>
@@ -2642,15 +2636,15 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>15</v>
@@ -2658,7 +2652,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -2666,7 +2660,7 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>15</v>
@@ -2674,15 +2668,15 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>15</v>
@@ -2690,23 +2684,23 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>15</v>
@@ -2714,23 +2708,23 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>15</v>
@@ -2738,15 +2732,15 @@
     </row>
     <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>15</v>
@@ -2754,63 +2748,63 @@
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>15</v>
@@ -2818,7 +2812,7 @@
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>15</v>
@@ -2826,15 +2820,15 @@
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>15</v>
@@ -2842,15 +2836,15 @@
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>15</v>
@@ -2858,15 +2852,15 @@
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>15</v>
@@ -2874,12 +2868,12 @@
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>15</v>
@@ -2887,7 +2881,7 @@
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>15</v>
@@ -2895,15 +2889,15 @@
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>15</v>
@@ -2911,15 +2905,15 @@
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>15</v>
@@ -2927,7 +2921,7 @@
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>15</v>
@@ -2935,7 +2929,7 @@
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" s="11">
         <v>1</v>
@@ -2943,15 +2937,15 @@
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>15</v>
@@ -2959,15 +2953,15 @@
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>15</v>
@@ -2975,15 +2969,15 @@
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>15</v>
@@ -2991,7 +2985,7 @@
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>15</v>
@@ -2999,7 +2993,7 @@
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>15</v>
@@ -3007,7 +3001,7 @@
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>15</v>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>15</v>
@@ -3023,15 +3017,15 @@
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>15</v>
@@ -3039,23 +3033,23 @@
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>15</v>
@@ -3063,7 +3057,7 @@
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>15</v>
@@ -3071,7 +3065,7 @@
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>15</v>
@@ -3079,7 +3073,7 @@
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>15</v>
@@ -3087,7 +3081,7 @@
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>15</v>
@@ -3095,7 +3089,7 @@
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>15</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>15</v>
@@ -3111,23 +3105,23 @@
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>15</v>
@@ -3135,7 +3129,7 @@
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>15</v>
@@ -3143,7 +3137,7 @@
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>15</v>
@@ -3151,7 +3145,7 @@
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>15</v>
@@ -3159,7 +3153,7 @@
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>15</v>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>15</v>
@@ -3175,7 +3169,7 @@
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>15</v>
@@ -3183,7 +3177,7 @@
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>15</v>
@@ -3191,7 +3185,7 @@
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>15</v>
@@ -3199,7 +3193,7 @@
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>15</v>
@@ -3207,7 +3201,7 @@
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>15</v>
@@ -3215,7 +3209,7 @@
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>15</v>
@@ -3223,7 +3217,7 @@
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>15</v>
@@ -3231,7 +3225,7 @@
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>15</v>
@@ -3239,7 +3233,7 @@
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>15</v>
@@ -3247,7 +3241,7 @@
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>15</v>
@@ -3255,7 +3249,7 @@
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>15</v>
@@ -3263,127 +3257,127 @@
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>15</v>
@@ -3391,15 +3385,15 @@
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>15</v>
@@ -3407,7 +3401,7 @@
     </row>
     <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>15</v>
@@ -3415,15 +3409,15 @@
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>15</v>
@@ -3431,63 +3425,63 @@
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>15</v>
@@ -3495,15 +3489,15 @@
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>15</v>
@@ -3511,7 +3505,7 @@
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>15</v>
@@ -3519,7 +3513,7 @@
     </row>
     <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>15</v>
@@ -3527,15 +3521,15 @@
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>15</v>
@@ -3543,7 +3537,7 @@
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>15</v>
@@ -3551,7 +3545,7 @@
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>15</v>
@@ -3559,15 +3553,15 @@
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>15</v>
@@ -3575,7 +3569,7 @@
     </row>
     <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>15</v>
@@ -3583,7 +3577,7 @@
     </row>
     <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>15</v>
@@ -3591,15 +3585,15 @@
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>15</v>
@@ -3607,7 +3601,7 @@
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>15</v>
@@ -3615,7 +3609,7 @@
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>15</v>
@@ -3623,7 +3617,7 @@
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>15</v>
@@ -3631,7 +3625,7 @@
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -3639,23 +3633,23 @@
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>15</v>
@@ -3663,7 +3657,7 @@
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>15</v>
@@ -3671,15 +3665,15 @@
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>15</v>
@@ -3687,7 +3681,7 @@
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>15</v>
@@ -3695,7 +3689,7 @@
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>15</v>
@@ -3703,26 +3697,26 @@
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DDAE67-DC76-9040-9753-852BE6540B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14BE47-3EAF-5F42-8276-FB91D374F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25700" yWindow="500" windowWidth="25480" windowHeight="28300" activeTab="2" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="25700" yWindow="500" windowWidth="25480" windowHeight="28300" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="343">
   <si>
     <t>Question</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>RASTest2022$$</t>
+  </si>
+  <si>
+    <t>To determine eligibility for this study, we need to collect information about medical diagnoses.</t>
+  </si>
+  <si>
+    <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1571,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1771,9 +1777,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1803,9 +1809,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>271</v>
@@ -1896,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2407,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89138E5-4B7A-8A4C-A60B-54B878E1BA10}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>152</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>153</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>155</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>258</v>
       </c>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14BE47-3EAF-5F42-8276-FB91D374F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A6DB3-BC37-B141-9434-618C0B3CA2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25700" yWindow="500" windowWidth="25480" windowHeight="28300" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="25480" windowHeight="28300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="340">
   <si>
     <t>Question</t>
   </si>
@@ -340,12 +340,6 @@
   </si>
   <si>
     <t>16 years</t>
-  </si>
-  <si>
-    <t>Please log in. Email</t>
-  </si>
-  <si>
-    <t>Please log in. One Time Pin</t>
   </si>
   <si>
     <t xml:space="preserve">Some of this information may be difficult for you to recall completely. If you cannot remember something exactly, please give your best estimate. Feel free to consult other family members, doctors, medical records, or any other sources that may assist you.
@@ -1132,9 +1126,6 @@
   </si>
   <si>
     <t>ScreenerOneFirst</t>
-  </si>
-  <si>
-    <t>RASTest2022$$</t>
   </si>
   <si>
     <t>To determine eligibility for this study, we need to collect information about medical diagnoses.</t>
@@ -1570,13 +1561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.33203125" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
     <col min="2" max="2" width="53" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1601,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1617,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1709,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1779,7 +1770,7 @@
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1811,10 +1802,10 @@
     </row>
     <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1883,10 +1874,10 @@
     </row>
     <row r="39" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1900,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1921,249 +1912,249 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>99</v>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
+      <c r="B15" s="4">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
+        <v>38301</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7">
-        <v>38301</v>
+        <v>100</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>68</v>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -2171,90 +2162,90 @@
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="4">
-        <v>4.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>89</v>
+      <c r="A37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="4">
-        <v>19</v>
+        <v>110</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>90</v>
+        <v>123</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>125</v>
+      <c r="B42" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
+      <c r="B43" s="4">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2262,63 +2253,63 @@
         <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="B45" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>272</v>
+      </c>
+      <c r="B46" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B47" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" s="4">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B49" s="4">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="4">
-        <v>100</v>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B51" s="4">
-        <v>101</v>
+      <c r="B51" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2334,7 +2325,7 @@
         <v>278</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2342,69 +2333,50 @@
         <v>279</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>124</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C1CFFB7-EAA4-BF4D-9E37-A0CDDDFF3A46}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2413,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89138E5-4B7A-8A4C-A60B-54B878E1BA10}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2434,31 +2406,31 @@
     </row>
     <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>3</v>
@@ -2466,7 +2438,7 @@
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>15</v>
@@ -2474,23 +2446,23 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>15</v>
@@ -2498,7 +2470,7 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="11">
         <v>45</v>
@@ -2506,15 +2478,15 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>15</v>
@@ -2522,7 +2494,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="11">
         <v>53</v>
@@ -2530,7 +2502,7 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
@@ -2538,15 +2510,15 @@
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>15</v>
@@ -2554,15 +2526,15 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -2570,7 +2542,7 @@
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>15</v>
@@ -2578,7 +2550,7 @@
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>15</v>
@@ -2586,7 +2558,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>15</v>
@@ -2594,7 +2566,7 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>15</v>
@@ -2602,7 +2574,7 @@
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>15</v>
@@ -2610,23 +2582,23 @@
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="11">
         <v>108</v>
@@ -2634,7 +2606,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="11">
         <v>600</v>
@@ -2642,15 +2614,15 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>15</v>
@@ -2658,7 +2630,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -2666,7 +2638,7 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>15</v>
@@ -2674,15 +2646,15 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>15</v>
@@ -2690,23 +2662,23 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>15</v>
@@ -2714,23 +2686,23 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>15</v>
@@ -2738,15 +2710,15 @@
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>15</v>
@@ -2754,63 +2726,63 @@
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>15</v>
@@ -2818,7 +2790,7 @@
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>15</v>
@@ -2826,15 +2798,15 @@
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>15</v>
@@ -2842,15 +2814,15 @@
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>15</v>
@@ -2858,15 +2830,15 @@
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>15</v>
@@ -2874,12 +2846,12 @@
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>15</v>
@@ -2887,7 +2859,7 @@
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>15</v>
@@ -2895,15 +2867,15 @@
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>15</v>
@@ -2911,15 +2883,15 @@
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>15</v>
@@ -2927,7 +2899,7 @@
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>15</v>
@@ -2935,7 +2907,7 @@
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="11">
         <v>1</v>
@@ -2943,15 +2915,15 @@
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>15</v>
@@ -2959,15 +2931,15 @@
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>15</v>
@@ -2975,15 +2947,15 @@
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>15</v>
@@ -2991,7 +2963,7 @@
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>15</v>
@@ -2999,7 +2971,7 @@
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>15</v>
@@ -3007,7 +2979,7 @@
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>15</v>
@@ -3015,7 +2987,7 @@
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>15</v>
@@ -3023,15 +2995,15 @@
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>15</v>
@@ -3039,23 +3011,23 @@
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>15</v>
@@ -3063,7 +3035,7 @@
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>15</v>
@@ -3071,7 +3043,7 @@
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>15</v>
@@ -3079,7 +3051,7 @@
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>15</v>
@@ -3087,7 +3059,7 @@
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>15</v>
@@ -3095,7 +3067,7 @@
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>15</v>
@@ -3103,7 +3075,7 @@
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>15</v>
@@ -3111,23 +3083,23 @@
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>15</v>
@@ -3135,7 +3107,7 @@
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>15</v>
@@ -3143,7 +3115,7 @@
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>15</v>
@@ -3151,7 +3123,7 @@
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>15</v>
@@ -3159,7 +3131,7 @@
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>15</v>
@@ -3167,7 +3139,7 @@
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>15</v>
@@ -3175,7 +3147,7 @@
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>15</v>
@@ -3183,7 +3155,7 @@
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>15</v>
@@ -3191,7 +3163,7 @@
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>15</v>
@@ -3199,7 +3171,7 @@
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>15</v>
@@ -3207,7 +3179,7 @@
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>15</v>
@@ -3215,7 +3187,7 @@
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>15</v>
@@ -3223,7 +3195,7 @@
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>15</v>
@@ -3231,7 +3203,7 @@
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>15</v>
@@ -3239,7 +3211,7 @@
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>15</v>
@@ -3247,7 +3219,7 @@
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>15</v>
@@ -3255,7 +3227,7 @@
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>15</v>
@@ -3263,127 +3235,127 @@
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>15</v>
@@ -3391,15 +3363,15 @@
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>15</v>
@@ -3407,7 +3379,7 @@
     </row>
     <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>15</v>
@@ -3415,15 +3387,15 @@
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>15</v>
@@ -3431,63 +3403,63 @@
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>15</v>
@@ -3495,15 +3467,15 @@
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>15</v>
@@ -3511,7 +3483,7 @@
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>15</v>
@@ -3519,7 +3491,7 @@
     </row>
     <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>15</v>
@@ -3527,15 +3499,15 @@
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>15</v>
@@ -3543,7 +3515,7 @@
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>15</v>
@@ -3551,7 +3523,7 @@
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>15</v>
@@ -3559,15 +3531,15 @@
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>15</v>
@@ -3575,7 +3547,7 @@
     </row>
     <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>15</v>
@@ -3583,7 +3555,7 @@
     </row>
     <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>15</v>
@@ -3591,15 +3563,15 @@
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>15</v>
@@ -3607,7 +3579,7 @@
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>15</v>
@@ -3615,7 +3587,7 @@
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>15</v>
@@ -3623,7 +3595,7 @@
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>15</v>
@@ -3631,7 +3603,7 @@
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
@@ -3639,23 +3611,23 @@
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>15</v>
@@ -3663,7 +3635,7 @@
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>15</v>
@@ -3671,15 +3643,15 @@
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>15</v>
@@ -3687,7 +3659,7 @@
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>15</v>
@@ -3695,7 +3667,7 @@
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>15</v>
@@ -3703,26 +3675,26 @@
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A6DB3-BC37-B141-9434-618C0B3CA2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF473B-0822-9741-927A-D887522473F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="500" windowWidth="25480" windowHeight="28300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="341">
   <si>
     <t>Question</t>
   </si>
@@ -1122,16 +1122,19 @@
     <t>charmsras1@yahoo.com</t>
   </si>
   <si>
-    <t>ScreenerOneLast</t>
-  </si>
-  <si>
-    <t>ScreenerOneFirst</t>
-  </si>
-  <si>
     <t>To determine eligibility for this study, we need to collect information about medical diagnoses.</t>
   </si>
   <si>
     <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.</t>
+  </si>
+  <si>
+    <t>SCREENERSCENARIOONEFIRSTNAME</t>
+  </si>
+  <si>
+    <t>SCREENERSCENARIOTWOLASTNAME</t>
+  </si>
+  <si>
+    <t>April 1, 1990</t>
   </si>
 </sst>
 </file>
@@ -1214,9 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1243,6 +1243,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1263,9 +1266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1303,7 +1306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1409,7 +1412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1551,7 +1554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1561,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1608,15 +1611,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
-        <v>32964</v>
+      <c r="B6" s="15" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1711,7 @@
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -1716,7 +1719,7 @@
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>269</v>
@@ -1832,7 +1835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -1876,7 +1879,7 @@
       <c r="A39" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>268</v>
       </c>
     </row>
@@ -1916,7 +1919,7 @@
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1924,7 +1927,7 @@
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1932,7 +1935,7 @@
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2028,7 +2031,7 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>38301</v>
       </c>
     </row>
@@ -2036,7 +2039,7 @@
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2185,7 +2188,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="4">
@@ -2193,7 +2196,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="4">
@@ -2201,7 +2204,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2209,7 +2212,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -2217,15 +2220,15 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2233,7 +2236,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2241,7 +2244,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="4">
@@ -2249,7 +2252,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2257,7 +2260,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B45" s="4">
@@ -2265,7 +2268,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B46" s="4">
@@ -2273,7 +2276,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B47" s="4">
@@ -2281,7 +2284,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B48" s="4">
@@ -2289,7 +2292,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>274</v>
       </c>
       <c r="B49" s="4">
@@ -2297,7 +2300,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2305,7 +2308,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2313,7 +2316,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2321,7 +2324,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2329,7 +2332,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2337,7 +2340,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2345,7 +2348,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2353,7 +2356,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2361,7 +2364,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2372,7 +2375,7 @@
       <c r="A59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2391,1309 +2394,1309 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="125.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.33203125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="125.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="128" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="11" t="s">
         <v>281</v>
       </c>
     </row>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF473B-0822-9741-927A-D887522473F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C15F49-9A97-2547-AD4B-79D9CEC3112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="7840" yWindow="2660" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="336">
   <si>
     <t>Question</t>
   </si>
@@ -154,9 +154,6 @@
     <t>I am not involved in any other research study or registry group</t>
   </si>
   <si>
-    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. </t>
-  </si>
-  <si>
     <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer.</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>Have you ever had genetic testing?</t>
-  </si>
-  <si>
-    <t>We will now ask a few remaining questions regarding this study.</t>
   </si>
   <si>
     <t>How did you hear about this study?  If a specific health care provider referred you to this study, please include their name in the corresponding text box.</t>
@@ -918,9 +912,6 @@
   Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
   </si>
   <si>
-    <t xml:space="preserve">We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.  We will need a copy of any test results.  </t>
-  </si>
-  <si>
     <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 1 Option 1</t>
   </si>
   <si>
@@ -1120,12 +1111,6 @@
   </si>
   <si>
     <t>charmsras1@yahoo.com</t>
-  </si>
-  <si>
-    <t>To determine eligibility for this study, we need to collect information about medical diagnoses.</t>
-  </si>
-  <si>
-    <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.</t>
   </si>
   <si>
     <t>SCREENERSCENARIOONEFIRSTNAME</t>
@@ -1562,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1619,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1673,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1712,7 +1697,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1720,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1736,7 +1721,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1744,7 +1729,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1757,7 +1742,7 @@
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>35</v>
@@ -1771,23 +1756,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>336</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1795,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1803,84 +1788,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1917,31 +1878,31 @@
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1949,7 +1910,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -1957,7 +1918,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -1965,23 +1926,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -1997,7 +1958,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -2005,15 +1966,15 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
@@ -2021,7 +1982,7 @@
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="4">
         <v>2004</v>
@@ -2037,71 +1998,71 @@
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>35</v>
@@ -2109,7 +2070,7 @@
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -2117,31 +2078,31 @@
     </row>
     <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
@@ -2149,7 +2110,7 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -2157,7 +2118,7 @@
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -2165,15 +2126,15 @@
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4">
         <v>4.5</v>
@@ -2181,15 +2142,15 @@
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="4">
         <v>19</v>
@@ -2197,7 +2158,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B37" s="4">
         <v>34</v>
@@ -2205,31 +2166,31 @@
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>15</v>
@@ -2237,7 +2198,7 @@
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>15</v>
@@ -2245,7 +2206,7 @@
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" s="4">
         <v>70</v>
@@ -2253,15 +2214,15 @@
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B45" s="4">
         <v>128</v>
@@ -2269,7 +2230,7 @@
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B46" s="4">
         <v>130</v>
@@ -2277,7 +2238,7 @@
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B47" s="4">
         <v>129</v>
@@ -2285,7 +2246,7 @@
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B48" s="4">
         <v>100</v>
@@ -2293,7 +2254,7 @@
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B49" s="4">
         <v>101</v>
@@ -2301,71 +2262,71 @@
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>15</v>
@@ -2373,10 +2334,10 @@
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2409,31 +2370,31 @@
     </row>
     <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -2441,7 +2402,7 @@
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>15</v>
@@ -2449,23 +2410,23 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>15</v>
@@ -2473,7 +2434,7 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10">
         <v>45</v>
@@ -2481,15 +2442,15 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>15</v>
@@ -2497,7 +2458,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" s="10">
         <v>53</v>
@@ -2505,7 +2466,7 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>15</v>
@@ -2513,15 +2474,15 @@
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>15</v>
@@ -2529,15 +2490,15 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>15</v>
@@ -2545,7 +2506,7 @@
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>15</v>
@@ -2553,7 +2514,7 @@
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>15</v>
@@ -2561,7 +2522,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>15</v>
@@ -2569,7 +2530,7 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>15</v>
@@ -2577,7 +2538,7 @@
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -2585,23 +2546,23 @@
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" s="10">
         <v>108</v>
@@ -2609,7 +2570,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" s="10">
         <v>600</v>
@@ -2617,15 +2578,15 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>15</v>
@@ -2633,7 +2594,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
@@ -2641,7 +2602,7 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>15</v>
@@ -2649,15 +2610,15 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>15</v>
@@ -2665,23 +2626,23 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>15</v>
@@ -2689,23 +2650,23 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>15</v>
@@ -2713,15 +2674,15 @@
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>15</v>
@@ -2729,63 +2690,63 @@
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>15</v>
@@ -2793,7 +2754,7 @@
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>15</v>
@@ -2801,15 +2762,15 @@
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>15</v>
@@ -2817,15 +2778,15 @@
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>15</v>
@@ -2833,15 +2794,15 @@
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>15</v>
@@ -2849,12 +2810,12 @@
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>15</v>
@@ -2862,7 +2823,7 @@
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>15</v>
@@ -2870,15 +2831,15 @@
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>15</v>
@@ -2886,15 +2847,15 @@
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>15</v>
@@ -2902,7 +2863,7 @@
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>15</v>
@@ -2910,7 +2871,7 @@
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
@@ -2918,15 +2879,15 @@
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>15</v>
@@ -2934,15 +2895,15 @@
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>15</v>
@@ -2950,15 +2911,15 @@
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>15</v>
@@ -2966,7 +2927,7 @@
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>15</v>
@@ -2974,7 +2935,7 @@
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>15</v>
@@ -2982,7 +2943,7 @@
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>15</v>
@@ -2990,7 +2951,7 @@
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>15</v>
@@ -2998,15 +2959,15 @@
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>15</v>
@@ -3014,23 +2975,23 @@
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>15</v>
@@ -3038,7 +2999,7 @@
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>15</v>
@@ -3046,7 +3007,7 @@
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>15</v>
@@ -3054,7 +3015,7 @@
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>15</v>
@@ -3062,7 +3023,7 @@
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>15</v>
@@ -3070,7 +3031,7 @@
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>15</v>
@@ -3078,7 +3039,7 @@
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>15</v>
@@ -3086,23 +3047,23 @@
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>15</v>
@@ -3110,7 +3071,7 @@
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>15</v>
@@ -3118,7 +3079,7 @@
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>15</v>
@@ -3126,7 +3087,7 @@
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>15</v>
@@ -3134,7 +3095,7 @@
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>15</v>
@@ -3142,7 +3103,7 @@
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>15</v>
@@ -3150,7 +3111,7 @@
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>15</v>
@@ -3158,7 +3119,7 @@
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>15</v>
@@ -3166,7 +3127,7 @@
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>15</v>
@@ -3174,7 +3135,7 @@
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>15</v>
@@ -3182,7 +3143,7 @@
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>15</v>
@@ -3190,7 +3151,7 @@
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>15</v>
@@ -3198,7 +3159,7 @@
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>15</v>
@@ -3206,7 +3167,7 @@
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>15</v>
@@ -3214,7 +3175,7 @@
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>15</v>
@@ -3222,7 +3183,7 @@
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>15</v>
@@ -3230,7 +3191,7 @@
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>15</v>
@@ -3238,127 +3199,127 @@
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>15</v>
@@ -3366,15 +3327,15 @@
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>15</v>
@@ -3382,7 +3343,7 @@
     </row>
     <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>15</v>
@@ -3390,15 +3351,15 @@
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>15</v>
@@ -3406,63 +3367,63 @@
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>15</v>
@@ -3470,15 +3431,15 @@
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>15</v>
@@ -3486,7 +3447,7 @@
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>15</v>
@@ -3494,7 +3455,7 @@
     </row>
     <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>15</v>
@@ -3502,15 +3463,15 @@
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>15</v>
@@ -3518,7 +3479,7 @@
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>15</v>
@@ -3526,7 +3487,7 @@
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>15</v>
@@ -3534,15 +3495,15 @@
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>15</v>
@@ -3550,7 +3511,7 @@
     </row>
     <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>15</v>
@@ -3558,7 +3519,7 @@
     </row>
     <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>15</v>
@@ -3566,15 +3527,15 @@
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>15</v>
@@ -3582,7 +3543,7 @@
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>15</v>
@@ -3590,7 +3551,7 @@
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>15</v>
@@ -3598,7 +3559,7 @@
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>15</v>
@@ -3606,7 +3567,7 @@
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>15</v>
@@ -3614,23 +3575,23 @@
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>15</v>
@@ -3638,7 +3599,7 @@
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>15</v>
@@ -3646,15 +3607,15 @@
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>15</v>
@@ -3662,7 +3623,7 @@
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>15</v>
@@ -3670,7 +3631,7 @@
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>15</v>
@@ -3678,26 +3639,26 @@
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C15F49-9A97-2547-AD4B-79D9CEC3112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BEA5E-0660-494B-9E39-4956640339B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="2660" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="7240" yWindow="920" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -1113,13 +1113,13 @@
     <t>charmsras1@yahoo.com</t>
   </si>
   <si>
-    <t>SCREENERSCENARIOONEFIRSTNAME</t>
-  </si>
-  <si>
-    <t>SCREENERSCENARIOTWOLASTNAME</t>
-  </si>
-  <si>
     <t>April 1, 1990</t>
+  </si>
+  <si>
+    <t>DiegoFirstTest</t>
+  </si>
+  <si>
+    <t>JuarezTest</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BEA5E-0660-494B-9E39-4956640339B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C3572-B6AE-CD4C-B935-69D2B68B78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7240" yWindow="920" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C3572-B6AE-CD4C-B935-69D2B68B78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22997C-F0C6-D246-8E08-3E297D681B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7240" yWindow="920" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22997C-F0C6-D246-8E08-3E297D681B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197FBF7-3D44-B24C-BE27-773C6EEA9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="920" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="5040" yWindow="1000" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Date of birth month</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>Date of birth year</t>
   </si>
   <si>
@@ -1113,13 +1110,16 @@
     <t>charmsras1@yahoo.com</t>
   </si>
   <si>
-    <t>April 1, 1990</t>
-  </si>
-  <si>
     <t>DiegoFirstTest</t>
   </si>
   <si>
     <t>JuarezTest</t>
+  </si>
+  <si>
+    <t>October 1, 1990</t>
+  </si>
+  <si>
+    <t>October</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,12 +1612,12 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>1990</v>
@@ -1625,68 +1625,68 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>22015</v>
@@ -1694,154 +1694,154 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1878,31 +1878,31 @@
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1910,71 +1910,71 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4">
         <v>2004</v>
@@ -1998,143 +1998,143 @@
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="4">
         <v>4.5</v>
@@ -2142,15 +2142,15 @@
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4">
         <v>19</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4">
         <v>34</v>
@@ -2166,47 +2166,47 @@
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4">
         <v>70</v>
@@ -2214,15 +2214,15 @@
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="4">
         <v>128</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B46" s="4">
         <v>130</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="4">
         <v>129</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="4">
         <v>100</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="4">
         <v>101</v>
@@ -2262,82 +2262,82 @@
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2370,31 +2370,31 @@
     </row>
     <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -2402,39 +2402,39 @@
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="10">
         <v>45</v>
@@ -2442,23 +2442,23 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="10">
         <v>53</v>
@@ -2466,103 +2466,103 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="10">
         <v>108</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" s="10">
         <v>600</v>
@@ -2578,300 +2578,300 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
@@ -2879,786 +2879,786 @@
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197FBF7-3D44-B24C-BE27-773C6EEA9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3E624-CFC9-724D-92E7-9551D40421D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="1000" windowWidth="22940" windowHeight="14300" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
